--- a/2 results_cleaned.xlsx
+++ b/2 results_cleaned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="350">
   <si>
     <t>Session</t>
   </si>
@@ -995,7 +995,7 @@
     <t>Default+Info</t>
   </si>
   <si>
-    <t>Default+Info+Purpose</t>
+    <t>Default+Info +Purpose</t>
   </si>
   <si>
     <t>Default+Purpose</t>
@@ -1023,6 +1023,9 @@
   </si>
   <si>
     <t>Below</t>
+  </si>
+  <si>
+    <t>Default+Info+Purpose</t>
   </si>
   <si>
     <t>No Default</t>
@@ -1690,10 +1693,10 @@
         <v>2.0</v>
       </c>
       <c r="CE2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG2" t="s">
         <v>324</v>
@@ -1762,7 +1765,7 @@
         <v>329</v>
       </c>
       <c r="DC2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD2" t="s">
         <v>15</v>
@@ -1771,7 +1774,7 @@
         <v>0.0</v>
       </c>
       <c r="DF2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0</v>
@@ -2028,7 +2031,7 @@
         <v>325</v>
       </c>
       <c r="CF3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG3" t="s">
         <v>325</v>
@@ -2061,7 +2064,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR3" t="n">
         <v>1.0</v>
@@ -2100,13 +2103,13 @@
         <v>105</v>
       </c>
       <c r="DD3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE3" t="n">
         <v>0.0</v>
       </c>
       <c r="DF3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG3" t="n">
         <v>3.7142857142857144</v>
@@ -2396,7 +2399,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR4" t="n">
         <v>0.0</v>
@@ -2435,13 +2438,13 @@
         <v>105</v>
       </c>
       <c r="DD4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE4" t="n">
         <v>0.0</v>
       </c>
       <c r="DF4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG4" t="n">
         <v>2.857142857142857</v>
@@ -2686,7 +2689,7 @@
         <v>0.0</v>
       </c>
       <c r="CB5" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC5" t="n">
         <v>8.0</v>
@@ -2731,7 +2734,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR5" t="n">
         <v>1.0</v>
@@ -2770,13 +2773,13 @@
         <v>105</v>
       </c>
       <c r="DD5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE5" t="n">
         <v>0.0</v>
       </c>
       <c r="DF5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG5" t="n">
         <v>2.857142857142857</v>
@@ -3066,7 +3069,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR6" t="n">
         <v>1.0</v>
@@ -3105,13 +3108,13 @@
         <v>105</v>
       </c>
       <c r="DD6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE6" t="n">
         <v>0.0</v>
       </c>
       <c r="DF6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG6" t="n">
         <v>3.4285714285714284</v>
@@ -3365,10 +3368,10 @@
         <v>5.0</v>
       </c>
       <c r="CE7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG7" t="s">
         <v>324</v>
@@ -3440,13 +3443,13 @@
         <v>105</v>
       </c>
       <c r="DD7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE7" t="n">
         <v>0.0</v>
       </c>
       <c r="DF7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG7" t="n">
         <v>0.0</v>
@@ -3703,7 +3706,7 @@
         <v>325</v>
       </c>
       <c r="CF8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG8" t="s">
         <v>325</v>
@@ -3736,7 +3739,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR8" t="n">
         <v>0.0</v>
@@ -3781,7 +3784,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG8" t="n">
         <v>2.7142857142857144</v>
@@ -4071,7 +4074,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR9" t="n">
         <v>0.0</v>
@@ -4116,7 +4119,7 @@
         <v>0.0</v>
       </c>
       <c r="DF9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG9" t="n">
         <v>3.2142857142857144</v>
@@ -4361,7 +4364,7 @@
         <v>1.0</v>
       </c>
       <c r="CB10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC10" t="n">
         <v>5.0</v>
@@ -4406,7 +4409,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR10" t="n">
         <v>1.0</v>
@@ -4445,13 +4448,13 @@
         <v>105</v>
       </c>
       <c r="DD10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE10" t="n">
         <v>0.0</v>
       </c>
       <c r="DF10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG10" t="n">
         <v>2.857142857142857</v>
@@ -4741,7 +4744,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR11" t="n">
         <v>1.0</v>
@@ -4780,13 +4783,13 @@
         <v>105</v>
       </c>
       <c r="DD11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE11" t="n">
         <v>0.0</v>
       </c>
       <c r="DF11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG11" t="n">
         <v>3.0</v>
@@ -5040,10 +5043,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG12" t="s">
         <v>324</v>
@@ -5115,13 +5118,13 @@
         <v>105</v>
       </c>
       <c r="DD12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE12" t="n">
         <v>0.0</v>
       </c>
       <c r="DF12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG12" t="n">
         <v>0.0</v>
@@ -5378,7 +5381,7 @@
         <v>325</v>
       </c>
       <c r="CF13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG13" t="s">
         <v>325</v>
@@ -5411,7 +5414,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR13" t="n">
         <v>1.0</v>
@@ -5450,13 +5453,13 @@
         <v>105</v>
       </c>
       <c r="DD13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE13" t="n">
         <v>1.0</v>
       </c>
       <c r="DF13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG13" t="n">
         <v>3.142857142857143</v>
@@ -5746,7 +5749,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR14" t="n">
         <v>1.0</v>
@@ -5785,13 +5788,13 @@
         <v>105</v>
       </c>
       <c r="DD14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE14" t="n">
         <v>0.0</v>
       </c>
       <c r="DF14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG14" t="n">
         <v>3.357142857142857</v>
@@ -6036,7 +6039,7 @@
         <v>1.0</v>
       </c>
       <c r="CB15" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC15" t="n">
         <v>0.0</v>
@@ -6081,7 +6084,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR15" t="n">
         <v>1.0</v>
@@ -6120,13 +6123,13 @@
         <v>105</v>
       </c>
       <c r="DD15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE15" t="n">
         <v>1.0</v>
       </c>
       <c r="DF15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG15" t="n">
         <v>3.142857142857143</v>
@@ -6416,7 +6419,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR16" t="n">
         <v>1.0</v>
@@ -6455,13 +6458,13 @@
         <v>105</v>
       </c>
       <c r="DD16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE16" t="n">
         <v>0.0</v>
       </c>
       <c r="DF16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG16" t="n">
         <v>3.9285714285714284</v>
@@ -6715,10 +6718,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG17" t="s">
         <v>324</v>
@@ -6790,13 +6793,13 @@
         <v>105</v>
       </c>
       <c r="DD17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE17" t="n">
         <v>0.0</v>
       </c>
       <c r="DF17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7053,7 +7056,7 @@
         <v>325</v>
       </c>
       <c r="CF18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG18" t="s">
         <v>325</v>
@@ -7086,7 +7089,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR18" t="n">
         <v>0.0</v>
@@ -7125,13 +7128,13 @@
         <v>105</v>
       </c>
       <c r="DD18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE18" t="n">
         <v>0.0</v>
       </c>
       <c r="DF18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG18" t="n">
         <v>3.0714285714285716</v>
@@ -7421,7 +7424,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7460,13 +7463,13 @@
         <v>105</v>
       </c>
       <c r="DD19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE19" t="n">
         <v>0.0</v>
       </c>
       <c r="DF19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG19" t="n">
         <v>3.0</v>
@@ -7711,7 +7714,7 @@
         <v>1.0</v>
       </c>
       <c r="CB20" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -7756,7 +7759,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR20" t="n">
         <v>1.0</v>
@@ -7795,13 +7798,13 @@
         <v>105</v>
       </c>
       <c r="DD20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE20" t="n">
         <v>1.0</v>
       </c>
       <c r="DF20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG20" t="n">
         <v>2.5</v>
@@ -8091,7 +8094,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR21" t="n">
         <v>1.0</v>
@@ -8127,16 +8130,16 @@
         <v>329</v>
       </c>
       <c r="DC21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE21" t="n">
         <v>0.0</v>
       </c>
       <c r="DF21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG21" t="n">
         <v>2.7142857142857144</v>
@@ -8390,10 +8393,10 @@
         <v>4.0</v>
       </c>
       <c r="CE22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG22" t="s">
         <v>324</v>
@@ -8471,7 +8474,7 @@
         <v>0.0</v>
       </c>
       <c r="DF22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG22" t="n">
         <v>0.0</v>
@@ -8728,7 +8731,7 @@
         <v>325</v>
       </c>
       <c r="CF23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG23" t="s">
         <v>325</v>
@@ -8761,7 +8764,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR23" t="n">
         <v>0.0</v>
@@ -8800,13 +8803,13 @@
         <v>105</v>
       </c>
       <c r="DD23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE23" t="n">
         <v>1.0</v>
       </c>
       <c r="DF23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG23" t="n">
         <v>2.7142857142857144</v>
@@ -9096,7 +9099,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR24" t="n">
         <v>0.0</v>
@@ -9132,16 +9135,16 @@
         <v>330</v>
       </c>
       <c r="DC24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE24" t="n">
         <v>0.0</v>
       </c>
       <c r="DF24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG24" t="n">
         <v>3.0</v>
@@ -9386,7 +9389,7 @@
         <v>1.0</v>
       </c>
       <c r="CB25" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC25" t="n">
         <v>7.0</v>
@@ -9431,7 +9434,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR25" t="n">
         <v>1.0</v>
@@ -9476,7 +9479,7 @@
         <v>0.0</v>
       </c>
       <c r="DF25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG25" t="n">
         <v>2.7857142857142856</v>
@@ -9766,7 +9769,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR26" t="n">
         <v>1.0</v>
@@ -9802,7 +9805,7 @@
         <v>330</v>
       </c>
       <c r="DC26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD26" t="s">
         <v>15</v>
@@ -9811,7 +9814,7 @@
         <v>1.0</v>
       </c>
       <c r="DF26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG26" t="n">
         <v>5.0</v>
@@ -10068,7 +10071,7 @@
         <v>325</v>
       </c>
       <c r="CF27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG27" t="s">
         <v>325</v>
@@ -10101,7 +10104,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR27" t="n">
         <v>1.0</v>
@@ -10146,7 +10149,7 @@
         <v>1.0</v>
       </c>
       <c r="DF27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG27" t="n">
         <v>1.7142857142857142</v>
@@ -10436,7 +10439,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR28" t="n">
         <v>1.0</v>
@@ -10481,7 +10484,7 @@
         <v>0.0</v>
       </c>
       <c r="DF28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="DG28" t="n">
         <v>3.9285714285714284</v>
@@ -10726,7 +10729,7 @@
         <v>0.0</v>
       </c>
       <c r="CB29" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC29" t="n">
         <v>8.0</v>
@@ -10771,7 +10774,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR29" t="n">
         <v>0.0</v>
@@ -10807,16 +10810,16 @@
         <v>329</v>
       </c>
       <c r="DC29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE29" t="n">
         <v>0.0</v>
       </c>
       <c r="DF29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG29" t="n">
         <v>1.9285714285714286</v>
@@ -11070,10 +11073,10 @@
         <v>4.0</v>
       </c>
       <c r="CE30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG30" t="s">
         <v>324</v>
@@ -11151,7 +11154,7 @@
         <v>0.0</v>
       </c>
       <c r="DF30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG30" t="n">
         <v>0.0</v>
@@ -11408,7 +11411,7 @@
         <v>325</v>
       </c>
       <c r="CF31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG31" t="s">
         <v>325</v>
@@ -11441,7 +11444,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR31" t="n">
         <v>0.0</v>
@@ -11477,16 +11480,16 @@
         <v>329</v>
       </c>
       <c r="DC31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE31" t="n">
         <v>0.0</v>
       </c>
       <c r="DF31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG31" t="n">
         <v>3.142857142857143</v>
@@ -11776,7 +11779,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR32" t="n">
         <v>1.0</v>
@@ -11821,7 +11824,7 @@
         <v>0.0</v>
       </c>
       <c r="DF32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG32" t="n">
         <v>1.7857142857142858</v>
@@ -12066,7 +12069,7 @@
         <v>1.0</v>
       </c>
       <c r="CB33" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC33" t="n">
         <v>7.0</v>
@@ -12111,7 +12114,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR33" t="n">
         <v>0.0</v>
@@ -12150,13 +12153,13 @@
         <v>105</v>
       </c>
       <c r="DD33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE33" t="n">
         <v>0.0</v>
       </c>
       <c r="DF33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG33" t="n">
         <v>2.857142857142857</v>
@@ -12446,7 +12449,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR34" t="n">
         <v>0.0</v>
@@ -12482,16 +12485,16 @@
         <v>330</v>
       </c>
       <c r="DC34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE34" t="n">
         <v>0.0</v>
       </c>
       <c r="DF34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG34" t="n">
         <v>2.9285714285714284</v>
@@ -12745,10 +12748,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG35" t="s">
         <v>324</v>
@@ -12817,16 +12820,16 @@
         <v>329</v>
       </c>
       <c r="DC35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE35" t="n">
         <v>0.0</v>
       </c>
       <c r="DF35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG35" t="n">
         <v>0.0</v>
@@ -13083,7 +13086,7 @@
         <v>325</v>
       </c>
       <c r="CF36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG36" t="s">
         <v>325</v>
@@ -13116,7 +13119,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR36" t="n">
         <v>0.0</v>
@@ -13155,13 +13158,13 @@
         <v>105</v>
       </c>
       <c r="DD36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE36" t="n">
         <v>0.0</v>
       </c>
       <c r="DF36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG36" t="n">
         <v>3.0</v>
@@ -13451,7 +13454,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR37" t="n">
         <v>1.0</v>
@@ -13490,13 +13493,13 @@
         <v>105</v>
       </c>
       <c r="DD37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE37" t="n">
         <v>0.0</v>
       </c>
       <c r="DF37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG37" t="n">
         <v>3.2142857142857144</v>
@@ -13741,7 +13744,7 @@
         <v>0.0</v>
       </c>
       <c r="CB38" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC38" t="n">
         <v>8.0</v>
@@ -13786,7 +13789,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR38" t="n">
         <v>1.0</v>
@@ -13822,16 +13825,16 @@
         <v>329</v>
       </c>
       <c r="DC38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE38" t="n">
         <v>0.0</v>
       </c>
       <c r="DF38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG38" t="n">
         <v>3.5714285714285716</v>
@@ -14121,7 +14124,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR39" t="n">
         <v>0.0</v>
@@ -14157,16 +14160,16 @@
         <v>329</v>
       </c>
       <c r="DC39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE39" t="n">
         <v>0.0</v>
       </c>
       <c r="DF39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG39" t="n">
         <v>2.9285714285714284</v>
@@ -14420,10 +14423,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG40" t="s">
         <v>324</v>
@@ -14495,13 +14498,13 @@
         <v>105</v>
       </c>
       <c r="DD40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE40" t="n">
         <v>0.0</v>
       </c>
       <c r="DF40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG40" t="n">
         <v>0.0</v>
@@ -14758,7 +14761,7 @@
         <v>325</v>
       </c>
       <c r="CF41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG41" t="s">
         <v>325</v>
@@ -14791,7 +14794,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR41" t="n">
         <v>1.0</v>
@@ -14836,7 +14839,7 @@
         <v>0.0</v>
       </c>
       <c r="DF41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG41" t="n">
         <v>4.142857142857143</v>
@@ -15126,7 +15129,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR42" t="n">
         <v>1.0</v>
@@ -15171,7 +15174,7 @@
         <v>0.0</v>
       </c>
       <c r="DF42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG42" t="n">
         <v>3.2142857142857144</v>
@@ -15416,7 +15419,7 @@
         <v>1.0</v>
       </c>
       <c r="CB43" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC43" t="n">
         <v>4.0</v>
@@ -15461,7 +15464,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR43" t="n">
         <v>0.0</v>
@@ -15506,7 +15509,7 @@
         <v>0.0</v>
       </c>
       <c r="DF43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG43" t="n">
         <v>2.2142857142857144</v>
@@ -15796,7 +15799,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR44" t="n">
         <v>0.0</v>
@@ -15841,7 +15844,7 @@
         <v>0.0</v>
       </c>
       <c r="DF44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG44" t="n">
         <v>2.2142857142857144</v>
@@ -16095,10 +16098,10 @@
         <v>6.0</v>
       </c>
       <c r="CE45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF45" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG45" t="s">
         <v>324</v>
@@ -16170,13 +16173,13 @@
         <v>105</v>
       </c>
       <c r="DD45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE45" t="n">
         <v>0.0</v>
       </c>
       <c r="DF45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG45" t="n">
         <v>0.0</v>
@@ -16433,7 +16436,7 @@
         <v>325</v>
       </c>
       <c r="CF46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG46" t="s">
         <v>325</v>
@@ -16466,7 +16469,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR46" t="n">
         <v>1.0</v>
@@ -16511,7 +16514,7 @@
         <v>0.0</v>
       </c>
       <c r="DF46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG46" t="n">
         <v>3.7857142857142856</v>
@@ -16801,7 +16804,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR47" t="n">
         <v>1.0</v>
@@ -16846,7 +16849,7 @@
         <v>1.0</v>
       </c>
       <c r="DF47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG47" t="n">
         <v>3.2142857142857144</v>
@@ -17091,7 +17094,7 @@
         <v>0.0</v>
       </c>
       <c r="CB48" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC48" t="n">
         <v>8.0</v>
@@ -17136,7 +17139,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR48" t="n">
         <v>1.0</v>
@@ -17175,13 +17178,13 @@
         <v>105</v>
       </c>
       <c r="DD48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE48" t="n">
         <v>0.0</v>
       </c>
       <c r="DF48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG48" t="n">
         <v>3.142857142857143</v>
@@ -17471,7 +17474,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR49" t="n">
         <v>1.0</v>
@@ -17510,13 +17513,13 @@
         <v>105</v>
       </c>
       <c r="DD49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE49" t="n">
         <v>0.0</v>
       </c>
       <c r="DF49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG49" t="n">
         <v>3.2142857142857144</v>
@@ -17770,10 +17773,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG50" t="s">
         <v>324</v>
@@ -17845,13 +17848,13 @@
         <v>105</v>
       </c>
       <c r="DD50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE50" t="n">
         <v>0.0</v>
       </c>
       <c r="DF50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="DG50" t="n">
         <v>0.0</v>
@@ -18108,7 +18111,7 @@
         <v>325</v>
       </c>
       <c r="CF51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG51" t="s">
         <v>325</v>
@@ -18141,7 +18144,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR51" t="n">
         <v>0.0</v>
@@ -18186,7 +18189,7 @@
         <v>0.0</v>
       </c>
       <c r="DF51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG51" t="n">
         <v>3.357142857142857</v>
@@ -18476,7 +18479,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR52" t="n">
         <v>0.0</v>
@@ -18515,13 +18518,13 @@
         <v>105</v>
       </c>
       <c r="DD52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE52" t="n">
         <v>0.0</v>
       </c>
       <c r="DF52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG52" t="n">
         <v>2.2857142857142856</v>
@@ -18766,7 +18769,7 @@
         <v>1.0</v>
       </c>
       <c r="CB53" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC53" t="n">
         <v>3.0</v>
@@ -18811,7 +18814,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR53" t="n">
         <v>0.0</v>
@@ -18850,13 +18853,13 @@
         <v>105</v>
       </c>
       <c r="DD53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE53" t="n">
         <v>0.0</v>
       </c>
       <c r="DF53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG53" t="n">
         <v>3.0</v>
@@ -19146,7 +19149,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR54" t="n">
         <v>0.0</v>
@@ -19182,16 +19185,16 @@
         <v>330</v>
       </c>
       <c r="DC54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE54" t="n">
         <v>1.0</v>
       </c>
       <c r="DF54" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG54" t="n">
         <v>3.0714285714285716</v>
@@ -19445,10 +19448,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG55" t="s">
         <v>324</v>
@@ -19517,16 +19520,16 @@
         <v>329</v>
       </c>
       <c r="DC55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE55" t="n">
         <v>0.0</v>
       </c>
       <c r="DF55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG55" t="n">
         <v>0.0</v>
@@ -19783,7 +19786,7 @@
         <v>325</v>
       </c>
       <c r="CF56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG56" t="s">
         <v>325</v>
@@ -19816,7 +19819,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR56" t="n">
         <v>1.0</v>
@@ -19852,16 +19855,16 @@
         <v>329</v>
       </c>
       <c r="DC56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE56" t="n">
         <v>0.0</v>
       </c>
       <c r="DF56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG56" t="n">
         <v>3.0714285714285716</v>
@@ -20151,7 +20154,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR57" t="n">
         <v>1.0</v>
@@ -20190,13 +20193,13 @@
         <v>105</v>
       </c>
       <c r="DD57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE57" t="n">
         <v>0.0</v>
       </c>
       <c r="DF57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG57" t="n">
         <v>3.357142857142857</v>
@@ -20441,7 +20444,7 @@
         <v>0.0</v>
       </c>
       <c r="CB58" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC58" t="n">
         <v>8.0</v>
@@ -20486,7 +20489,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR58" t="n">
         <v>1.0</v>
@@ -20522,7 +20525,7 @@
         <v>329</v>
       </c>
       <c r="DC58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD58" t="s">
         <v>15</v>
@@ -20531,7 +20534,7 @@
         <v>0.0</v>
       </c>
       <c r="DF58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG58" t="n">
         <v>1.0</v>
@@ -20821,7 +20824,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR59" t="n">
         <v>1.0</v>
@@ -20857,16 +20860,16 @@
         <v>330</v>
       </c>
       <c r="DC59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE59" t="n">
         <v>0.0</v>
       </c>
       <c r="DF59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG59" t="n">
         <v>3.7857142857142856</v>
@@ -21120,10 +21123,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG60" t="s">
         <v>324</v>
@@ -21195,13 +21198,13 @@
         <v>105</v>
       </c>
       <c r="DD60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE60" t="n">
         <v>0.0</v>
       </c>
       <c r="DF60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG60" t="n">
         <v>0.0</v>
@@ -21458,7 +21461,7 @@
         <v>325</v>
       </c>
       <c r="CF61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG61" t="s">
         <v>325</v>
@@ -21491,7 +21494,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR61" t="n">
         <v>0.0</v>
@@ -21527,7 +21530,7 @@
         <v>329</v>
       </c>
       <c r="DC61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD61" t="s">
         <v>15</v>
@@ -21536,7 +21539,7 @@
         <v>0.0</v>
       </c>
       <c r="DF61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG61" t="n">
         <v>2.857142857142857</v>
@@ -21826,7 +21829,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR62" t="n">
         <v>0.0</v>
@@ -21871,7 +21874,7 @@
         <v>0.0</v>
       </c>
       <c r="DF62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG62" t="n">
         <v>2.9285714285714284</v>
@@ -22116,7 +22119,7 @@
         <v>1.0</v>
       </c>
       <c r="CB63" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC63" t="n">
         <v>5.0</v>
@@ -22161,7 +22164,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR63" t="n">
         <v>0.0</v>
@@ -22200,13 +22203,13 @@
         <v>105</v>
       </c>
       <c r="DD63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE63" t="n">
         <v>0.0</v>
       </c>
       <c r="DF63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG63" t="n">
         <v>2.4285714285714284</v>
@@ -22496,7 +22499,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR64" t="n">
         <v>1.0</v>
@@ -22532,16 +22535,16 @@
         <v>329</v>
       </c>
       <c r="DC64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE64" t="n">
         <v>0.0</v>
       </c>
       <c r="DF64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG64" t="n">
         <v>3.4285714285714284</v>
@@ -22795,10 +22798,10 @@
         <v>7.0</v>
       </c>
       <c r="CE65" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF65" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG65" t="s">
         <v>324</v>
@@ -22867,16 +22870,16 @@
         <v>329</v>
       </c>
       <c r="DC65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE65" t="n">
         <v>0.0</v>
       </c>
       <c r="DF65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG65" t="n">
         <v>0.0</v>
@@ -23133,7 +23136,7 @@
         <v>325</v>
       </c>
       <c r="CF66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG66" t="s">
         <v>325</v>
@@ -23166,7 +23169,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR66" t="n">
         <v>1.0</v>
@@ -23205,13 +23208,13 @@
         <v>105</v>
       </c>
       <c r="DD66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE66" t="n">
         <v>0.0</v>
       </c>
       <c r="DF66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="DG66" t="n">
         <v>3.2142857142857144</v>
@@ -23501,7 +23504,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR67" t="n">
         <v>0.0</v>
@@ -23540,13 +23543,13 @@
         <v>105</v>
       </c>
       <c r="DD67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE67" t="n">
         <v>0.0</v>
       </c>
       <c r="DF67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG67" t="n">
         <v>3.357142857142857</v>
@@ -23791,7 +23794,7 @@
         <v>1.0</v>
       </c>
       <c r="CB68" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC68" t="n">
         <v>3.0</v>
@@ -23836,7 +23839,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR68" t="n">
         <v>1.0</v>
@@ -23875,13 +23878,13 @@
         <v>105</v>
       </c>
       <c r="DD68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE68" t="n">
         <v>0.0</v>
       </c>
       <c r="DF68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG68" t="n">
         <v>3.2857142857142856</v>
@@ -24171,7 +24174,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR69" t="n">
         <v>0.0</v>
@@ -24216,7 +24219,7 @@
         <v>0.0</v>
       </c>
       <c r="DF69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG69" t="n">
         <v>2.4285714285714284</v>
@@ -24470,10 +24473,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE70" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF70" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG70" t="s">
         <v>324</v>
@@ -24542,16 +24545,16 @@
         <v>329</v>
       </c>
       <c r="DC70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE70" t="n">
         <v>0.0</v>
       </c>
       <c r="DF70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG70" t="n">
         <v>0.0</v>
@@ -24808,7 +24811,7 @@
         <v>325</v>
       </c>
       <c r="CF71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG71" t="s">
         <v>325</v>
@@ -24841,7 +24844,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ71" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR71" t="n">
         <v>0.0</v>
@@ -24886,7 +24889,7 @@
         <v>0.0</v>
       </c>
       <c r="DF71" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG71" t="n">
         <v>2.5</v>
@@ -25176,7 +25179,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR72" t="n">
         <v>0.0</v>
@@ -25221,7 +25224,7 @@
         <v>0.0</v>
       </c>
       <c r="DF72" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG72" t="n">
         <v>3.0714285714285716</v>
@@ -25466,7 +25469,7 @@
         <v>1.0</v>
       </c>
       <c r="CB73" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC73" t="n">
         <v>7.0</v>
@@ -25511,7 +25514,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ73" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR73" t="n">
         <v>1.0</v>
@@ -25550,13 +25553,13 @@
         <v>105</v>
       </c>
       <c r="DD73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE73" t="n">
         <v>0.0</v>
       </c>
       <c r="DF73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG73" t="n">
         <v>3.5</v>
@@ -25846,7 +25849,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR74" t="n">
         <v>1.0</v>
@@ -25885,13 +25888,13 @@
         <v>105</v>
       </c>
       <c r="DD74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE74" t="n">
         <v>0.0</v>
       </c>
       <c r="DF74" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG74" t="n">
         <v>3.0</v>
@@ -26145,10 +26148,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF75" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG75" t="s">
         <v>324</v>
@@ -26226,7 +26229,7 @@
         <v>0.0</v>
       </c>
       <c r="DF75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG75" t="n">
         <v>0.0</v>
@@ -26483,7 +26486,7 @@
         <v>325</v>
       </c>
       <c r="CF76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG76" t="s">
         <v>325</v>
@@ -26516,7 +26519,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ76" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR76" t="n">
         <v>1.0</v>
@@ -26555,13 +26558,13 @@
         <v>105</v>
       </c>
       <c r="DD76" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE76" t="n">
         <v>0.0</v>
       </c>
       <c r="DF76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG76" t="n">
         <v>3.7142857142857144</v>
@@ -26851,7 +26854,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ77" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR77" t="n">
         <v>1.0</v>
@@ -26890,13 +26893,13 @@
         <v>105</v>
       </c>
       <c r="DD77" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE77" t="n">
         <v>0.0</v>
       </c>
       <c r="DF77" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG77" t="n">
         <v>3.2142857142857144</v>
@@ -27141,7 +27144,7 @@
         <v>1.0</v>
       </c>
       <c r="CB78" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC78" t="n">
         <v>4.0</v>
@@ -27186,7 +27189,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR78" t="n">
         <v>1.0</v>
@@ -27231,7 +27234,7 @@
         <v>0.0</v>
       </c>
       <c r="DF78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG78" t="n">
         <v>3.7142857142857144</v>
@@ -27521,7 +27524,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ79" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR79" t="n">
         <v>1.0</v>
@@ -27560,13 +27563,13 @@
         <v>105</v>
       </c>
       <c r="DD79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE79" t="n">
         <v>0.0</v>
       </c>
       <c r="DF79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG79" t="n">
         <v>2.642857142857143</v>
@@ -27820,10 +27823,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF80" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG80" t="s">
         <v>324</v>
@@ -27895,13 +27898,13 @@
         <v>105</v>
       </c>
       <c r="DD80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE80" t="n">
         <v>0.0</v>
       </c>
       <c r="DF80" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG80" t="n">
         <v>3.0</v>
@@ -28158,7 +28161,7 @@
         <v>325</v>
       </c>
       <c r="CF81" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG81" t="s">
         <v>325</v>
@@ -28191,7 +28194,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR81" t="n">
         <v>1.0</v>
@@ -28227,16 +28230,16 @@
         <v>330</v>
       </c>
       <c r="DC81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE81" t="n">
         <v>1.0</v>
       </c>
       <c r="DF81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG81" t="n">
         <v>3.4285714285714284</v>
@@ -28526,7 +28529,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR82" t="n">
         <v>1.0</v>
@@ -28571,7 +28574,7 @@
         <v>0.0</v>
       </c>
       <c r="DF82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG82" t="n">
         <v>2.642857142857143</v>
@@ -28816,7 +28819,7 @@
         <v>1.0</v>
       </c>
       <c r="CB83" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC83" t="n">
         <v>7.0</v>
@@ -28861,7 +28864,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ83" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR83" t="n">
         <v>1.0</v>
@@ -28900,13 +28903,13 @@
         <v>105</v>
       </c>
       <c r="DD83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE83" t="n">
         <v>0.0</v>
       </c>
       <c r="DF83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG83" t="n">
         <v>3.7857142857142856</v>
@@ -29196,7 +29199,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ84" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR84" t="n">
         <v>1.0</v>
@@ -29232,7 +29235,7 @@
         <v>330</v>
       </c>
       <c r="DC84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD84" t="s">
         <v>15</v>
@@ -29241,7 +29244,7 @@
         <v>0.0</v>
       </c>
       <c r="DF84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG84" t="n">
         <v>3.0</v>
@@ -29495,10 +29498,10 @@
         <v>7.0</v>
       </c>
       <c r="CE85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG85" t="s">
         <v>324</v>
@@ -29567,16 +29570,16 @@
         <v>329</v>
       </c>
       <c r="DC85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD85" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE85" t="n">
         <v>0.0</v>
       </c>
       <c r="DF85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG85" t="n">
         <v>2.9285714285714284</v>
@@ -29833,7 +29836,7 @@
         <v>325</v>
       </c>
       <c r="CF86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG86" t="s">
         <v>325</v>
@@ -29866,7 +29869,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR86" t="n">
         <v>0.0</v>
@@ -29911,7 +29914,7 @@
         <v>0.0</v>
       </c>
       <c r="DF86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG86" t="n">
         <v>3.2857142857142856</v>
@@ -30201,7 +30204,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR87" t="n">
         <v>1.0</v>
@@ -30246,7 +30249,7 @@
         <v>0.0</v>
       </c>
       <c r="DF87" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG87" t="n">
         <v>3.7142857142857144</v>
@@ -30491,7 +30494,7 @@
         <v>1.0</v>
       </c>
       <c r="CB88" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC88" t="n">
         <v>7.0</v>
@@ -30536,7 +30539,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ88" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR88" t="n">
         <v>0.0</v>
@@ -30572,7 +30575,7 @@
         <v>330</v>
       </c>
       <c r="DC88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD88" t="s">
         <v>15</v>
@@ -30581,7 +30584,7 @@
         <v>0.0</v>
       </c>
       <c r="DF88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG88" t="n">
         <v>3.0</v>
@@ -30871,7 +30874,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR89" t="n">
         <v>1.0</v>
@@ -30910,13 +30913,13 @@
         <v>105</v>
       </c>
       <c r="DD89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE89" t="n">
         <v>0.0</v>
       </c>
       <c r="DF89" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG89" t="n">
         <v>2.857142857142857</v>
@@ -31170,10 +31173,10 @@
         <v>3.0</v>
       </c>
       <c r="CE90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF90" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG90" t="s">
         <v>324</v>
@@ -31245,13 +31248,13 @@
         <v>105</v>
       </c>
       <c r="DD90" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE90" t="n">
         <v>0.0</v>
       </c>
       <c r="DF90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG90" t="n">
         <v>2.5</v>
@@ -31508,7 +31511,7 @@
         <v>325</v>
       </c>
       <c r="CF91" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG91" t="s">
         <v>325</v>
@@ -31541,7 +31544,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ91" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR91" t="n">
         <v>0.0</v>
@@ -31586,7 +31589,7 @@
         <v>0.0</v>
       </c>
       <c r="DF91" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG91" t="n">
         <v>3.0</v>
@@ -31876,7 +31879,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ92" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR92" t="n">
         <v>1.0</v>
@@ -31912,7 +31915,7 @@
         <v>330</v>
       </c>
       <c r="DC92" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD92" t="s">
         <v>15</v>
@@ -31921,7 +31924,7 @@
         <v>0.0</v>
       </c>
       <c r="DF92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG92" t="n">
         <v>4.285714285714286</v>
@@ -32166,7 +32169,7 @@
         <v>0.0</v>
       </c>
       <c r="CB93" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC93" t="n">
         <v>8.0</v>
@@ -32211,7 +32214,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ93" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR93" t="n">
         <v>0.0</v>
@@ -32250,13 +32253,13 @@
         <v>105</v>
       </c>
       <c r="DD93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE93" t="n">
         <v>0.0</v>
       </c>
       <c r="DF93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG93" t="n">
         <v>4.0</v>
@@ -32546,7 +32549,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR94" t="n">
         <v>1.0</v>
@@ -32591,7 +32594,7 @@
         <v>1.0</v>
       </c>
       <c r="DF94" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG94" t="n">
         <v>3.857142857142857</v>
@@ -32845,10 +32848,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF95" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG95" t="s">
         <v>324</v>
@@ -32920,13 +32923,13 @@
         <v>105</v>
       </c>
       <c r="DD95" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE95" t="n">
         <v>0.0</v>
       </c>
       <c r="DF95" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG95" t="n">
         <v>4.785714285714286</v>
@@ -33183,7 +33186,7 @@
         <v>325</v>
       </c>
       <c r="CF96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG96" t="s">
         <v>325</v>
@@ -33216,7 +33219,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR96" t="n">
         <v>1.0</v>
@@ -33255,13 +33258,13 @@
         <v>105</v>
       </c>
       <c r="DD96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE96" t="n">
         <v>0.0</v>
       </c>
       <c r="DF96" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG96" t="n">
         <v>4.0</v>
@@ -33551,7 +33554,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR97" t="n">
         <v>1.0</v>
@@ -33587,7 +33590,7 @@
         <v>330</v>
       </c>
       <c r="DC97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD97" t="s">
         <v>15</v>
@@ -33596,7 +33599,7 @@
         <v>0.0</v>
       </c>
       <c r="DF97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG97" t="n">
         <v>3.0</v>
@@ -33841,7 +33844,7 @@
         <v>1.0</v>
       </c>
       <c r="CB98" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC98" t="n">
         <v>6.0</v>
@@ -33886,7 +33889,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ98" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR98" t="n">
         <v>0.0</v>
@@ -33931,7 +33934,7 @@
         <v>0.0</v>
       </c>
       <c r="DF98" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG98" t="n">
         <v>3.7142857142857144</v>
@@ -34221,7 +34224,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ99" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR99" t="n">
         <v>1.0</v>
@@ -34257,7 +34260,7 @@
         <v>329</v>
       </c>
       <c r="DC99" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD99" t="s">
         <v>15</v>
@@ -34266,7 +34269,7 @@
         <v>0.0</v>
       </c>
       <c r="DF99" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG99" t="n">
         <v>3.2142857142857144</v>
@@ -34520,10 +34523,10 @@
         <v>4.0</v>
       </c>
       <c r="CE100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG100" t="s">
         <v>324</v>
@@ -34595,13 +34598,13 @@
         <v>105</v>
       </c>
       <c r="DD100" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE100" t="n">
         <v>0.0</v>
       </c>
       <c r="DF100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG100" t="n">
         <v>2.5714285714285716</v>
@@ -34858,7 +34861,7 @@
         <v>325</v>
       </c>
       <c r="CF101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG101" t="s">
         <v>325</v>
@@ -34891,7 +34894,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR101" t="n">
         <v>1.0</v>
@@ -34927,16 +34930,16 @@
         <v>330</v>
       </c>
       <c r="DC101" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD101" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE101" t="n">
         <v>0.0</v>
       </c>
       <c r="DF101" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG101" t="n">
         <v>2.857142857142857</v>
@@ -35226,7 +35229,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR102" t="n">
         <v>0.0</v>
@@ -35271,7 +35274,7 @@
         <v>0.0</v>
       </c>
       <c r="DF102" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG102" t="n">
         <v>2.5</v>
@@ -35516,7 +35519,7 @@
         <v>1.0</v>
       </c>
       <c r="CB103" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC103" t="n">
         <v>3.0</v>
@@ -35561,7 +35564,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ103" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR103" t="n">
         <v>1.0</v>
@@ -35606,7 +35609,7 @@
         <v>0.0</v>
       </c>
       <c r="DF103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG103" t="n">
         <v>3.7142857142857144</v>
@@ -35896,7 +35899,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ104" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR104" t="n">
         <v>1.0</v>
@@ -35935,13 +35938,13 @@
         <v>105</v>
       </c>
       <c r="DD104" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE104" t="n">
         <v>1.0</v>
       </c>
       <c r="DF104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG104" t="n">
         <v>3.0714285714285716</v>
@@ -36195,10 +36198,10 @@
         <v>5.0</v>
       </c>
       <c r="CE105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF105" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG105" t="s">
         <v>324</v>
@@ -36267,16 +36270,16 @@
         <v>330</v>
       </c>
       <c r="DC105" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE105" t="n">
         <v>0.0</v>
       </c>
       <c r="DF105" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG105" t="n">
         <v>2.857142857142857</v>
@@ -36533,7 +36536,7 @@
         <v>325</v>
       </c>
       <c r="CF106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG106" t="s">
         <v>325</v>
@@ -36566,7 +36569,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ106" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR106" t="n">
         <v>0.0</v>
@@ -36605,13 +36608,13 @@
         <v>105</v>
       </c>
       <c r="DD106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE106" t="n">
         <v>0.0</v>
       </c>
       <c r="DF106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG106" t="n">
         <v>2.2142857142857144</v>
@@ -36901,7 +36904,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR107" t="n">
         <v>0.0</v>
@@ -36946,7 +36949,7 @@
         <v>0.0</v>
       </c>
       <c r="DF107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG107" t="n">
         <v>3.357142857142857</v>
@@ -37191,7 +37194,7 @@
         <v>1.0</v>
       </c>
       <c r="CB108" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC108" t="n">
         <v>3.0</v>
@@ -37236,7 +37239,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR108" t="n">
         <v>1.0</v>
@@ -37281,7 +37284,7 @@
         <v>0.0</v>
       </c>
       <c r="DF108" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG108" t="n">
         <v>3.0</v>
@@ -37571,7 +37574,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ109" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR109" t="n">
         <v>1.0</v>
@@ -37610,13 +37613,13 @@
         <v>105</v>
       </c>
       <c r="DD109" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE109" t="n">
         <v>0.0</v>
       </c>
       <c r="DF109" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG109" t="n">
         <v>2.9285714285714284</v>
@@ -37870,10 +37873,10 @@
         <v>7.0</v>
       </c>
       <c r="CE110" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF110" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG110" t="s">
         <v>324</v>
@@ -37942,16 +37945,16 @@
         <v>330</v>
       </c>
       <c r="DC110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD110" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE110" t="n">
         <v>0.0</v>
       </c>
       <c r="DF110" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG110" t="n">
         <v>2.642857142857143</v>
@@ -38208,7 +38211,7 @@
         <v>325</v>
       </c>
       <c r="CF111" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG111" t="s">
         <v>325</v>
@@ -38241,7 +38244,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ111" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR111" t="n">
         <v>1.0</v>
@@ -38280,13 +38283,13 @@
         <v>105</v>
       </c>
       <c r="DD111" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE111" t="n">
         <v>1.0</v>
       </c>
       <c r="DF111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG111" t="n">
         <v>3.7142857142857144</v>
@@ -38576,7 +38579,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ112" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR112" t="n">
         <v>1.0</v>
@@ -38615,13 +38618,13 @@
         <v>105</v>
       </c>
       <c r="DD112" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE112" t="n">
         <v>0.0</v>
       </c>
       <c r="DF112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG112" t="n">
         <v>3.5714285714285716</v>
@@ -38866,7 +38869,7 @@
         <v>0.0</v>
       </c>
       <c r="CB113" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC113" t="n">
         <v>8.0</v>
@@ -38911,7 +38914,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR113" t="n">
         <v>0.0</v>
@@ -38947,16 +38950,16 @@
         <v>329</v>
       </c>
       <c r="DC113" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE113" t="n">
         <v>0.0</v>
       </c>
       <c r="DF113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG113" t="n">
         <v>2.5</v>
@@ -39246,7 +39249,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR114" t="n">
         <v>1.0</v>
@@ -39282,16 +39285,16 @@
         <v>329</v>
       </c>
       <c r="DC114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE114" t="n">
         <v>1.0</v>
       </c>
       <c r="DF114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG114" t="n">
         <v>2.642857142857143</v>
@@ -39545,10 +39548,10 @@
         <v>5.0</v>
       </c>
       <c r="CE115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG115" t="s">
         <v>324</v>
@@ -39620,13 +39623,13 @@
         <v>105</v>
       </c>
       <c r="DD115" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE115" t="n">
         <v>0.0</v>
       </c>
       <c r="DF115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG115" t="n">
         <v>3.2857142857142856</v>
@@ -39883,7 +39886,7 @@
         <v>325</v>
       </c>
       <c r="CF116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG116" t="s">
         <v>325</v>
@@ -39916,7 +39919,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR116" t="n">
         <v>0.0</v>
@@ -39955,13 +39958,13 @@
         <v>105</v>
       </c>
       <c r="DD116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE116" t="n">
         <v>1.0</v>
       </c>
       <c r="DF116" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG116" t="n">
         <v>3.2142857142857144</v>
@@ -40251,7 +40254,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ117" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR117" t="n">
         <v>0.0</v>
@@ -40287,16 +40290,16 @@
         <v>329</v>
       </c>
       <c r="DC117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE117" t="n">
         <v>0.0</v>
       </c>
       <c r="DF117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG117" t="n">
         <v>3.2857142857142856</v>
@@ -40541,7 +40544,7 @@
         <v>1.0</v>
       </c>
       <c r="CB118" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC118" t="n">
         <v>0.0</v>
@@ -40586,7 +40589,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ118" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR118" t="n">
         <v>1.0</v>
@@ -40622,7 +40625,7 @@
         <v>329</v>
       </c>
       <c r="DC118" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD118" t="s">
         <v>15</v>
@@ -40631,7 +40634,7 @@
         <v>1.0</v>
       </c>
       <c r="DF118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG118" t="n">
         <v>2.7142857142857144</v>
@@ -40921,7 +40924,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ119" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR119" t="n">
         <v>0.0</v>
@@ -40966,7 +40969,7 @@
         <v>0.0</v>
       </c>
       <c r="DF119" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG119" t="n">
         <v>2.142857142857143</v>
@@ -41220,10 +41223,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE120" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF120" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG120" t="s">
         <v>324</v>
@@ -41292,7 +41295,7 @@
         <v>329</v>
       </c>
       <c r="DC120" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD120" t="s">
         <v>15</v>
@@ -41301,7 +41304,7 @@
         <v>0.0</v>
       </c>
       <c r="DF120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG120" t="n">
         <v>2.4285714285714284</v>
@@ -41558,7 +41561,7 @@
         <v>325</v>
       </c>
       <c r="CF121" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG121" t="s">
         <v>325</v>
@@ -41591,7 +41594,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ121" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR121" t="n">
         <v>1.0</v>
@@ -41636,7 +41639,7 @@
         <v>0.0</v>
       </c>
       <c r="DF121" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG121" t="n">
         <v>2.857142857142857</v>
@@ -41926,7 +41929,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR122" t="n">
         <v>1.0</v>
@@ -41965,13 +41968,13 @@
         <v>105</v>
       </c>
       <c r="DD122" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE122" t="n">
         <v>0.0</v>
       </c>
       <c r="DF122" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG122" t="n">
         <v>4.0</v>
@@ -42216,7 +42219,7 @@
         <v>0.0</v>
       </c>
       <c r="CB123" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC123" t="n">
         <v>8.0</v>
@@ -42261,7 +42264,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ123" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR123" t="n">
         <v>0.0</v>
@@ -42297,7 +42300,7 @@
         <v>329</v>
       </c>
       <c r="DC123" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD123" t="s">
         <v>15</v>
@@ -42306,7 +42309,7 @@
         <v>0.0</v>
       </c>
       <c r="DF123" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG123" t="n">
         <v>3.5714285714285716</v>
@@ -42596,7 +42599,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR124" t="n">
         <v>1.0</v>
@@ -42632,16 +42635,16 @@
         <v>329</v>
       </c>
       <c r="DC124" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE124" t="n">
         <v>0.0</v>
       </c>
       <c r="DF124" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG124" t="n">
         <v>3.642857142857143</v>
@@ -42895,10 +42898,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE125" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF125" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG125" t="s">
         <v>324</v>
@@ -42967,7 +42970,7 @@
         <v>329</v>
       </c>
       <c r="DC125" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD125" t="s">
         <v>15</v>
@@ -42976,7 +42979,7 @@
         <v>0.0</v>
       </c>
       <c r="DF125" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG125" t="n">
         <v>2.5714285714285716</v>
@@ -43233,7 +43236,7 @@
         <v>325</v>
       </c>
       <c r="CF126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG126" t="s">
         <v>325</v>
@@ -43266,7 +43269,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR126" t="n">
         <v>1.0</v>
@@ -43311,7 +43314,7 @@
         <v>1.0</v>
       </c>
       <c r="DF126" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG126" t="n">
         <v>1.8571428571428572</v>
@@ -43601,7 +43604,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ127" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR127" t="n">
         <v>0.0</v>
@@ -43640,13 +43643,13 @@
         <v>105</v>
       </c>
       <c r="DD127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE127" t="n">
         <v>0.0</v>
       </c>
       <c r="DF127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG127" t="n">
         <v>3.142857142857143</v>
@@ -43900,10 +43903,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF128" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG128" t="s">
         <v>324</v>
@@ -43972,16 +43975,16 @@
         <v>329</v>
       </c>
       <c r="DC128" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE128" t="n">
         <v>0.0</v>
       </c>
       <c r="DF128" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG128" t="n">
         <v>2.4285714285714284</v>
@@ -44238,7 +44241,7 @@
         <v>325</v>
       </c>
       <c r="CF129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG129" t="s">
         <v>325</v>
@@ -44271,7 +44274,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ129" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR129" t="n">
         <v>0.0</v>
@@ -44307,16 +44310,16 @@
         <v>329</v>
       </c>
       <c r="DC129" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD129" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE129" t="n">
         <v>0.0</v>
       </c>
       <c r="DF129" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG129" t="n">
         <v>2.7142857142857144</v>
@@ -44606,7 +44609,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR130" t="n">
         <v>0.0</v>
@@ -44645,13 +44648,13 @@
         <v>105</v>
       </c>
       <c r="DD130" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE130" t="n">
         <v>0.0</v>
       </c>
       <c r="DF130" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG130" t="n">
         <v>3.7857142857142856</v>
@@ -44896,7 +44899,7 @@
         <v>0.0</v>
       </c>
       <c r="CB131" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC131" t="n">
         <v>8.0</v>
@@ -44941,7 +44944,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR131" t="n">
         <v>1.0</v>
@@ -44977,7 +44980,7 @@
         <v>329</v>
       </c>
       <c r="DC131" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD131" t="s">
         <v>15</v>
@@ -44986,7 +44989,7 @@
         <v>0.0</v>
       </c>
       <c r="DF131" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG131" t="n">
         <v>3.0714285714285716</v>
@@ -45276,7 +45279,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ132" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR132" t="n">
         <v>0.0</v>
@@ -45321,7 +45324,7 @@
         <v>0.0</v>
       </c>
       <c r="DF132" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG132" t="n">
         <v>2.857142857142857</v>
@@ -45575,10 +45578,10 @@
         <v>2.0</v>
       </c>
       <c r="CE133" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF133" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG133" t="s">
         <v>324</v>
@@ -45656,7 +45659,7 @@
         <v>0.0</v>
       </c>
       <c r="DF133" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG133" t="n">
         <v>2.142857142857143</v>
@@ -45913,7 +45916,7 @@
         <v>325</v>
       </c>
       <c r="CF134" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG134" t="s">
         <v>325</v>
@@ -45946,7 +45949,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ134" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR134" t="n">
         <v>1.0</v>
@@ -45982,16 +45985,16 @@
         <v>329</v>
       </c>
       <c r="DC134" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE134" t="n">
         <v>0.0</v>
       </c>
       <c r="DF134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG134" t="n">
         <v>3.5</v>
@@ -46281,7 +46284,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ135" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR135" t="n">
         <v>1.0</v>
@@ -46317,16 +46320,16 @@
         <v>329</v>
       </c>
       <c r="DC135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE135" t="n">
         <v>0.0</v>
       </c>
       <c r="DF135" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG135" t="n">
         <v>3.7857142857142856</v>
@@ -46571,7 +46574,7 @@
         <v>1.0</v>
       </c>
       <c r="CB136" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC136" t="n">
         <v>0.0</v>
@@ -46616,7 +46619,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ136" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR136" t="n">
         <v>0.0</v>
@@ -46661,7 +46664,7 @@
         <v>1.0</v>
       </c>
       <c r="DF136" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG136" t="n">
         <v>3.5714285714285716</v>
@@ -46951,7 +46954,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ137" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR137" t="n">
         <v>0.0</v>
@@ -46987,16 +46990,16 @@
         <v>330</v>
       </c>
       <c r="DC137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE137" t="n">
         <v>0.0</v>
       </c>
       <c r="DF137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG137" t="n">
         <v>3.0714285714285716</v>
@@ -47250,10 +47253,10 @@
         <v>2.0</v>
       </c>
       <c r="CE138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG138" t="s">
         <v>324</v>
@@ -47331,7 +47334,7 @@
         <v>0.0</v>
       </c>
       <c r="DF138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG138" t="n">
         <v>2.7142857142857144</v>
@@ -47588,7 +47591,7 @@
         <v>325</v>
       </c>
       <c r="CF139" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG139" t="s">
         <v>325</v>
@@ -47621,7 +47624,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ139" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR139" t="n">
         <v>0.0</v>
@@ -47666,7 +47669,7 @@
         <v>0.0</v>
       </c>
       <c r="DF139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG139" t="n">
         <v>3.642857142857143</v>
@@ -47956,7 +47959,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ140" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR140" t="n">
         <v>0.0</v>
@@ -47995,13 +47998,13 @@
         <v>105</v>
       </c>
       <c r="DD140" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE140" t="n">
         <v>0.0</v>
       </c>
       <c r="DF140" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG140" t="n">
         <v>3.7142857142857144</v>
@@ -48246,7 +48249,7 @@
         <v>1.0</v>
       </c>
       <c r="CB141" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC141" t="n">
         <v>0.0</v>
@@ -48291,7 +48294,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR141" t="n">
         <v>0.0</v>
@@ -48330,13 +48333,13 @@
         <v>105</v>
       </c>
       <c r="DD141" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE141" t="n">
         <v>1.0</v>
       </c>
       <c r="DF141" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG141" t="n">
         <v>2.7142857142857144</v>
@@ -48626,7 +48629,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ142" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR142" t="n">
         <v>1.0</v>
@@ -48671,7 +48674,7 @@
         <v>1.0</v>
       </c>
       <c r="DF142" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG142" t="n">
         <v>3.142857142857143</v>
@@ -48925,10 +48928,10 @@
         <v>6.0</v>
       </c>
       <c r="CE143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG143" t="s">
         <v>324</v>
@@ -49006,7 +49009,7 @@
         <v>0.0</v>
       </c>
       <c r="DF143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG143" t="n">
         <v>3.0714285714285716</v>
@@ -49263,7 +49266,7 @@
         <v>325</v>
       </c>
       <c r="CF144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG144" t="s">
         <v>325</v>
@@ -49296,7 +49299,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ144" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR144" t="n">
         <v>0.0</v>
@@ -49335,13 +49338,13 @@
         <v>105</v>
       </c>
       <c r="DD144" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE144" t="n">
         <v>0.0</v>
       </c>
       <c r="DF144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG144" t="n">
         <v>2.5714285714285716</v>
@@ -49631,7 +49634,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR145" t="n">
         <v>1.0</v>
@@ -49670,13 +49673,13 @@
         <v>105</v>
       </c>
       <c r="DD145" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE145" t="n">
         <v>0.0</v>
       </c>
       <c r="DF145" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG145" t="n">
         <v>3.142857142857143</v>
@@ -49930,10 +49933,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE146" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF146" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG146" t="s">
         <v>324</v>
@@ -50005,13 +50008,13 @@
         <v>105</v>
       </c>
       <c r="DD146" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE146" t="n">
         <v>0.0</v>
       </c>
       <c r="DF146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG146" t="n">
         <v>3.5</v>
@@ -50268,7 +50271,7 @@
         <v>325</v>
       </c>
       <c r="CF147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG147" t="s">
         <v>325</v>
@@ -50301,7 +50304,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ147" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR147" t="n">
         <v>1.0</v>
@@ -50340,13 +50343,13 @@
         <v>105</v>
       </c>
       <c r="DD147" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE147" t="n">
         <v>0.0</v>
       </c>
       <c r="DF147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG147" t="n">
         <v>3.2142857142857144</v>
@@ -50636,7 +50639,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR148" t="n">
         <v>0.0</v>
@@ -50681,7 +50684,7 @@
         <v>0.0</v>
       </c>
       <c r="DF148" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG148" t="n">
         <v>2.7142857142857144</v>
@@ -50926,7 +50929,7 @@
         <v>0.0</v>
       </c>
       <c r="CB149" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC149" t="n">
         <v>8.0</v>
@@ -50971,7 +50974,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR149" t="n">
         <v>0.0</v>
@@ -51007,16 +51010,16 @@
         <v>329</v>
       </c>
       <c r="DC149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE149" t="n">
         <v>0.0</v>
       </c>
       <c r="DF149" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG149" t="n">
         <v>2.9285714285714284</v>
@@ -51306,7 +51309,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ150" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR150" t="n">
         <v>0.0</v>
@@ -51342,16 +51345,16 @@
         <v>329</v>
       </c>
       <c r="DC150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE150" t="n">
         <v>0.0</v>
       </c>
       <c r="DF150" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG150" t="n">
         <v>2.7142857142857144</v>
@@ -51605,10 +51608,10 @@
         <v>5.0</v>
       </c>
       <c r="CE151" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF151" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG151" t="s">
         <v>324</v>
@@ -51686,7 +51689,7 @@
         <v>0.0</v>
       </c>
       <c r="DF151" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG151" t="n">
         <v>2.5714285714285716</v>
@@ -51943,7 +51946,7 @@
         <v>325</v>
       </c>
       <c r="CF152" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG152" t="s">
         <v>325</v>
@@ -51976,7 +51979,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR152" t="n">
         <v>1.0</v>
@@ -52021,7 +52024,7 @@
         <v>0.0</v>
       </c>
       <c r="DF152" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG152" t="n">
         <v>3.642857142857143</v>
@@ -52311,7 +52314,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ153" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR153" t="n">
         <v>1.0</v>
@@ -52350,13 +52353,13 @@
         <v>105</v>
       </c>
       <c r="DD153" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE153" t="n">
         <v>0.0</v>
       </c>
       <c r="DF153" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG153" t="n">
         <v>3.0714285714285716</v>
@@ -52601,7 +52604,7 @@
         <v>1.0</v>
       </c>
       <c r="CB154" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC154" t="n">
         <v>6.0</v>
@@ -52646,7 +52649,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ154" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR154" t="n">
         <v>1.0</v>
@@ -52685,13 +52688,13 @@
         <v>105</v>
       </c>
       <c r="DD154" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE154" t="n">
         <v>0.0</v>
       </c>
       <c r="DF154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG154" t="n">
         <v>3.7142857142857144</v>
@@ -52981,7 +52984,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ155" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR155" t="n">
         <v>1.0</v>
@@ -53020,13 +53023,13 @@
         <v>105</v>
       </c>
       <c r="DD155" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE155" t="n">
         <v>0.0</v>
       </c>
       <c r="DF155" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG155" t="n">
         <v>3.642857142857143</v>
@@ -53280,10 +53283,10 @@
         <v>7.0</v>
       </c>
       <c r="CE156" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG156" t="s">
         <v>324</v>
@@ -53361,7 +53364,7 @@
         <v>0.0</v>
       </c>
       <c r="DF156" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG156" t="n">
         <v>2.857142857142857</v>
@@ -53618,7 +53621,7 @@
         <v>325</v>
       </c>
       <c r="CF157" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG157" t="s">
         <v>325</v>
@@ -53651,7 +53654,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR157" t="n">
         <v>1.0</v>
@@ -53690,13 +53693,13 @@
         <v>105</v>
       </c>
       <c r="DD157" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE157" t="n">
         <v>0.0</v>
       </c>
       <c r="DF157" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG157" t="n">
         <v>3.0714285714285716</v>
@@ -53950,10 +53953,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE158" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF158" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG158" t="s">
         <v>324</v>
@@ -54025,13 +54028,13 @@
         <v>105</v>
       </c>
       <c r="DD158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE158" t="n">
         <v>0.0</v>
       </c>
       <c r="DF158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG158" t="n">
         <v>2.857142857142857</v>
@@ -54288,7 +54291,7 @@
         <v>325</v>
       </c>
       <c r="CF159" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG159" t="s">
         <v>325</v>
@@ -54321,7 +54324,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ159" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR159" t="n">
         <v>0.0</v>
@@ -54360,13 +54363,13 @@
         <v>105</v>
       </c>
       <c r="DD159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE159" t="n">
         <v>0.0</v>
       </c>
       <c r="DF159" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG159" t="n">
         <v>3.4285714285714284</v>
@@ -54656,7 +54659,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR160" t="n">
         <v>1.0</v>
@@ -54695,13 +54698,13 @@
         <v>105</v>
       </c>
       <c r="DD160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE160" t="n">
         <v>0.0</v>
       </c>
       <c r="DF160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG160" t="n">
         <v>3.357142857142857</v>
@@ -54946,7 +54949,7 @@
         <v>0.0</v>
       </c>
       <c r="CB161" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC161" t="n">
         <v>8.0</v>
@@ -54991,7 +54994,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR161" t="n">
         <v>0.0</v>
@@ -55027,16 +55030,16 @@
         <v>329</v>
       </c>
       <c r="DC161" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE161" t="n">
         <v>0.0</v>
       </c>
       <c r="DF161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG161" t="n">
         <v>2.357142857142857</v>
@@ -55326,7 +55329,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ162" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR162" t="n">
         <v>1.0</v>
@@ -55371,7 +55374,7 @@
         <v>0.0</v>
       </c>
       <c r="DF162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG162" t="n">
         <v>3.357142857142857</v>
@@ -55625,10 +55628,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG163" t="s">
         <v>324</v>
@@ -55697,7 +55700,7 @@
         <v>330</v>
       </c>
       <c r="DC163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD163" t="s">
         <v>15</v>
@@ -55706,7 +55709,7 @@
         <v>0.0</v>
       </c>
       <c r="DF163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG163" t="n">
         <v>2.857142857142857</v>
@@ -55963,7 +55966,7 @@
         <v>325</v>
       </c>
       <c r="CF164" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG164" t="s">
         <v>325</v>
@@ -55996,7 +55999,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ164" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR164" t="n">
         <v>1.0</v>
@@ -56032,16 +56035,16 @@
         <v>329</v>
       </c>
       <c r="DC164" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD164" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE164" t="n">
         <v>0.0</v>
       </c>
       <c r="DF164" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG164" t="n">
         <v>3.0</v>
@@ -56331,7 +56334,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ165" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR165" t="n">
         <v>1.0</v>
@@ -56367,7 +56370,7 @@
         <v>329</v>
       </c>
       <c r="DC165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD165" t="s">
         <v>15</v>
@@ -56376,7 +56379,7 @@
         <v>0.0</v>
       </c>
       <c r="DF165" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG165" t="n">
         <v>3.0</v>
@@ -56621,7 +56624,7 @@
         <v>1.0</v>
       </c>
       <c r="CB166" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC166" t="n">
         <v>3.0</v>
@@ -56666,7 +56669,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR166" t="n">
         <v>0.0</v>
@@ -56711,7 +56714,7 @@
         <v>0.0</v>
       </c>
       <c r="DF166" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG166" t="n">
         <v>2.2142857142857144</v>
@@ -57001,7 +57004,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ167" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR167" t="n">
         <v>0.0</v>
@@ -57037,7 +57040,7 @@
         <v>330</v>
       </c>
       <c r="DC167" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD167" t="s">
         <v>15</v>
@@ -57046,7 +57049,7 @@
         <v>0.0</v>
       </c>
       <c r="DF167" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG167" t="n">
         <v>2.2857142857142856</v>
@@ -57300,10 +57303,10 @@
         <v>7.0</v>
       </c>
       <c r="CE168" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG168" t="s">
         <v>324</v>
@@ -57372,16 +57375,16 @@
         <v>329</v>
       </c>
       <c r="DC168" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE168" t="n">
         <v>0.0</v>
       </c>
       <c r="DF168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG168" t="n">
         <v>3.142857142857143</v>
@@ -57638,7 +57641,7 @@
         <v>325</v>
       </c>
       <c r="CF169" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG169" t="s">
         <v>325</v>
@@ -57671,7 +57674,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ169" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR169" t="n">
         <v>1.0</v>
@@ -57707,16 +57710,16 @@
         <v>329</v>
       </c>
       <c r="DC169" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD169" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE169" t="n">
         <v>0.0</v>
       </c>
       <c r="DF169" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG169" t="n">
         <v>2.7142857142857144</v>
@@ -57970,10 +57973,10 @@
         <v>5.0</v>
       </c>
       <c r="CE170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF170" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG170" t="s">
         <v>324</v>
@@ -58051,7 +58054,7 @@
         <v>0.0</v>
       </c>
       <c r="DF170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG170" t="n">
         <v>2.7142857142857144</v>
@@ -58308,7 +58311,7 @@
         <v>325</v>
       </c>
       <c r="CF171" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG171" t="s">
         <v>325</v>
@@ -58341,7 +58344,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR171" t="n">
         <v>1.0</v>
@@ -58380,13 +58383,13 @@
         <v>105</v>
       </c>
       <c r="DD171" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE171" t="n">
         <v>0.0</v>
       </c>
       <c r="DF171" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG171" t="n">
         <v>3.5714285714285716</v>
@@ -58676,7 +58679,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR172" t="n">
         <v>0.0</v>
@@ -58715,13 +58718,13 @@
         <v>105</v>
       </c>
       <c r="DD172" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE172" t="n">
         <v>1.0</v>
       </c>
       <c r="DF172" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG172" t="n">
         <v>2.7142857142857144</v>
@@ -58966,7 +58969,7 @@
         <v>0.0</v>
       </c>
       <c r="CB173" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC173" t="n">
         <v>8.0</v>
@@ -59011,7 +59014,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR173" t="n">
         <v>1.0</v>
@@ -59047,16 +59050,16 @@
         <v>330</v>
       </c>
       <c r="DC173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE173" t="n">
         <v>0.0</v>
       </c>
       <c r="DF173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG173" t="n">
         <v>2.2857142857142856</v>
@@ -59346,7 +59349,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ174" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR174" t="n">
         <v>1.0</v>
@@ -59382,16 +59385,16 @@
         <v>329</v>
       </c>
       <c r="DC174" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE174" t="n">
         <v>0.0</v>
       </c>
       <c r="DF174" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG174" t="n">
         <v>3.357142857142857</v>
@@ -59645,10 +59648,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE175" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF175" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG175" t="s">
         <v>324</v>
@@ -59726,7 +59729,7 @@
         <v>0.0</v>
       </c>
       <c r="DF175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG175" t="n">
         <v>3.0</v>
@@ -59983,7 +59986,7 @@
         <v>325</v>
       </c>
       <c r="CF176" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG176" t="s">
         <v>325</v>
@@ -60016,7 +60019,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ176" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR176" t="n">
         <v>0.0</v>
@@ -60055,13 +60058,13 @@
         <v>105</v>
       </c>
       <c r="DD176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE176" t="n">
         <v>0.0</v>
       </c>
       <c r="DF176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG176" t="n">
         <v>2.2857142857142856</v>
@@ -60351,7 +60354,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ177" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR177" t="n">
         <v>1.0</v>
@@ -60396,7 +60399,7 @@
         <v>0.0</v>
       </c>
       <c r="DF177" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG177" t="n">
         <v>3.0</v>
@@ -60641,7 +60644,7 @@
         <v>0.0</v>
       </c>
       <c r="CB178" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC178" t="n">
         <v>8.0</v>
@@ -60686,7 +60689,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ178" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR178" t="n">
         <v>1.0</v>
@@ -60722,16 +60725,16 @@
         <v>330</v>
       </c>
       <c r="DC178" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE178" t="n">
         <v>0.0</v>
       </c>
       <c r="DF178" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG178" t="n">
         <v>3.5</v>
@@ -61021,7 +61024,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ179" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR179" t="n">
         <v>0.0</v>
@@ -61057,16 +61060,16 @@
         <v>329</v>
       </c>
       <c r="DC179" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD179" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE179" t="n">
         <v>0.0</v>
       </c>
       <c r="DF179" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG179" t="n">
         <v>3.642857142857143</v>
@@ -61320,10 +61323,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE180" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF180" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG180" t="s">
         <v>324</v>
@@ -61392,7 +61395,7 @@
         <v>329</v>
       </c>
       <c r="DC180" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD180" t="s">
         <v>15</v>
@@ -61401,7 +61404,7 @@
         <v>0.0</v>
       </c>
       <c r="DF180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG180" t="n">
         <v>2.357142857142857</v>
@@ -61658,7 +61661,7 @@
         <v>325</v>
       </c>
       <c r="CF181" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG181" t="s">
         <v>325</v>
@@ -61691,7 +61694,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ181" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR181" t="n">
         <v>1.0</v>
@@ -61730,13 +61733,13 @@
         <v>105</v>
       </c>
       <c r="DD181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE181" t="n">
         <v>0.0</v>
       </c>
       <c r="DF181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG181" t="n">
         <v>2.9285714285714284</v>
@@ -62026,7 +62029,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ182" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR182" t="n">
         <v>0.0</v>
@@ -62071,7 +62074,7 @@
         <v>0.0</v>
       </c>
       <c r="DF182" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG182" t="n">
         <v>2.7857142857142856</v>
@@ -62316,7 +62319,7 @@
         <v>1.0</v>
       </c>
       <c r="CB183" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC183" t="n">
         <v>0.0</v>
@@ -62361,7 +62364,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ183" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR183" t="n">
         <v>1.0</v>
@@ -62406,7 +62409,7 @@
         <v>1.0</v>
       </c>
       <c r="DF183" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG183" t="n">
         <v>3.5</v>
@@ -62696,7 +62699,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ184" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR184" t="n">
         <v>1.0</v>
@@ -62741,7 +62744,7 @@
         <v>0.0</v>
       </c>
       <c r="DF184" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG184" t="n">
         <v>3.7857142857142856</v>
@@ -62995,10 +62998,10 @@
         <v>5.0</v>
       </c>
       <c r="CE185" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF185" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG185" t="s">
         <v>324</v>
@@ -63076,7 +63079,7 @@
         <v>0.0</v>
       </c>
       <c r="DF185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG185" t="n">
         <v>2.4285714285714284</v>
@@ -63333,7 +63336,7 @@
         <v>325</v>
       </c>
       <c r="CF186" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG186" t="s">
         <v>325</v>
@@ -63366,7 +63369,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ186" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR186" t="n">
         <v>0.0</v>
@@ -63411,7 +63414,7 @@
         <v>1.0</v>
       </c>
       <c r="DF186" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG186" t="n">
         <v>3.642857142857143</v>
@@ -63701,7 +63704,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ187" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR187" t="n">
         <v>1.0</v>
@@ -63737,7 +63740,7 @@
         <v>330</v>
       </c>
       <c r="DC187" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD187" t="s">
         <v>15</v>
@@ -63746,7 +63749,7 @@
         <v>0.0</v>
       </c>
       <c r="DF187" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG187" t="n">
         <v>3.2142857142857144</v>
@@ -63991,7 +63994,7 @@
         <v>1.0</v>
       </c>
       <c r="CB188" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC188" t="n">
         <v>0.0</v>
@@ -64036,7 +64039,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR188" t="n">
         <v>1.0</v>
@@ -64072,16 +64075,16 @@
         <v>330</v>
       </c>
       <c r="DC188" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD188" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE188" t="n">
         <v>1.0</v>
       </c>
       <c r="DF188" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG188" t="n">
         <v>3.5714285714285716</v>
@@ -64335,10 +64338,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE189" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF189" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG189" t="s">
         <v>324</v>
@@ -64407,7 +64410,7 @@
         <v>329</v>
       </c>
       <c r="DC189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD189" t="s">
         <v>15</v>
@@ -64416,7 +64419,7 @@
         <v>0.0</v>
       </c>
       <c r="DF189" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DG189" t="n">
         <v>3.2857142857142856</v>
@@ -64673,7 +64676,7 @@
         <v>325</v>
       </c>
       <c r="CF190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG190" t="s">
         <v>325</v>
@@ -64706,7 +64709,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR190" t="n">
         <v>0.0</v>
@@ -64742,7 +64745,7 @@
         <v>330</v>
       </c>
       <c r="DC190" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD190" t="s">
         <v>15</v>
@@ -64751,7 +64754,7 @@
         <v>0.0</v>
       </c>
       <c r="DF190" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG190" t="n">
         <v>2.9285714285714284</v>
@@ -65041,7 +65044,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ191" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR191" t="n">
         <v>0.0</v>
@@ -65077,16 +65080,16 @@
         <v>330</v>
       </c>
       <c r="DC191" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD191" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE191" t="n">
         <v>0.0</v>
       </c>
       <c r="DF191" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG191" t="n">
         <v>2.9285714285714284</v>
@@ -65331,7 +65334,7 @@
         <v>1.0</v>
       </c>
       <c r="CB192" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC192" t="n">
         <v>5.0</v>
@@ -65376,7 +65379,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR192" t="n">
         <v>1.0</v>
@@ -65421,7 +65424,7 @@
         <v>0.0</v>
       </c>
       <c r="DF192" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG192" t="n">
         <v>2.5714285714285716</v>
@@ -65711,7 +65714,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ193" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR193" t="n">
         <v>0.0</v>
@@ -65750,13 +65753,13 @@
         <v>105</v>
       </c>
       <c r="DD193" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE193" t="n">
         <v>0.0</v>
       </c>
       <c r="DF193" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG193" t="n">
         <v>2.9285714285714284</v>
@@ -66010,10 +66013,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF194" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG194" t="s">
         <v>324</v>
@@ -66082,16 +66085,16 @@
         <v>330</v>
       </c>
       <c r="DC194" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD194" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE194" t="n">
         <v>0.0</v>
       </c>
       <c r="DF194" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG194" t="n">
         <v>2.357142857142857</v>
@@ -66348,7 +66351,7 @@
         <v>325</v>
       </c>
       <c r="CF195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG195" t="s">
         <v>325</v>
@@ -66381,7 +66384,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR195" t="n">
         <v>0.0</v>
@@ -66426,7 +66429,7 @@
         <v>0.0</v>
       </c>
       <c r="DF195" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG195" t="n">
         <v>2.642857142857143</v>
@@ -66716,7 +66719,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ196" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR196" t="n">
         <v>1.0</v>
@@ -66755,13 +66758,13 @@
         <v>105</v>
       </c>
       <c r="DD196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE196" t="n">
         <v>1.0</v>
       </c>
       <c r="DF196" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG196" t="n">
         <v>3.357142857142857</v>
@@ -67006,7 +67009,7 @@
         <v>1.0</v>
       </c>
       <c r="CB197" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC197" t="n">
         <v>6.0</v>
@@ -67051,7 +67054,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ197" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR197" t="n">
         <v>0.0</v>
@@ -67096,7 +67099,7 @@
         <v>0.0</v>
       </c>
       <c r="DF197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG197" t="n">
         <v>3.0714285714285716</v>
@@ -67386,7 +67389,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ198" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR198" t="n">
         <v>0.0</v>
@@ -67422,16 +67425,16 @@
         <v>329</v>
       </c>
       <c r="DC198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD198" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE198" t="n">
         <v>0.0</v>
       </c>
       <c r="DF198" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG198" t="n">
         <v>3.2857142857142856</v>
@@ -67685,10 +67688,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE199" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF199" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG199" t="s">
         <v>324</v>
@@ -67757,16 +67760,16 @@
         <v>329</v>
       </c>
       <c r="DC199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE199" t="n">
         <v>0.0</v>
       </c>
       <c r="DF199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG199" t="n">
         <v>2.7857142857142856</v>
@@ -68023,7 +68026,7 @@
         <v>325</v>
       </c>
       <c r="CF200" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG200" t="s">
         <v>325</v>
@@ -68056,7 +68059,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ200" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR200" t="n">
         <v>0.0</v>
@@ -68101,7 +68104,7 @@
         <v>1.0</v>
       </c>
       <c r="DF200" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG200" t="n">
         <v>3.142857142857143</v>
@@ -68391,7 +68394,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ201" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR201" t="n">
         <v>1.0</v>
@@ -68436,7 +68439,7 @@
         <v>0.0</v>
       </c>
       <c r="DF201" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DG201" t="n">
         <v>3.357142857142857</v>
@@ -68681,7 +68684,7 @@
         <v>1.0</v>
       </c>
       <c r="CB202" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC202" t="n">
         <v>5.0</v>
@@ -68726,7 +68729,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ202" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR202" t="n">
         <v>1.0</v>
@@ -68762,16 +68765,16 @@
         <v>329</v>
       </c>
       <c r="DC202" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD202" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE202" t="n">
         <v>0.0</v>
       </c>
       <c r="DF202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG202" t="n">
         <v>3.5</v>
@@ -69061,7 +69064,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ203" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR203" t="n">
         <v>1.0</v>
@@ -69097,7 +69100,7 @@
         <v>330</v>
       </c>
       <c r="DC203" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD203" t="s">
         <v>15</v>
@@ -69106,7 +69109,7 @@
         <v>0.0</v>
       </c>
       <c r="DF203" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG203" t="n">
         <v>3.2857142857142856</v>
@@ -69360,10 +69363,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE204" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF204" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG204" t="s">
         <v>324</v>
@@ -69432,16 +69435,16 @@
         <v>330</v>
       </c>
       <c r="DC204" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD204" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE204" t="n">
         <v>0.0</v>
       </c>
       <c r="DF204" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG204" t="n">
         <v>3.357142857142857</v>
@@ -69698,7 +69701,7 @@
         <v>325</v>
       </c>
       <c r="CF205" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG205" t="s">
         <v>325</v>
@@ -69731,7 +69734,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ205" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR205" t="n">
         <v>1.0</v>
@@ -69770,13 +69773,13 @@
         <v>105</v>
       </c>
       <c r="DD205" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE205" t="n">
         <v>0.0</v>
       </c>
       <c r="DF205" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG205" t="n">
         <v>3.357142857142857</v>
@@ -70030,10 +70033,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF206" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG206" t="s">
         <v>324</v>
@@ -70102,7 +70105,7 @@
         <v>329</v>
       </c>
       <c r="DC206" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD206" t="s">
         <v>15</v>
@@ -70111,7 +70114,7 @@
         <v>0.0</v>
       </c>
       <c r="DF206" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG206" t="n">
         <v>2.857142857142857</v>
@@ -70368,7 +70371,7 @@
         <v>325</v>
       </c>
       <c r="CF207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG207" t="s">
         <v>325</v>
@@ -70401,7 +70404,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ207" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR207" t="n">
         <v>1.0</v>
@@ -70440,13 +70443,13 @@
         <v>105</v>
       </c>
       <c r="DD207" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE207" t="n">
         <v>0.0</v>
       </c>
       <c r="DF207" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG207" t="n">
         <v>3.0</v>
@@ -70736,7 +70739,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ208" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR208" t="n">
         <v>1.0</v>
@@ -70775,13 +70778,13 @@
         <v>105</v>
       </c>
       <c r="DD208" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE208" t="n">
         <v>0.0</v>
       </c>
       <c r="DF208" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG208" t="n">
         <v>2.857142857142857</v>
@@ -71026,7 +71029,7 @@
         <v>0.0</v>
       </c>
       <c r="CB209" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC209" t="n">
         <v>8.0</v>
@@ -71071,7 +71074,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ209" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR209" t="n">
         <v>1.0</v>
@@ -71107,16 +71110,16 @@
         <v>330</v>
       </c>
       <c r="DC209" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD209" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE209" t="n">
         <v>0.0</v>
       </c>
       <c r="DF209" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DG209" t="n">
         <v>3.5</v>
@@ -71406,7 +71409,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ210" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR210" t="n">
         <v>1.0</v>
@@ -71442,16 +71445,16 @@
         <v>330</v>
       </c>
       <c r="DC210" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD210" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE210" t="n">
         <v>0.0</v>
       </c>
       <c r="DF210" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG210" t="n">
         <v>3.357142857142857</v>
@@ -71705,10 +71708,10 @@
         <v>7.0</v>
       </c>
       <c r="CE211" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="CF211" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG211" t="s">
         <v>324</v>
@@ -71786,7 +71789,7 @@
         <v>0.0</v>
       </c>
       <c r="DF211" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG211" t="n">
         <v>3.4285714285714284</v>
@@ -72043,7 +72046,7 @@
         <v>325</v>
       </c>
       <c r="CF212" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="CG212" t="s">
         <v>325</v>
@@ -72076,7 +72079,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR212" t="n">
         <v>0.0</v>
@@ -72121,7 +72124,7 @@
         <v>0.0</v>
       </c>
       <c r="DF212" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG212" t="n">
         <v>3.357142857142857</v>
@@ -72411,7 +72414,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ213" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR213" t="n">
         <v>0.0</v>
@@ -72447,7 +72450,7 @@
         <v>329</v>
       </c>
       <c r="DC213" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DD213" t="s">
         <v>15</v>
@@ -72456,7 +72459,7 @@
         <v>0.0</v>
       </c>
       <c r="DF213" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG213" t="n">
         <v>2.9285714285714284</v>
@@ -72701,7 +72704,7 @@
         <v>1.0</v>
       </c>
       <c r="CB214" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="CC214" t="n">
         <v>3.0</v>
@@ -72746,7 +72749,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ214" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="CR214" t="n">
         <v>1.0</v>
@@ -72791,7 +72794,7 @@
         <v>0.0</v>
       </c>
       <c r="DF214" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG214" t="n">
         <v>3.2857142857142856</v>
@@ -73081,7 +73084,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ215" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CR215" t="n">
         <v>0.0</v>
@@ -73126,7 +73129,7 @@
         <v>0.0</v>
       </c>
       <c r="DF215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DG215" t="n">
         <v>3.642857142857143</v>

--- a/2 results_cleaned.xlsx
+++ b/2 results_cleaned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="349">
   <si>
     <t>Session</t>
   </si>
@@ -995,7 +995,7 @@
     <t>Default+Info</t>
   </si>
   <si>
-    <t>Default+Info +Purpose</t>
+    <t>Default+Info+Purpose</t>
   </si>
   <si>
     <t>Default+Purpose</t>
@@ -1013,19 +1013,16 @@
     <t>Not Participated</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
   <si>
     <t>Above</t>
   </si>
   <si>
     <t>Below</t>
-  </si>
-  <si>
-    <t>Default+Info+Purpose</t>
   </si>
   <si>
     <t>No Default</t>
@@ -1693,10 +1690,10 @@
         <v>2.0</v>
       </c>
       <c r="CE2" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF2" t="s">
         <v>338</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>339</v>
       </c>
       <c r="CG2" t="s">
         <v>324</v>
@@ -1765,7 +1762,7 @@
         <v>329</v>
       </c>
       <c r="DC2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD2" t="s">
         <v>15</v>
@@ -1774,7 +1771,7 @@
         <v>0.0</v>
       </c>
       <c r="DF2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0</v>
@@ -2031,7 +2028,7 @@
         <v>325</v>
       </c>
       <c r="CF3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG3" t="s">
         <v>325</v>
@@ -2064,7 +2061,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR3" t="n">
         <v>1.0</v>
@@ -2103,13 +2100,13 @@
         <v>105</v>
       </c>
       <c r="DD3" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF3" t="s">
         <v>343</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>344</v>
       </c>
       <c r="DG3" t="n">
         <v>3.7142857142857144</v>
@@ -2371,8 +2368,8 @@
       <c r="CG4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH4" t="e">
-        <v>#N/A</v>
+      <c r="CH4" t="s">
+        <v>326</v>
       </c>
       <c r="CI4" t="e">
         <v>#N/A</v>
@@ -2380,14 +2377,14 @@
       <c r="CJ4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK4" t="e">
-        <v>#N/A</v>
+      <c r="CK4" t="s">
+        <v>326</v>
       </c>
       <c r="CL4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM4" t="e">
-        <v>#N/A</v>
+      <c r="CM4" t="s">
+        <v>326</v>
       </c>
       <c r="CN4" t="n">
         <v>3.0</v>
@@ -2399,7 +2396,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR4" t="n">
         <v>0.0</v>
@@ -2438,13 +2435,13 @@
         <v>105</v>
       </c>
       <c r="DD4" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF4" t="s">
         <v>343</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>344</v>
       </c>
       <c r="DG4" t="n">
         <v>2.857142857142857</v>
@@ -2689,7 +2686,7 @@
         <v>0.0</v>
       </c>
       <c r="CB5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC5" t="n">
         <v>8.0</v>
@@ -2715,14 +2712,14 @@
       <c r="CJ5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM5" t="e">
-        <v>#N/A</v>
+      <c r="CK5" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>327</v>
       </c>
       <c r="CN5" t="e">
         <v>#N/A</v>
@@ -2734,7 +2731,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR5" t="n">
         <v>1.0</v>
@@ -2773,13 +2770,13 @@
         <v>105</v>
       </c>
       <c r="DD5" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF5" t="s">
         <v>343</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>344</v>
       </c>
       <c r="DG5" t="n">
         <v>2.857142857142857</v>
@@ -3044,17 +3041,17 @@
       <c r="CH6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL6" t="e">
-        <v>#N/A</v>
+      <c r="CI6" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>328</v>
       </c>
       <c r="CM6" t="e">
         <v>#N/A</v>
@@ -3069,7 +3066,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR6" t="n">
         <v>1.0</v>
@@ -3108,13 +3105,13 @@
         <v>105</v>
       </c>
       <c r="DD6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE6" t="n">
         <v>0.0</v>
       </c>
       <c r="DF6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG6" t="n">
         <v>3.4285714285714284</v>
@@ -3368,10 +3365,10 @@
         <v>5.0</v>
       </c>
       <c r="CE7" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF7" t="s">
         <v>338</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>339</v>
       </c>
       <c r="CG7" t="s">
         <v>324</v>
@@ -3443,13 +3440,13 @@
         <v>105</v>
       </c>
       <c r="DD7" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF7" t="s">
         <v>343</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>344</v>
       </c>
       <c r="DG7" t="n">
         <v>0.0</v>
@@ -3706,7 +3703,7 @@
         <v>325</v>
       </c>
       <c r="CF8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG8" t="s">
         <v>325</v>
@@ -3739,7 +3736,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR8" t="n">
         <v>0.0</v>
@@ -3784,7 +3781,7 @@
         <v>0.0</v>
       </c>
       <c r="DF8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG8" t="n">
         <v>2.7142857142857144</v>
@@ -4046,8 +4043,8 @@
       <c r="CG9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH9" t="e">
-        <v>#N/A</v>
+      <c r="CH9" t="s">
+        <v>326</v>
       </c>
       <c r="CI9" t="e">
         <v>#N/A</v>
@@ -4055,14 +4052,14 @@
       <c r="CJ9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK9" t="e">
-        <v>#N/A</v>
+      <c r="CK9" t="s">
+        <v>326</v>
       </c>
       <c r="CL9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM9" t="e">
-        <v>#N/A</v>
+      <c r="CM9" t="s">
+        <v>326</v>
       </c>
       <c r="CN9" t="e">
         <v>#N/A</v>
@@ -4074,7 +4071,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR9" t="n">
         <v>0.0</v>
@@ -4119,7 +4116,7 @@
         <v>0.0</v>
       </c>
       <c r="DF9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG9" t="n">
         <v>3.2142857142857144</v>
@@ -4364,7 +4361,7 @@
         <v>1.0</v>
       </c>
       <c r="CB10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC10" t="n">
         <v>5.0</v>
@@ -4390,14 +4387,14 @@
       <c r="CJ10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM10" t="e">
-        <v>#N/A</v>
+      <c r="CK10" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>327</v>
       </c>
       <c r="CN10" t="n">
         <v>3.0</v>
@@ -4409,7 +4406,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR10" t="n">
         <v>1.0</v>
@@ -4448,13 +4445,13 @@
         <v>105</v>
       </c>
       <c r="DD10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE10" t="n">
         <v>0.0</v>
       </c>
       <c r="DF10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG10" t="n">
         <v>2.857142857142857</v>
@@ -4719,17 +4716,17 @@
       <c r="CH11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL11" t="e">
-        <v>#N/A</v>
+      <c r="CI11" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>328</v>
       </c>
       <c r="CM11" t="e">
         <v>#N/A</v>
@@ -4744,7 +4741,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR11" t="n">
         <v>1.0</v>
@@ -4783,13 +4780,13 @@
         <v>105</v>
       </c>
       <c r="DD11" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF11" t="s">
         <v>343</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>344</v>
       </c>
       <c r="DG11" t="n">
         <v>3.0</v>
@@ -5043,10 +5040,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE12" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF12" t="s">
         <v>338</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>339</v>
       </c>
       <c r="CG12" t="s">
         <v>324</v>
@@ -5118,13 +5115,13 @@
         <v>105</v>
       </c>
       <c r="DD12" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF12" t="s">
         <v>343</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>344</v>
       </c>
       <c r="DG12" t="n">
         <v>0.0</v>
@@ -5381,7 +5378,7 @@
         <v>325</v>
       </c>
       <c r="CF13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG13" t="s">
         <v>325</v>
@@ -5414,7 +5411,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR13" t="n">
         <v>1.0</v>
@@ -5453,13 +5450,13 @@
         <v>105</v>
       </c>
       <c r="DD13" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF13" t="s">
         <v>343</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>344</v>
       </c>
       <c r="DG13" t="n">
         <v>3.142857142857143</v>
@@ -5721,8 +5718,8 @@
       <c r="CG14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH14" t="e">
-        <v>#N/A</v>
+      <c r="CH14" t="s">
+        <v>326</v>
       </c>
       <c r="CI14" t="e">
         <v>#N/A</v>
@@ -5730,14 +5727,14 @@
       <c r="CJ14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK14" t="e">
-        <v>#N/A</v>
+      <c r="CK14" t="s">
+        <v>326</v>
       </c>
       <c r="CL14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM14" t="e">
-        <v>#N/A</v>
+      <c r="CM14" t="s">
+        <v>326</v>
       </c>
       <c r="CN14" t="n">
         <v>2.0</v>
@@ -5749,7 +5746,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR14" t="n">
         <v>1.0</v>
@@ -5788,13 +5785,13 @@
         <v>105</v>
       </c>
       <c r="DD14" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF14" t="s">
         <v>343</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF14" t="s">
-        <v>344</v>
       </c>
       <c r="DG14" t="n">
         <v>3.357142857142857</v>
@@ -6039,7 +6036,7 @@
         <v>1.0</v>
       </c>
       <c r="CB15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC15" t="n">
         <v>0.0</v>
@@ -6065,14 +6062,14 @@
       <c r="CJ15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM15" t="e">
-        <v>#N/A</v>
+      <c r="CK15" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>327</v>
       </c>
       <c r="CN15" t="n">
         <v>8.0</v>
@@ -6084,7 +6081,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR15" t="n">
         <v>1.0</v>
@@ -6123,13 +6120,13 @@
         <v>105</v>
       </c>
       <c r="DD15" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF15" t="s">
         <v>343</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>344</v>
       </c>
       <c r="DG15" t="n">
         <v>3.142857142857143</v>
@@ -6394,17 +6391,17 @@
       <c r="CH16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL16" t="e">
-        <v>#N/A</v>
+      <c r="CI16" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>328</v>
       </c>
       <c r="CM16" t="e">
         <v>#N/A</v>
@@ -6419,7 +6416,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR16" t="n">
         <v>1.0</v>
@@ -6458,13 +6455,13 @@
         <v>105</v>
       </c>
       <c r="DD16" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF16" t="s">
         <v>343</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF16" t="s">
-        <v>344</v>
       </c>
       <c r="DG16" t="n">
         <v>3.9285714285714284</v>
@@ -6718,10 +6715,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE17" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF17" t="s">
         <v>338</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>339</v>
       </c>
       <c r="CG17" t="s">
         <v>324</v>
@@ -6793,13 +6790,13 @@
         <v>105</v>
       </c>
       <c r="DD17" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF17" t="s">
         <v>343</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF17" t="s">
-        <v>344</v>
       </c>
       <c r="DG17" t="n">
         <v>0.0</v>
@@ -7056,7 +7053,7 @@
         <v>325</v>
       </c>
       <c r="CF18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG18" t="s">
         <v>325</v>
@@ -7089,7 +7086,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR18" t="n">
         <v>0.0</v>
@@ -7128,13 +7125,13 @@
         <v>105</v>
       </c>
       <c r="DD18" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF18" t="s">
         <v>343</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF18" t="s">
-        <v>344</v>
       </c>
       <c r="DG18" t="n">
         <v>3.0714285714285716</v>
@@ -7396,8 +7393,8 @@
       <c r="CG19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH19" t="e">
-        <v>#N/A</v>
+      <c r="CH19" t="s">
+        <v>326</v>
       </c>
       <c r="CI19" t="e">
         <v>#N/A</v>
@@ -7405,14 +7402,14 @@
       <c r="CJ19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK19" t="e">
-        <v>#N/A</v>
+      <c r="CK19" t="s">
+        <v>326</v>
       </c>
       <c r="CL19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM19" t="e">
-        <v>#N/A</v>
+      <c r="CM19" t="s">
+        <v>326</v>
       </c>
       <c r="CN19" t="e">
         <v>#N/A</v>
@@ -7424,7 +7421,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR19" t="n">
         <v>0.0</v>
@@ -7463,13 +7460,13 @@
         <v>105</v>
       </c>
       <c r="DD19" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF19" t="s">
         <v>343</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF19" t="s">
-        <v>344</v>
       </c>
       <c r="DG19" t="n">
         <v>3.0</v>
@@ -7714,7 +7711,7 @@
         <v>1.0</v>
       </c>
       <c r="CB20" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -7740,14 +7737,14 @@
       <c r="CJ20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM20" t="e">
-        <v>#N/A</v>
+      <c r="CK20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>327</v>
       </c>
       <c r="CN20" t="n">
         <v>8.0</v>
@@ -7759,7 +7756,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR20" t="n">
         <v>1.0</v>
@@ -7798,13 +7795,13 @@
         <v>105</v>
       </c>
       <c r="DD20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE20" t="n">
         <v>1.0</v>
       </c>
       <c r="DF20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG20" t="n">
         <v>2.5</v>
@@ -8069,17 +8066,17 @@
       <c r="CH21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL21" t="e">
-        <v>#N/A</v>
+      <c r="CI21" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>328</v>
       </c>
       <c r="CM21" t="e">
         <v>#N/A</v>
@@ -8094,7 +8091,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR21" t="n">
         <v>1.0</v>
@@ -8130,16 +8127,16 @@
         <v>329</v>
       </c>
       <c r="DC21" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD21" t="s">
         <v>342</v>
       </c>
-      <c r="DD21" t="s">
+      <c r="DE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF21" t="s">
         <v>343</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF21" t="s">
-        <v>344</v>
       </c>
       <c r="DG21" t="n">
         <v>2.7142857142857144</v>
@@ -8393,10 +8390,10 @@
         <v>4.0</v>
       </c>
       <c r="CE22" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF22" t="s">
         <v>338</v>
-      </c>
-      <c r="CF22" t="s">
-        <v>339</v>
       </c>
       <c r="CG22" t="s">
         <v>324</v>
@@ -8474,7 +8471,7 @@
         <v>0.0</v>
       </c>
       <c r="DF22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG22" t="n">
         <v>0.0</v>
@@ -8731,7 +8728,7 @@
         <v>325</v>
       </c>
       <c r="CF23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG23" t="s">
         <v>325</v>
@@ -8764,7 +8761,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR23" t="n">
         <v>0.0</v>
@@ -8803,13 +8800,13 @@
         <v>105</v>
       </c>
       <c r="DD23" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF23" t="s">
         <v>343</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF23" t="s">
-        <v>344</v>
       </c>
       <c r="DG23" t="n">
         <v>2.7142857142857144</v>
@@ -9071,8 +9068,8 @@
       <c r="CG24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH24" t="e">
-        <v>#N/A</v>
+      <c r="CH24" t="s">
+        <v>326</v>
       </c>
       <c r="CI24" t="e">
         <v>#N/A</v>
@@ -9080,14 +9077,14 @@
       <c r="CJ24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK24" t="e">
-        <v>#N/A</v>
+      <c r="CK24" t="s">
+        <v>326</v>
       </c>
       <c r="CL24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM24" t="e">
-        <v>#N/A</v>
+      <c r="CM24" t="s">
+        <v>326</v>
       </c>
       <c r="CN24" t="n">
         <v>1.0</v>
@@ -9099,7 +9096,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR24" t="n">
         <v>0.0</v>
@@ -9135,16 +9132,16 @@
         <v>330</v>
       </c>
       <c r="DC24" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD24" t="s">
         <v>342</v>
       </c>
-      <c r="DD24" t="s">
+      <c r="DE24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF24" t="s">
         <v>343</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF24" t="s">
-        <v>344</v>
       </c>
       <c r="DG24" t="n">
         <v>3.0</v>
@@ -9389,7 +9386,7 @@
         <v>1.0</v>
       </c>
       <c r="CB25" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC25" t="n">
         <v>7.0</v>
@@ -9415,14 +9412,14 @@
       <c r="CJ25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM25" t="e">
-        <v>#N/A</v>
+      <c r="CK25" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>327</v>
       </c>
       <c r="CN25" t="n">
         <v>1.0</v>
@@ -9434,7 +9431,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR25" t="n">
         <v>1.0</v>
@@ -9479,7 +9476,7 @@
         <v>0.0</v>
       </c>
       <c r="DF25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG25" t="n">
         <v>2.7857142857142856</v>
@@ -9744,17 +9741,17 @@
       <c r="CH26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL26" t="e">
-        <v>#N/A</v>
+      <c r="CI26" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>328</v>
       </c>
       <c r="CM26" t="e">
         <v>#N/A</v>
@@ -9769,7 +9766,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR26" t="n">
         <v>1.0</v>
@@ -9805,7 +9802,7 @@
         <v>330</v>
       </c>
       <c r="DC26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD26" t="s">
         <v>15</v>
@@ -9814,7 +9811,7 @@
         <v>1.0</v>
       </c>
       <c r="DF26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG26" t="n">
         <v>5.0</v>
@@ -10071,7 +10068,7 @@
         <v>325</v>
       </c>
       <c r="CF27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG27" t="s">
         <v>325</v>
@@ -10104,7 +10101,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR27" t="n">
         <v>1.0</v>
@@ -10149,7 +10146,7 @@
         <v>1.0</v>
       </c>
       <c r="DF27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG27" t="n">
         <v>1.7142857142857142</v>
@@ -10411,8 +10408,8 @@
       <c r="CG28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH28" t="e">
-        <v>#N/A</v>
+      <c r="CH28" t="s">
+        <v>326</v>
       </c>
       <c r="CI28" t="e">
         <v>#N/A</v>
@@ -10420,14 +10417,14 @@
       <c r="CJ28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK28" t="e">
-        <v>#N/A</v>
+      <c r="CK28" t="s">
+        <v>326</v>
       </c>
       <c r="CL28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM28" t="e">
-        <v>#N/A</v>
+      <c r="CM28" t="s">
+        <v>326</v>
       </c>
       <c r="CN28" t="n">
         <v>1.0</v>
@@ -10439,7 +10436,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR28" t="n">
         <v>1.0</v>
@@ -10484,7 +10481,7 @@
         <v>0.0</v>
       </c>
       <c r="DF28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="DG28" t="n">
         <v>3.9285714285714284</v>
@@ -10729,7 +10726,7 @@
         <v>0.0</v>
       </c>
       <c r="CB29" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC29" t="n">
         <v>8.0</v>
@@ -10755,14 +10752,14 @@
       <c r="CJ29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM29" t="e">
-        <v>#N/A</v>
+      <c r="CK29" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>327</v>
       </c>
       <c r="CN29" t="e">
         <v>#N/A</v>
@@ -10774,7 +10771,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR29" t="n">
         <v>0.0</v>
@@ -10810,16 +10807,16 @@
         <v>329</v>
       </c>
       <c r="DC29" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD29" t="s">
         <v>342</v>
       </c>
-      <c r="DD29" t="s">
+      <c r="DE29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF29" t="s">
         <v>343</v>
-      </c>
-      <c r="DE29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF29" t="s">
-        <v>344</v>
       </c>
       <c r="DG29" t="n">
         <v>1.9285714285714286</v>
@@ -11073,10 +11070,10 @@
         <v>4.0</v>
       </c>
       <c r="CE30" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF30" t="s">
         <v>338</v>
-      </c>
-      <c r="CF30" t="s">
-        <v>339</v>
       </c>
       <c r="CG30" t="s">
         <v>324</v>
@@ -11154,7 +11151,7 @@
         <v>0.0</v>
       </c>
       <c r="DF30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG30" t="n">
         <v>0.0</v>
@@ -11411,7 +11408,7 @@
         <v>325</v>
       </c>
       <c r="CF31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG31" t="s">
         <v>325</v>
@@ -11444,7 +11441,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR31" t="n">
         <v>0.0</v>
@@ -11480,16 +11477,16 @@
         <v>329</v>
       </c>
       <c r="DC31" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD31" t="s">
         <v>342</v>
       </c>
-      <c r="DD31" t="s">
+      <c r="DE31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF31" t="s">
         <v>343</v>
-      </c>
-      <c r="DE31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF31" t="s">
-        <v>344</v>
       </c>
       <c r="DG31" t="n">
         <v>3.142857142857143</v>
@@ -11751,8 +11748,8 @@
       <c r="CG32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH32" t="e">
-        <v>#N/A</v>
+      <c r="CH32" t="s">
+        <v>326</v>
       </c>
       <c r="CI32" t="e">
         <v>#N/A</v>
@@ -11760,14 +11757,14 @@
       <c r="CJ32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK32" t="e">
-        <v>#N/A</v>
+      <c r="CK32" t="s">
+        <v>326</v>
       </c>
       <c r="CL32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM32" t="e">
-        <v>#N/A</v>
+      <c r="CM32" t="s">
+        <v>326</v>
       </c>
       <c r="CN32" t="n">
         <v>3.0</v>
@@ -11779,7 +11776,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR32" t="n">
         <v>1.0</v>
@@ -11824,7 +11821,7 @@
         <v>0.0</v>
       </c>
       <c r="DF32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG32" t="n">
         <v>1.7857142857142858</v>
@@ -12069,7 +12066,7 @@
         <v>1.0</v>
       </c>
       <c r="CB33" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC33" t="n">
         <v>7.0</v>
@@ -12095,14 +12092,14 @@
       <c r="CJ33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM33" t="e">
-        <v>#N/A</v>
+      <c r="CK33" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>327</v>
       </c>
       <c r="CN33" t="n">
         <v>1.0</v>
@@ -12114,7 +12111,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR33" t="n">
         <v>0.0</v>
@@ -12153,13 +12150,13 @@
         <v>105</v>
       </c>
       <c r="DD33" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF33" t="s">
         <v>343</v>
-      </c>
-      <c r="DE33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF33" t="s">
-        <v>344</v>
       </c>
       <c r="DG33" t="n">
         <v>2.857142857142857</v>
@@ -12424,17 +12421,17 @@
       <c r="CH34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL34" t="e">
-        <v>#N/A</v>
+      <c r="CI34" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>328</v>
       </c>
       <c r="CM34" t="e">
         <v>#N/A</v>
@@ -12449,7 +12446,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR34" t="n">
         <v>0.0</v>
@@ -12485,16 +12482,16 @@
         <v>330</v>
       </c>
       <c r="DC34" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD34" t="s">
         <v>342</v>
       </c>
-      <c r="DD34" t="s">
+      <c r="DE34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF34" t="s">
         <v>343</v>
-      </c>
-      <c r="DE34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF34" t="s">
-        <v>344</v>
       </c>
       <c r="DG34" t="n">
         <v>2.9285714285714284</v>
@@ -12748,10 +12745,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE35" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF35" t="s">
         <v>338</v>
-      </c>
-      <c r="CF35" t="s">
-        <v>339</v>
       </c>
       <c r="CG35" t="s">
         <v>324</v>
@@ -12820,16 +12817,16 @@
         <v>329</v>
       </c>
       <c r="DC35" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD35" t="s">
         <v>342</v>
       </c>
-      <c r="DD35" t="s">
+      <c r="DE35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF35" t="s">
         <v>343</v>
-      </c>
-      <c r="DE35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF35" t="s">
-        <v>344</v>
       </c>
       <c r="DG35" t="n">
         <v>0.0</v>
@@ -13086,7 +13083,7 @@
         <v>325</v>
       </c>
       <c r="CF36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG36" t="s">
         <v>325</v>
@@ -13119,7 +13116,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR36" t="n">
         <v>0.0</v>
@@ -13158,13 +13155,13 @@
         <v>105</v>
       </c>
       <c r="DD36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE36" t="n">
         <v>0.0</v>
       </c>
       <c r="DF36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG36" t="n">
         <v>3.0</v>
@@ -13426,8 +13423,8 @@
       <c r="CG37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH37" t="e">
-        <v>#N/A</v>
+      <c r="CH37" t="s">
+        <v>326</v>
       </c>
       <c r="CI37" t="e">
         <v>#N/A</v>
@@ -13435,14 +13432,14 @@
       <c r="CJ37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK37" t="e">
-        <v>#N/A</v>
+      <c r="CK37" t="s">
+        <v>326</v>
       </c>
       <c r="CL37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM37" t="e">
-        <v>#N/A</v>
+      <c r="CM37" t="s">
+        <v>326</v>
       </c>
       <c r="CN37" t="n">
         <v>2.0</v>
@@ -13454,7 +13451,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR37" t="n">
         <v>1.0</v>
@@ -13493,13 +13490,13 @@
         <v>105</v>
       </c>
       <c r="DD37" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF37" t="s">
         <v>343</v>
-      </c>
-      <c r="DE37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF37" t="s">
-        <v>344</v>
       </c>
       <c r="DG37" t="n">
         <v>3.2142857142857144</v>
@@ -13744,7 +13741,7 @@
         <v>0.0</v>
       </c>
       <c r="CB38" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC38" t="n">
         <v>8.0</v>
@@ -13770,14 +13767,14 @@
       <c r="CJ38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM38" t="e">
-        <v>#N/A</v>
+      <c r="CK38" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>327</v>
       </c>
       <c r="CN38" t="e">
         <v>#N/A</v>
@@ -13789,7 +13786,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR38" t="n">
         <v>1.0</v>
@@ -13825,16 +13822,16 @@
         <v>329</v>
       </c>
       <c r="DC38" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD38" t="s">
         <v>342</v>
       </c>
-      <c r="DD38" t="s">
-        <v>343</v>
-      </c>
       <c r="DE38" t="n">
         <v>0.0</v>
       </c>
       <c r="DF38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG38" t="n">
         <v>3.5714285714285716</v>
@@ -14099,17 +14096,17 @@
       <c r="CH39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL39" t="e">
-        <v>#N/A</v>
+      <c r="CI39" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>328</v>
       </c>
       <c r="CM39" t="e">
         <v>#N/A</v>
@@ -14124,7 +14121,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR39" t="n">
         <v>0.0</v>
@@ -14160,16 +14157,16 @@
         <v>329</v>
       </c>
       <c r="DC39" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD39" t="s">
         <v>342</v>
       </c>
-      <c r="DD39" t="s">
+      <c r="DE39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF39" t="s">
         <v>343</v>
-      </c>
-      <c r="DE39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF39" t="s">
-        <v>344</v>
       </c>
       <c r="DG39" t="n">
         <v>2.9285714285714284</v>
@@ -14423,10 +14420,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE40" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF40" t="s">
         <v>338</v>
-      </c>
-      <c r="CF40" t="s">
-        <v>339</v>
       </c>
       <c r="CG40" t="s">
         <v>324</v>
@@ -14498,13 +14495,13 @@
         <v>105</v>
       </c>
       <c r="DD40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE40" t="n">
         <v>0.0</v>
       </c>
       <c r="DF40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG40" t="n">
         <v>0.0</v>
@@ -14761,7 +14758,7 @@
         <v>325</v>
       </c>
       <c r="CF41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG41" t="s">
         <v>325</v>
@@ -14794,7 +14791,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR41" t="n">
         <v>1.0</v>
@@ -14839,7 +14836,7 @@
         <v>0.0</v>
       </c>
       <c r="DF41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG41" t="n">
         <v>4.142857142857143</v>
@@ -15101,8 +15098,8 @@
       <c r="CG42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH42" t="e">
-        <v>#N/A</v>
+      <c r="CH42" t="s">
+        <v>326</v>
       </c>
       <c r="CI42" t="e">
         <v>#N/A</v>
@@ -15110,14 +15107,14 @@
       <c r="CJ42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK42" t="e">
-        <v>#N/A</v>
+      <c r="CK42" t="s">
+        <v>326</v>
       </c>
       <c r="CL42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM42" t="e">
-        <v>#N/A</v>
+      <c r="CM42" t="s">
+        <v>326</v>
       </c>
       <c r="CN42" t="n">
         <v>10.0</v>
@@ -15129,7 +15126,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR42" t="n">
         <v>1.0</v>
@@ -15174,7 +15171,7 @@
         <v>0.0</v>
       </c>
       <c r="DF42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG42" t="n">
         <v>3.2142857142857144</v>
@@ -15419,7 +15416,7 @@
         <v>1.0</v>
       </c>
       <c r="CB43" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC43" t="n">
         <v>4.0</v>
@@ -15445,14 +15442,14 @@
       <c r="CJ43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM43" t="e">
-        <v>#N/A</v>
+      <c r="CK43" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>327</v>
       </c>
       <c r="CN43" t="n">
         <v>4.0</v>
@@ -15464,7 +15461,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR43" t="n">
         <v>0.0</v>
@@ -15509,7 +15506,7 @@
         <v>0.0</v>
       </c>
       <c r="DF43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG43" t="n">
         <v>2.2142857142857144</v>
@@ -15774,17 +15771,17 @@
       <c r="CH44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL44" t="e">
-        <v>#N/A</v>
+      <c r="CI44" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ44" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>328</v>
       </c>
       <c r="CM44" t="e">
         <v>#N/A</v>
@@ -15799,7 +15796,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR44" t="n">
         <v>0.0</v>
@@ -15844,7 +15841,7 @@
         <v>0.0</v>
       </c>
       <c r="DF44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG44" t="n">
         <v>2.2142857142857144</v>
@@ -16098,10 +16095,10 @@
         <v>6.0</v>
       </c>
       <c r="CE45" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF45" t="s">
         <v>338</v>
-      </c>
-      <c r="CF45" t="s">
-        <v>339</v>
       </c>
       <c r="CG45" t="s">
         <v>324</v>
@@ -16173,13 +16170,13 @@
         <v>105</v>
       </c>
       <c r="DD45" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF45" t="s">
         <v>343</v>
-      </c>
-      <c r="DE45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF45" t="s">
-        <v>344</v>
       </c>
       <c r="DG45" t="n">
         <v>0.0</v>
@@ -16436,7 +16433,7 @@
         <v>325</v>
       </c>
       <c r="CF46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG46" t="s">
         <v>325</v>
@@ -16469,7 +16466,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR46" t="n">
         <v>1.0</v>
@@ -16514,7 +16511,7 @@
         <v>0.0</v>
       </c>
       <c r="DF46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG46" t="n">
         <v>3.7857142857142856</v>
@@ -16776,8 +16773,8 @@
       <c r="CG47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH47" t="e">
-        <v>#N/A</v>
+      <c r="CH47" t="s">
+        <v>326</v>
       </c>
       <c r="CI47" t="e">
         <v>#N/A</v>
@@ -16785,14 +16782,14 @@
       <c r="CJ47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK47" t="e">
-        <v>#N/A</v>
+      <c r="CK47" t="s">
+        <v>326</v>
       </c>
       <c r="CL47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM47" t="e">
-        <v>#N/A</v>
+      <c r="CM47" t="s">
+        <v>326</v>
       </c>
       <c r="CN47" t="n">
         <v>8.0</v>
@@ -16804,7 +16801,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR47" t="n">
         <v>1.0</v>
@@ -16849,7 +16846,7 @@
         <v>1.0</v>
       </c>
       <c r="DF47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG47" t="n">
         <v>3.2142857142857144</v>
@@ -17094,7 +17091,7 @@
         <v>0.0</v>
       </c>
       <c r="CB48" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC48" t="n">
         <v>8.0</v>
@@ -17120,14 +17117,14 @@
       <c r="CJ48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM48" t="e">
-        <v>#N/A</v>
+      <c r="CK48" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>327</v>
       </c>
       <c r="CN48" t="e">
         <v>#N/A</v>
@@ -17139,7 +17136,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR48" t="n">
         <v>1.0</v>
@@ -17178,13 +17175,13 @@
         <v>105</v>
       </c>
       <c r="DD48" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF48" t="s">
         <v>343</v>
-      </c>
-      <c r="DE48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF48" t="s">
-        <v>344</v>
       </c>
       <c r="DG48" t="n">
         <v>3.142857142857143</v>
@@ -17449,17 +17446,17 @@
       <c r="CH49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL49" t="e">
-        <v>#N/A</v>
+      <c r="CI49" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>328</v>
       </c>
       <c r="CM49" t="e">
         <v>#N/A</v>
@@ -17474,7 +17471,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR49" t="n">
         <v>1.0</v>
@@ -17513,13 +17510,13 @@
         <v>105</v>
       </c>
       <c r="DD49" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF49" t="s">
         <v>343</v>
-      </c>
-      <c r="DE49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF49" t="s">
-        <v>344</v>
       </c>
       <c r="DG49" t="n">
         <v>3.2142857142857144</v>
@@ -17773,10 +17770,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE50" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF50" t="s">
         <v>338</v>
-      </c>
-      <c r="CF50" t="s">
-        <v>339</v>
       </c>
       <c r="CG50" t="s">
         <v>324</v>
@@ -17848,13 +17845,13 @@
         <v>105</v>
       </c>
       <c r="DD50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE50" t="n">
         <v>0.0</v>
       </c>
       <c r="DF50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DG50" t="n">
         <v>0.0</v>
@@ -18111,7 +18108,7 @@
         <v>325</v>
       </c>
       <c r="CF51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG51" t="s">
         <v>325</v>
@@ -18144,7 +18141,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR51" t="n">
         <v>0.0</v>
@@ -18189,7 +18186,7 @@
         <v>0.0</v>
       </c>
       <c r="DF51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG51" t="n">
         <v>3.357142857142857</v>
@@ -18451,8 +18448,8 @@
       <c r="CG52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH52" t="e">
-        <v>#N/A</v>
+      <c r="CH52" t="s">
+        <v>326</v>
       </c>
       <c r="CI52" t="e">
         <v>#N/A</v>
@@ -18460,14 +18457,14 @@
       <c r="CJ52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK52" t="e">
-        <v>#N/A</v>
+      <c r="CK52" t="s">
+        <v>326</v>
       </c>
       <c r="CL52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM52" t="e">
-        <v>#N/A</v>
+      <c r="CM52" t="s">
+        <v>326</v>
       </c>
       <c r="CN52" t="n">
         <v>1.0</v>
@@ -18479,7 +18476,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR52" t="n">
         <v>0.0</v>
@@ -18518,13 +18515,13 @@
         <v>105</v>
       </c>
       <c r="DD52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE52" t="n">
         <v>0.0</v>
       </c>
       <c r="DF52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG52" t="n">
         <v>2.2857142857142856</v>
@@ -18769,7 +18766,7 @@
         <v>1.0</v>
       </c>
       <c r="CB53" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC53" t="n">
         <v>3.0</v>
@@ -18795,14 +18792,14 @@
       <c r="CJ53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM53" t="e">
-        <v>#N/A</v>
+      <c r="CK53" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>327</v>
       </c>
       <c r="CN53" t="n">
         <v>5.0</v>
@@ -18814,7 +18811,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR53" t="n">
         <v>0.0</v>
@@ -18853,13 +18850,13 @@
         <v>105</v>
       </c>
       <c r="DD53" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF53" t="s">
         <v>343</v>
-      </c>
-      <c r="DE53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF53" t="s">
-        <v>344</v>
       </c>
       <c r="DG53" t="n">
         <v>3.0</v>
@@ -19124,17 +19121,17 @@
       <c r="CH54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL54" t="e">
-        <v>#N/A</v>
+      <c r="CI54" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ54" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK54" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>328</v>
       </c>
       <c r="CM54" t="e">
         <v>#N/A</v>
@@ -19149,7 +19146,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR54" t="n">
         <v>0.0</v>
@@ -19185,16 +19182,16 @@
         <v>330</v>
       </c>
       <c r="DC54" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD54" t="s">
         <v>342</v>
       </c>
-      <c r="DD54" t="s">
-        <v>343</v>
-      </c>
       <c r="DE54" t="n">
         <v>1.0</v>
       </c>
       <c r="DF54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG54" t="n">
         <v>3.0714285714285716</v>
@@ -19448,10 +19445,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE55" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF55" t="s">
         <v>338</v>
-      </c>
-      <c r="CF55" t="s">
-        <v>339</v>
       </c>
       <c r="CG55" t="s">
         <v>324</v>
@@ -19520,16 +19517,16 @@
         <v>329</v>
       </c>
       <c r="DC55" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD55" t="s">
         <v>342</v>
       </c>
-      <c r="DD55" t="s">
+      <c r="DE55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF55" t="s">
         <v>343</v>
-      </c>
-      <c r="DE55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF55" t="s">
-        <v>344</v>
       </c>
       <c r="DG55" t="n">
         <v>0.0</v>
@@ -19786,7 +19783,7 @@
         <v>325</v>
       </c>
       <c r="CF56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG56" t="s">
         <v>325</v>
@@ -19819,7 +19816,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR56" t="n">
         <v>1.0</v>
@@ -19855,16 +19852,16 @@
         <v>329</v>
       </c>
       <c r="DC56" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD56" t="s">
         <v>342</v>
       </c>
-      <c r="DD56" t="s">
+      <c r="DE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF56" t="s">
         <v>343</v>
-      </c>
-      <c r="DE56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF56" t="s">
-        <v>344</v>
       </c>
       <c r="DG56" t="n">
         <v>3.0714285714285716</v>
@@ -20126,8 +20123,8 @@
       <c r="CG57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH57" t="e">
-        <v>#N/A</v>
+      <c r="CH57" t="s">
+        <v>326</v>
       </c>
       <c r="CI57" t="e">
         <v>#N/A</v>
@@ -20135,14 +20132,14 @@
       <c r="CJ57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK57" t="e">
-        <v>#N/A</v>
+      <c r="CK57" t="s">
+        <v>326</v>
       </c>
       <c r="CL57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM57" t="e">
-        <v>#N/A</v>
+      <c r="CM57" t="s">
+        <v>326</v>
       </c>
       <c r="CN57" t="e">
         <v>#N/A</v>
@@ -20154,7 +20151,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR57" t="n">
         <v>1.0</v>
@@ -20193,13 +20190,13 @@
         <v>105</v>
       </c>
       <c r="DD57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE57" t="n">
         <v>0.0</v>
       </c>
       <c r="DF57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG57" t="n">
         <v>3.357142857142857</v>
@@ -20444,7 +20441,7 @@
         <v>0.0</v>
       </c>
       <c r="CB58" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC58" t="n">
         <v>8.0</v>
@@ -20470,14 +20467,14 @@
       <c r="CJ58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM58" t="e">
-        <v>#N/A</v>
+      <c r="CK58" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM58" t="s">
+        <v>327</v>
       </c>
       <c r="CN58" t="e">
         <v>#N/A</v>
@@ -20489,7 +20486,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR58" t="n">
         <v>1.0</v>
@@ -20525,7 +20522,7 @@
         <v>329</v>
       </c>
       <c r="DC58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD58" t="s">
         <v>15</v>
@@ -20534,7 +20531,7 @@
         <v>0.0</v>
       </c>
       <c r="DF58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG58" t="n">
         <v>1.0</v>
@@ -20799,17 +20796,17 @@
       <c r="CH59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL59" t="e">
-        <v>#N/A</v>
+      <c r="CI59" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ59" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK59" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL59" t="s">
+        <v>328</v>
       </c>
       <c r="CM59" t="e">
         <v>#N/A</v>
@@ -20824,7 +20821,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR59" t="n">
         <v>1.0</v>
@@ -20860,16 +20857,16 @@
         <v>330</v>
       </c>
       <c r="DC59" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD59" t="s">
         <v>342</v>
       </c>
-      <c r="DD59" t="s">
+      <c r="DE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF59" t="s">
         <v>343</v>
-      </c>
-      <c r="DE59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF59" t="s">
-        <v>344</v>
       </c>
       <c r="DG59" t="n">
         <v>3.7857142857142856</v>
@@ -21123,10 +21120,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE60" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF60" t="s">
         <v>338</v>
-      </c>
-      <c r="CF60" t="s">
-        <v>339</v>
       </c>
       <c r="CG60" t="s">
         <v>324</v>
@@ -21198,13 +21195,13 @@
         <v>105</v>
       </c>
       <c r="DD60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE60" t="n">
         <v>0.0</v>
       </c>
       <c r="DF60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG60" t="n">
         <v>0.0</v>
@@ -21461,7 +21458,7 @@
         <v>325</v>
       </c>
       <c r="CF61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG61" t="s">
         <v>325</v>
@@ -21494,7 +21491,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR61" t="n">
         <v>0.0</v>
@@ -21530,7 +21527,7 @@
         <v>329</v>
       </c>
       <c r="DC61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD61" t="s">
         <v>15</v>
@@ -21539,7 +21536,7 @@
         <v>0.0</v>
       </c>
       <c r="DF61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG61" t="n">
         <v>2.857142857142857</v>
@@ -21801,8 +21798,8 @@
       <c r="CG62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH62" t="e">
-        <v>#N/A</v>
+      <c r="CH62" t="s">
+        <v>326</v>
       </c>
       <c r="CI62" t="e">
         <v>#N/A</v>
@@ -21810,14 +21807,14 @@
       <c r="CJ62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK62" t="e">
-        <v>#N/A</v>
+      <c r="CK62" t="s">
+        <v>326</v>
       </c>
       <c r="CL62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM62" t="e">
-        <v>#N/A</v>
+      <c r="CM62" t="s">
+        <v>326</v>
       </c>
       <c r="CN62" t="n">
         <v>5.0</v>
@@ -21829,7 +21826,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR62" t="n">
         <v>0.0</v>
@@ -21874,7 +21871,7 @@
         <v>0.0</v>
       </c>
       <c r="DF62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG62" t="n">
         <v>2.9285714285714284</v>
@@ -22119,7 +22116,7 @@
         <v>1.0</v>
       </c>
       <c r="CB63" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC63" t="n">
         <v>5.0</v>
@@ -22145,14 +22142,14 @@
       <c r="CJ63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM63" t="e">
-        <v>#N/A</v>
+      <c r="CK63" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>327</v>
       </c>
       <c r="CN63" t="n">
         <v>3.0</v>
@@ -22164,7 +22161,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR63" t="n">
         <v>0.0</v>
@@ -22203,13 +22200,13 @@
         <v>105</v>
       </c>
       <c r="DD63" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF63" t="s">
         <v>343</v>
-      </c>
-      <c r="DE63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF63" t="s">
-        <v>344</v>
       </c>
       <c r="DG63" t="n">
         <v>2.4285714285714284</v>
@@ -22474,17 +22471,17 @@
       <c r="CH64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL64" t="e">
-        <v>#N/A</v>
+      <c r="CI64" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ64" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK64" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>328</v>
       </c>
       <c r="CM64" t="e">
         <v>#N/A</v>
@@ -22499,7 +22496,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR64" t="n">
         <v>1.0</v>
@@ -22535,16 +22532,16 @@
         <v>329</v>
       </c>
       <c r="DC64" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD64" t="s">
         <v>342</v>
       </c>
-      <c r="DD64" t="s">
+      <c r="DE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF64" t="s">
         <v>343</v>
-      </c>
-      <c r="DE64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF64" t="s">
-        <v>344</v>
       </c>
       <c r="DG64" t="n">
         <v>3.4285714285714284</v>
@@ -22798,10 +22795,10 @@
         <v>7.0</v>
       </c>
       <c r="CE65" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF65" t="s">
         <v>338</v>
-      </c>
-      <c r="CF65" t="s">
-        <v>339</v>
       </c>
       <c r="CG65" t="s">
         <v>324</v>
@@ -22870,16 +22867,16 @@
         <v>329</v>
       </c>
       <c r="DC65" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD65" t="s">
         <v>342</v>
       </c>
-      <c r="DD65" t="s">
+      <c r="DE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF65" t="s">
         <v>343</v>
-      </c>
-      <c r="DE65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF65" t="s">
-        <v>344</v>
       </c>
       <c r="DG65" t="n">
         <v>0.0</v>
@@ -23136,7 +23133,7 @@
         <v>325</v>
       </c>
       <c r="CF66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG66" t="s">
         <v>325</v>
@@ -23169,7 +23166,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR66" t="n">
         <v>1.0</v>
@@ -23208,13 +23205,13 @@
         <v>105</v>
       </c>
       <c r="DD66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE66" t="n">
         <v>0.0</v>
       </c>
       <c r="DF66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DG66" t="n">
         <v>3.2142857142857144</v>
@@ -23476,8 +23473,8 @@
       <c r="CG67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH67" t="e">
-        <v>#N/A</v>
+      <c r="CH67" t="s">
+        <v>326</v>
       </c>
       <c r="CI67" t="e">
         <v>#N/A</v>
@@ -23485,14 +23482,14 @@
       <c r="CJ67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK67" t="e">
-        <v>#N/A</v>
+      <c r="CK67" t="s">
+        <v>326</v>
       </c>
       <c r="CL67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM67" t="e">
-        <v>#N/A</v>
+      <c r="CM67" t="s">
+        <v>326</v>
       </c>
       <c r="CN67" t="n">
         <v>9.0</v>
@@ -23504,7 +23501,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR67" t="n">
         <v>0.0</v>
@@ -23543,13 +23540,13 @@
         <v>105</v>
       </c>
       <c r="DD67" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF67" t="s">
         <v>343</v>
-      </c>
-      <c r="DE67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF67" t="s">
-        <v>344</v>
       </c>
       <c r="DG67" t="n">
         <v>3.357142857142857</v>
@@ -23794,7 +23791,7 @@
         <v>1.0</v>
       </c>
       <c r="CB68" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC68" t="n">
         <v>3.0</v>
@@ -23820,14 +23817,14 @@
       <c r="CJ68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM68" t="e">
-        <v>#N/A</v>
+      <c r="CK68" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL68" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM68" t="s">
+        <v>327</v>
       </c>
       <c r="CN68" t="n">
         <v>5.0</v>
@@ -23839,7 +23836,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR68" t="n">
         <v>1.0</v>
@@ -23878,13 +23875,13 @@
         <v>105</v>
       </c>
       <c r="DD68" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF68" t="s">
         <v>343</v>
-      </c>
-      <c r="DE68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF68" t="s">
-        <v>344</v>
       </c>
       <c r="DG68" t="n">
         <v>3.2857142857142856</v>
@@ -24149,17 +24146,17 @@
       <c r="CH69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL69" t="e">
-        <v>#N/A</v>
+      <c r="CI69" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ69" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK69" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL69" t="s">
+        <v>328</v>
       </c>
       <c r="CM69" t="e">
         <v>#N/A</v>
@@ -24174,7 +24171,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR69" t="n">
         <v>0.0</v>
@@ -24219,7 +24216,7 @@
         <v>0.0</v>
       </c>
       <c r="DF69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG69" t="n">
         <v>2.4285714285714284</v>
@@ -24473,10 +24470,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE70" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF70" t="s">
         <v>338</v>
-      </c>
-      <c r="CF70" t="s">
-        <v>339</v>
       </c>
       <c r="CG70" t="s">
         <v>324</v>
@@ -24545,16 +24542,16 @@
         <v>329</v>
       </c>
       <c r="DC70" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD70" t="s">
         <v>342</v>
       </c>
-      <c r="DD70" t="s">
+      <c r="DE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF70" t="s">
         <v>343</v>
-      </c>
-      <c r="DE70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF70" t="s">
-        <v>344</v>
       </c>
       <c r="DG70" t="n">
         <v>0.0</v>
@@ -24811,7 +24808,7 @@
         <v>325</v>
       </c>
       <c r="CF71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG71" t="s">
         <v>325</v>
@@ -24844,7 +24841,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR71" t="n">
         <v>0.0</v>
@@ -24889,7 +24886,7 @@
         <v>0.0</v>
       </c>
       <c r="DF71" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG71" t="n">
         <v>2.5</v>
@@ -25151,8 +25148,8 @@
       <c r="CG72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH72" t="e">
-        <v>#N/A</v>
+      <c r="CH72" t="s">
+        <v>326</v>
       </c>
       <c r="CI72" t="e">
         <v>#N/A</v>
@@ -25160,14 +25157,14 @@
       <c r="CJ72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK72" t="e">
-        <v>#N/A</v>
+      <c r="CK72" t="s">
+        <v>326</v>
       </c>
       <c r="CL72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM72" t="e">
-        <v>#N/A</v>
+      <c r="CM72" t="s">
+        <v>326</v>
       </c>
       <c r="CN72" t="n">
         <v>4.0</v>
@@ -25179,7 +25176,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR72" t="n">
         <v>0.0</v>
@@ -25224,7 +25221,7 @@
         <v>0.0</v>
       </c>
       <c r="DF72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG72" t="n">
         <v>3.0714285714285716</v>
@@ -25469,7 +25466,7 @@
         <v>1.0</v>
       </c>
       <c r="CB73" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC73" t="n">
         <v>7.0</v>
@@ -25495,14 +25492,14 @@
       <c r="CJ73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM73" t="e">
-        <v>#N/A</v>
+      <c r="CK73" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL73" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM73" t="s">
+        <v>327</v>
       </c>
       <c r="CN73" t="n">
         <v>1.0</v>
@@ -25514,7 +25511,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR73" t="n">
         <v>1.0</v>
@@ -25553,13 +25550,13 @@
         <v>105</v>
       </c>
       <c r="DD73" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF73" t="s">
         <v>343</v>
-      </c>
-      <c r="DE73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF73" t="s">
-        <v>344</v>
       </c>
       <c r="DG73" t="n">
         <v>3.5</v>
@@ -25824,17 +25821,17 @@
       <c r="CH74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL74" t="e">
-        <v>#N/A</v>
+      <c r="CI74" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ74" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK74" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL74" t="s">
+        <v>328</v>
       </c>
       <c r="CM74" t="e">
         <v>#N/A</v>
@@ -25849,7 +25846,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR74" t="n">
         <v>1.0</v>
@@ -25888,13 +25885,13 @@
         <v>105</v>
       </c>
       <c r="DD74" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF74" t="s">
         <v>343</v>
-      </c>
-      <c r="DE74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF74" t="s">
-        <v>344</v>
       </c>
       <c r="DG74" t="n">
         <v>3.0</v>
@@ -26148,10 +26145,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE75" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF75" t="s">
         <v>338</v>
-      </c>
-      <c r="CF75" t="s">
-        <v>339</v>
       </c>
       <c r="CG75" t="s">
         <v>324</v>
@@ -26229,7 +26226,7 @@
         <v>0.0</v>
       </c>
       <c r="DF75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG75" t="n">
         <v>0.0</v>
@@ -26486,7 +26483,7 @@
         <v>325</v>
       </c>
       <c r="CF76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG76" t="s">
         <v>325</v>
@@ -26519,7 +26516,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR76" t="n">
         <v>1.0</v>
@@ -26558,13 +26555,13 @@
         <v>105</v>
       </c>
       <c r="DD76" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF76" t="s">
         <v>343</v>
-      </c>
-      <c r="DE76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF76" t="s">
-        <v>344</v>
       </c>
       <c r="DG76" t="n">
         <v>3.7142857142857144</v>
@@ -26826,8 +26823,8 @@
       <c r="CG77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH77" t="e">
-        <v>#N/A</v>
+      <c r="CH77" t="s">
+        <v>326</v>
       </c>
       <c r="CI77" t="e">
         <v>#N/A</v>
@@ -26835,14 +26832,14 @@
       <c r="CJ77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK77" t="e">
-        <v>#N/A</v>
+      <c r="CK77" t="s">
+        <v>326</v>
       </c>
       <c r="CL77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM77" t="e">
-        <v>#N/A</v>
+      <c r="CM77" t="s">
+        <v>326</v>
       </c>
       <c r="CN77" t="e">
         <v>#N/A</v>
@@ -26854,7 +26851,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR77" t="n">
         <v>1.0</v>
@@ -26893,13 +26890,13 @@
         <v>105</v>
       </c>
       <c r="DD77" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF77" t="s">
         <v>343</v>
-      </c>
-      <c r="DE77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF77" t="s">
-        <v>344</v>
       </c>
       <c r="DG77" t="n">
         <v>3.2142857142857144</v>
@@ -27144,7 +27141,7 @@
         <v>1.0</v>
       </c>
       <c r="CB78" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC78" t="n">
         <v>4.0</v>
@@ -27170,14 +27167,14 @@
       <c r="CJ78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM78" t="e">
-        <v>#N/A</v>
+      <c r="CK78" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL78" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM78" t="s">
+        <v>327</v>
       </c>
       <c r="CN78" t="n">
         <v>4.0</v>
@@ -27189,7 +27186,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR78" t="n">
         <v>1.0</v>
@@ -27234,7 +27231,7 @@
         <v>0.0</v>
       </c>
       <c r="DF78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG78" t="n">
         <v>3.7142857142857144</v>
@@ -27499,17 +27496,17 @@
       <c r="CH79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL79" t="e">
-        <v>#N/A</v>
+      <c r="CI79" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ79" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK79" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL79" t="s">
+        <v>328</v>
       </c>
       <c r="CM79" t="e">
         <v>#N/A</v>
@@ -27524,7 +27521,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR79" t="n">
         <v>1.0</v>
@@ -27563,13 +27560,13 @@
         <v>105</v>
       </c>
       <c r="DD79" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF79" t="s">
         <v>343</v>
-      </c>
-      <c r="DE79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF79" t="s">
-        <v>344</v>
       </c>
       <c r="DG79" t="n">
         <v>2.642857142857143</v>
@@ -27823,10 +27820,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE80" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF80" t="s">
         <v>338</v>
-      </c>
-      <c r="CF80" t="s">
-        <v>339</v>
       </c>
       <c r="CG80" t="s">
         <v>324</v>
@@ -27898,13 +27895,13 @@
         <v>105</v>
       </c>
       <c r="DD80" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF80" t="s">
         <v>343</v>
-      </c>
-      <c r="DE80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF80" t="s">
-        <v>344</v>
       </c>
       <c r="DG80" t="n">
         <v>3.0</v>
@@ -28161,7 +28158,7 @@
         <v>325</v>
       </c>
       <c r="CF81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG81" t="s">
         <v>325</v>
@@ -28194,7 +28191,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR81" t="n">
         <v>1.0</v>
@@ -28230,16 +28227,16 @@
         <v>330</v>
       </c>
       <c r="DC81" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD81" t="s">
         <v>342</v>
       </c>
-      <c r="DD81" t="s">
+      <c r="DE81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF81" t="s">
         <v>343</v>
-      </c>
-      <c r="DE81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF81" t="s">
-        <v>344</v>
       </c>
       <c r="DG81" t="n">
         <v>3.4285714285714284</v>
@@ -28501,8 +28498,8 @@
       <c r="CG82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH82" t="e">
-        <v>#N/A</v>
+      <c r="CH82" t="s">
+        <v>326</v>
       </c>
       <c r="CI82" t="e">
         <v>#N/A</v>
@@ -28510,14 +28507,14 @@
       <c r="CJ82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK82" t="e">
-        <v>#N/A</v>
+      <c r="CK82" t="s">
+        <v>326</v>
       </c>
       <c r="CL82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM82" t="e">
-        <v>#N/A</v>
+      <c r="CM82" t="s">
+        <v>326</v>
       </c>
       <c r="CN82" t="e">
         <v>#N/A</v>
@@ -28529,7 +28526,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR82" t="n">
         <v>1.0</v>
@@ -28574,7 +28571,7 @@
         <v>0.0</v>
       </c>
       <c r="DF82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG82" t="n">
         <v>2.642857142857143</v>
@@ -28819,7 +28816,7 @@
         <v>1.0</v>
       </c>
       <c r="CB83" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC83" t="n">
         <v>7.0</v>
@@ -28845,14 +28842,14 @@
       <c r="CJ83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM83" t="e">
-        <v>#N/A</v>
+      <c r="CK83" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL83" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM83" t="s">
+        <v>327</v>
       </c>
       <c r="CN83" t="n">
         <v>1.0</v>
@@ -28864,7 +28861,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR83" t="n">
         <v>1.0</v>
@@ -28903,13 +28900,13 @@
         <v>105</v>
       </c>
       <c r="DD83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE83" t="n">
         <v>0.0</v>
       </c>
       <c r="DF83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG83" t="n">
         <v>3.7857142857142856</v>
@@ -29174,17 +29171,17 @@
       <c r="CH84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL84" t="e">
-        <v>#N/A</v>
+      <c r="CI84" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ84" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK84" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL84" t="s">
+        <v>328</v>
       </c>
       <c r="CM84" t="e">
         <v>#N/A</v>
@@ -29199,7 +29196,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR84" t="n">
         <v>1.0</v>
@@ -29235,7 +29232,7 @@
         <v>330</v>
       </c>
       <c r="DC84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD84" t="s">
         <v>15</v>
@@ -29244,7 +29241,7 @@
         <v>0.0</v>
       </c>
       <c r="DF84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG84" t="n">
         <v>3.0</v>
@@ -29498,10 +29495,10 @@
         <v>7.0</v>
       </c>
       <c r="CE85" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF85" t="s">
         <v>338</v>
-      </c>
-      <c r="CF85" t="s">
-        <v>339</v>
       </c>
       <c r="CG85" t="s">
         <v>324</v>
@@ -29570,16 +29567,16 @@
         <v>329</v>
       </c>
       <c r="DC85" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD85" t="s">
         <v>342</v>
       </c>
-      <c r="DD85" t="s">
+      <c r="DE85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF85" t="s">
         <v>343</v>
-      </c>
-      <c r="DE85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF85" t="s">
-        <v>344</v>
       </c>
       <c r="DG85" t="n">
         <v>2.9285714285714284</v>
@@ -29836,7 +29833,7 @@
         <v>325</v>
       </c>
       <c r="CF86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG86" t="s">
         <v>325</v>
@@ -29869,7 +29866,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR86" t="n">
         <v>0.0</v>
@@ -29914,7 +29911,7 @@
         <v>0.0</v>
       </c>
       <c r="DF86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG86" t="n">
         <v>3.2857142857142856</v>
@@ -30176,8 +30173,8 @@
       <c r="CG87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH87" t="e">
-        <v>#N/A</v>
+      <c r="CH87" t="s">
+        <v>326</v>
       </c>
       <c r="CI87" t="e">
         <v>#N/A</v>
@@ -30185,14 +30182,14 @@
       <c r="CJ87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK87" t="e">
-        <v>#N/A</v>
+      <c r="CK87" t="s">
+        <v>326</v>
       </c>
       <c r="CL87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM87" t="e">
-        <v>#N/A</v>
+      <c r="CM87" t="s">
+        <v>326</v>
       </c>
       <c r="CN87" t="n">
         <v>3.0</v>
@@ -30204,7 +30201,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR87" t="n">
         <v>1.0</v>
@@ -30249,7 +30246,7 @@
         <v>0.0</v>
       </c>
       <c r="DF87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG87" t="n">
         <v>3.7142857142857144</v>
@@ -30494,7 +30491,7 @@
         <v>1.0</v>
       </c>
       <c r="CB88" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC88" t="n">
         <v>7.0</v>
@@ -30520,14 +30517,14 @@
       <c r="CJ88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM88" t="e">
-        <v>#N/A</v>
+      <c r="CK88" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL88" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM88" t="s">
+        <v>327</v>
       </c>
       <c r="CN88" t="n">
         <v>1.0</v>
@@ -30539,7 +30536,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR88" t="n">
         <v>0.0</v>
@@ -30575,7 +30572,7 @@
         <v>330</v>
       </c>
       <c r="DC88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD88" t="s">
         <v>15</v>
@@ -30584,7 +30581,7 @@
         <v>0.0</v>
       </c>
       <c r="DF88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG88" t="n">
         <v>3.0</v>
@@ -30849,17 +30846,17 @@
       <c r="CH89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL89" t="e">
-        <v>#N/A</v>
+      <c r="CI89" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ89" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK89" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL89" t="s">
+        <v>328</v>
       </c>
       <c r="CM89" t="e">
         <v>#N/A</v>
@@ -30874,7 +30871,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR89" t="n">
         <v>1.0</v>
@@ -30913,13 +30910,13 @@
         <v>105</v>
       </c>
       <c r="DD89" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF89" t="s">
         <v>343</v>
-      </c>
-      <c r="DE89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF89" t="s">
-        <v>344</v>
       </c>
       <c r="DG89" t="n">
         <v>2.857142857142857</v>
@@ -31173,10 +31170,10 @@
         <v>3.0</v>
       </c>
       <c r="CE90" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF90" t="s">
         <v>338</v>
-      </c>
-      <c r="CF90" t="s">
-        <v>339</v>
       </c>
       <c r="CG90" t="s">
         <v>324</v>
@@ -31248,13 +31245,13 @@
         <v>105</v>
       </c>
       <c r="DD90" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF90" t="s">
         <v>343</v>
-      </c>
-      <c r="DE90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF90" t="s">
-        <v>344</v>
       </c>
       <c r="DG90" t="n">
         <v>2.5</v>
@@ -31511,7 +31508,7 @@
         <v>325</v>
       </c>
       <c r="CF91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG91" t="s">
         <v>325</v>
@@ -31544,7 +31541,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR91" t="n">
         <v>0.0</v>
@@ -31589,7 +31586,7 @@
         <v>0.0</v>
       </c>
       <c r="DF91" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG91" t="n">
         <v>3.0</v>
@@ -31851,8 +31848,8 @@
       <c r="CG92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH92" t="e">
-        <v>#N/A</v>
+      <c r="CH92" t="s">
+        <v>326</v>
       </c>
       <c r="CI92" t="e">
         <v>#N/A</v>
@@ -31860,14 +31857,14 @@
       <c r="CJ92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK92" t="e">
-        <v>#N/A</v>
+      <c r="CK92" t="s">
+        <v>326</v>
       </c>
       <c r="CL92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM92" t="e">
-        <v>#N/A</v>
+      <c r="CM92" t="s">
+        <v>326</v>
       </c>
       <c r="CN92" t="n">
         <v>1.0</v>
@@ -31879,7 +31876,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR92" t="n">
         <v>1.0</v>
@@ -31915,7 +31912,7 @@
         <v>330</v>
       </c>
       <c r="DC92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD92" t="s">
         <v>15</v>
@@ -31924,7 +31921,7 @@
         <v>0.0</v>
       </c>
       <c r="DF92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG92" t="n">
         <v>4.285714285714286</v>
@@ -32169,7 +32166,7 @@
         <v>0.0</v>
       </c>
       <c r="CB93" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC93" t="n">
         <v>8.0</v>
@@ -32195,14 +32192,14 @@
       <c r="CJ93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM93" t="e">
-        <v>#N/A</v>
+      <c r="CK93" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL93" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM93" t="s">
+        <v>327</v>
       </c>
       <c r="CN93" t="e">
         <v>#N/A</v>
@@ -32214,7 +32211,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR93" t="n">
         <v>0.0</v>
@@ -32253,13 +32250,13 @@
         <v>105</v>
       </c>
       <c r="DD93" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF93" t="s">
         <v>343</v>
-      </c>
-      <c r="DE93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF93" t="s">
-        <v>344</v>
       </c>
       <c r="DG93" t="n">
         <v>4.0</v>
@@ -32524,17 +32521,17 @@
       <c r="CH94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL94" t="e">
-        <v>#N/A</v>
+      <c r="CI94" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ94" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK94" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL94" t="s">
+        <v>328</v>
       </c>
       <c r="CM94" t="e">
         <v>#N/A</v>
@@ -32549,7 +32546,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR94" t="n">
         <v>1.0</v>
@@ -32594,7 +32591,7 @@
         <v>1.0</v>
       </c>
       <c r="DF94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG94" t="n">
         <v>3.857142857142857</v>
@@ -32848,10 +32845,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE95" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF95" t="s">
         <v>338</v>
-      </c>
-      <c r="CF95" t="s">
-        <v>339</v>
       </c>
       <c r="CG95" t="s">
         <v>324</v>
@@ -32923,13 +32920,13 @@
         <v>105</v>
       </c>
       <c r="DD95" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF95" t="s">
         <v>343</v>
-      </c>
-      <c r="DE95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF95" t="s">
-        <v>344</v>
       </c>
       <c r="DG95" t="n">
         <v>4.785714285714286</v>
@@ -33186,7 +33183,7 @@
         <v>325</v>
       </c>
       <c r="CF96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG96" t="s">
         <v>325</v>
@@ -33219,7 +33216,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR96" t="n">
         <v>1.0</v>
@@ -33258,13 +33255,13 @@
         <v>105</v>
       </c>
       <c r="DD96" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF96" t="s">
         <v>343</v>
-      </c>
-      <c r="DE96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF96" t="s">
-        <v>344</v>
       </c>
       <c r="DG96" t="n">
         <v>4.0</v>
@@ -33526,8 +33523,8 @@
       <c r="CG97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH97" t="e">
-        <v>#N/A</v>
+      <c r="CH97" t="s">
+        <v>326</v>
       </c>
       <c r="CI97" t="e">
         <v>#N/A</v>
@@ -33535,14 +33532,14 @@
       <c r="CJ97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK97" t="e">
-        <v>#N/A</v>
+      <c r="CK97" t="s">
+        <v>326</v>
       </c>
       <c r="CL97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM97" t="e">
-        <v>#N/A</v>
+      <c r="CM97" t="s">
+        <v>326</v>
       </c>
       <c r="CN97" t="n">
         <v>3.0</v>
@@ -33554,7 +33551,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR97" t="n">
         <v>1.0</v>
@@ -33590,7 +33587,7 @@
         <v>330</v>
       </c>
       <c r="DC97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD97" t="s">
         <v>15</v>
@@ -33599,7 +33596,7 @@
         <v>0.0</v>
       </c>
       <c r="DF97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG97" t="n">
         <v>3.0</v>
@@ -33844,7 +33841,7 @@
         <v>1.0</v>
       </c>
       <c r="CB98" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC98" t="n">
         <v>6.0</v>
@@ -33870,14 +33867,14 @@
       <c r="CJ98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM98" t="e">
-        <v>#N/A</v>
+      <c r="CK98" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL98" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM98" t="s">
+        <v>327</v>
       </c>
       <c r="CN98" t="n">
         <v>2.0</v>
@@ -33889,7 +33886,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR98" t="n">
         <v>0.0</v>
@@ -33934,7 +33931,7 @@
         <v>0.0</v>
       </c>
       <c r="DF98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG98" t="n">
         <v>3.7142857142857144</v>
@@ -34199,17 +34196,17 @@
       <c r="CH99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL99" t="e">
-        <v>#N/A</v>
+      <c r="CI99" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ99" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK99" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL99" t="s">
+        <v>328</v>
       </c>
       <c r="CM99" t="e">
         <v>#N/A</v>
@@ -34224,7 +34221,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR99" t="n">
         <v>1.0</v>
@@ -34260,7 +34257,7 @@
         <v>329</v>
       </c>
       <c r="DC99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD99" t="s">
         <v>15</v>
@@ -34269,7 +34266,7 @@
         <v>0.0</v>
       </c>
       <c r="DF99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG99" t="n">
         <v>3.2142857142857144</v>
@@ -34523,10 +34520,10 @@
         <v>4.0</v>
       </c>
       <c r="CE100" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF100" t="s">
         <v>338</v>
-      </c>
-      <c r="CF100" t="s">
-        <v>339</v>
       </c>
       <c r="CG100" t="s">
         <v>324</v>
@@ -34598,13 +34595,13 @@
         <v>105</v>
       </c>
       <c r="DD100" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF100" t="s">
         <v>343</v>
-      </c>
-      <c r="DE100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF100" t="s">
-        <v>344</v>
       </c>
       <c r="DG100" t="n">
         <v>2.5714285714285716</v>
@@ -34861,7 +34858,7 @@
         <v>325</v>
       </c>
       <c r="CF101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG101" t="s">
         <v>325</v>
@@ -34894,7 +34891,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR101" t="n">
         <v>1.0</v>
@@ -34930,16 +34927,16 @@
         <v>330</v>
       </c>
       <c r="DC101" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD101" t="s">
         <v>342</v>
       </c>
-      <c r="DD101" t="s">
+      <c r="DE101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF101" t="s">
         <v>343</v>
-      </c>
-      <c r="DE101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF101" t="s">
-        <v>344</v>
       </c>
       <c r="DG101" t="n">
         <v>2.857142857142857</v>
@@ -35201,8 +35198,8 @@
       <c r="CG102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH102" t="e">
-        <v>#N/A</v>
+      <c r="CH102" t="s">
+        <v>326</v>
       </c>
       <c r="CI102" t="e">
         <v>#N/A</v>
@@ -35210,14 +35207,14 @@
       <c r="CJ102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK102" t="e">
-        <v>#N/A</v>
+      <c r="CK102" t="s">
+        <v>326</v>
       </c>
       <c r="CL102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM102" t="e">
-        <v>#N/A</v>
+      <c r="CM102" t="s">
+        <v>326</v>
       </c>
       <c r="CN102" t="n">
         <v>2.0</v>
@@ -35229,7 +35226,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR102" t="n">
         <v>0.0</v>
@@ -35274,7 +35271,7 @@
         <v>0.0</v>
       </c>
       <c r="DF102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG102" t="n">
         <v>2.5</v>
@@ -35519,7 +35516,7 @@
         <v>1.0</v>
       </c>
       <c r="CB103" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC103" t="n">
         <v>3.0</v>
@@ -35545,14 +35542,14 @@
       <c r="CJ103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM103" t="e">
-        <v>#N/A</v>
+      <c r="CK103" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL103" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM103" t="s">
+        <v>327</v>
       </c>
       <c r="CN103" t="n">
         <v>5.0</v>
@@ -35564,7 +35561,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR103" t="n">
         <v>1.0</v>
@@ -35609,7 +35606,7 @@
         <v>0.0</v>
       </c>
       <c r="DF103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG103" t="n">
         <v>3.7142857142857144</v>
@@ -35874,17 +35871,17 @@
       <c r="CH104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL104" t="e">
-        <v>#N/A</v>
+      <c r="CI104" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ104" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK104" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL104" t="s">
+        <v>328</v>
       </c>
       <c r="CM104" t="e">
         <v>#N/A</v>
@@ -35899,7 +35896,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ104" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR104" t="n">
         <v>1.0</v>
@@ -35938,13 +35935,13 @@
         <v>105</v>
       </c>
       <c r="DD104" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF104" t="s">
         <v>343</v>
-      </c>
-      <c r="DE104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF104" t="s">
-        <v>344</v>
       </c>
       <c r="DG104" t="n">
         <v>3.0714285714285716</v>
@@ -36198,10 +36195,10 @@
         <v>5.0</v>
       </c>
       <c r="CE105" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF105" t="s">
         <v>338</v>
-      </c>
-      <c r="CF105" t="s">
-        <v>339</v>
       </c>
       <c r="CG105" t="s">
         <v>324</v>
@@ -36270,16 +36267,16 @@
         <v>330</v>
       </c>
       <c r="DC105" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD105" t="s">
         <v>342</v>
       </c>
-      <c r="DD105" t="s">
+      <c r="DE105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF105" t="s">
         <v>343</v>
-      </c>
-      <c r="DE105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF105" t="s">
-        <v>344</v>
       </c>
       <c r="DG105" t="n">
         <v>2.857142857142857</v>
@@ -36536,7 +36533,7 @@
         <v>325</v>
       </c>
       <c r="CF106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG106" t="s">
         <v>325</v>
@@ -36569,7 +36566,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR106" t="n">
         <v>0.0</v>
@@ -36608,13 +36605,13 @@
         <v>105</v>
       </c>
       <c r="DD106" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF106" t="s">
         <v>343</v>
-      </c>
-      <c r="DE106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF106" t="s">
-        <v>344</v>
       </c>
       <c r="DG106" t="n">
         <v>2.2142857142857144</v>
@@ -36876,8 +36873,8 @@
       <c r="CG107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH107" t="e">
-        <v>#N/A</v>
+      <c r="CH107" t="s">
+        <v>326</v>
       </c>
       <c r="CI107" t="e">
         <v>#N/A</v>
@@ -36885,14 +36882,14 @@
       <c r="CJ107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK107" t="e">
-        <v>#N/A</v>
+      <c r="CK107" t="s">
+        <v>326</v>
       </c>
       <c r="CL107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM107" t="e">
-        <v>#N/A</v>
+      <c r="CM107" t="s">
+        <v>326</v>
       </c>
       <c r="CN107" t="e">
         <v>#N/A</v>
@@ -36904,7 +36901,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ107" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR107" t="n">
         <v>0.0</v>
@@ -36949,7 +36946,7 @@
         <v>0.0</v>
       </c>
       <c r="DF107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG107" t="n">
         <v>3.357142857142857</v>
@@ -37194,7 +37191,7 @@
         <v>1.0</v>
       </c>
       <c r="CB108" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC108" t="n">
         <v>3.0</v>
@@ -37220,14 +37217,14 @@
       <c r="CJ108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM108" t="e">
-        <v>#N/A</v>
+      <c r="CK108" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL108" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM108" t="s">
+        <v>327</v>
       </c>
       <c r="CN108" t="n">
         <v>5.0</v>
@@ -37239,7 +37236,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ108" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR108" t="n">
         <v>1.0</v>
@@ -37284,7 +37281,7 @@
         <v>0.0</v>
       </c>
       <c r="DF108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG108" t="n">
         <v>3.0</v>
@@ -37549,17 +37546,17 @@
       <c r="CH109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL109" t="e">
-        <v>#N/A</v>
+      <c r="CI109" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ109" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK109" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL109" t="s">
+        <v>328</v>
       </c>
       <c r="CM109" t="e">
         <v>#N/A</v>
@@ -37574,7 +37571,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR109" t="n">
         <v>1.0</v>
@@ -37613,13 +37610,13 @@
         <v>105</v>
       </c>
       <c r="DD109" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF109" t="s">
         <v>343</v>
-      </c>
-      <c r="DE109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF109" t="s">
-        <v>344</v>
       </c>
       <c r="DG109" t="n">
         <v>2.9285714285714284</v>
@@ -37873,10 +37870,10 @@
         <v>7.0</v>
       </c>
       <c r="CE110" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF110" t="s">
         <v>338</v>
-      </c>
-      <c r="CF110" t="s">
-        <v>339</v>
       </c>
       <c r="CG110" t="s">
         <v>324</v>
@@ -37945,16 +37942,16 @@
         <v>330</v>
       </c>
       <c r="DC110" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD110" t="s">
         <v>342</v>
       </c>
-      <c r="DD110" t="s">
+      <c r="DE110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF110" t="s">
         <v>343</v>
-      </c>
-      <c r="DE110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF110" t="s">
-        <v>344</v>
       </c>
       <c r="DG110" t="n">
         <v>2.642857142857143</v>
@@ -38211,7 +38208,7 @@
         <v>325</v>
       </c>
       <c r="CF111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG111" t="s">
         <v>325</v>
@@ -38244,7 +38241,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR111" t="n">
         <v>1.0</v>
@@ -38283,13 +38280,13 @@
         <v>105</v>
       </c>
       <c r="DD111" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF111" t="s">
         <v>343</v>
-      </c>
-      <c r="DE111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF111" t="s">
-        <v>344</v>
       </c>
       <c r="DG111" t="n">
         <v>3.7142857142857144</v>
@@ -38551,8 +38548,8 @@
       <c r="CG112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH112" t="e">
-        <v>#N/A</v>
+      <c r="CH112" t="s">
+        <v>326</v>
       </c>
       <c r="CI112" t="e">
         <v>#N/A</v>
@@ -38560,14 +38557,14 @@
       <c r="CJ112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK112" t="e">
-        <v>#N/A</v>
+      <c r="CK112" t="s">
+        <v>326</v>
       </c>
       <c r="CL112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM112" t="e">
-        <v>#N/A</v>
+      <c r="CM112" t="s">
+        <v>326</v>
       </c>
       <c r="CN112" t="e">
         <v>#N/A</v>
@@ -38579,7 +38576,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ112" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR112" t="n">
         <v>1.0</v>
@@ -38618,13 +38615,13 @@
         <v>105</v>
       </c>
       <c r="DD112" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF112" t="s">
         <v>343</v>
-      </c>
-      <c r="DE112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF112" t="s">
-        <v>344</v>
       </c>
       <c r="DG112" t="n">
         <v>3.5714285714285716</v>
@@ -38869,7 +38866,7 @@
         <v>0.0</v>
       </c>
       <c r="CB113" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC113" t="n">
         <v>8.0</v>
@@ -38895,14 +38892,14 @@
       <c r="CJ113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM113" t="e">
-        <v>#N/A</v>
+      <c r="CK113" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL113" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM113" t="s">
+        <v>327</v>
       </c>
       <c r="CN113" t="e">
         <v>#N/A</v>
@@ -38914,7 +38911,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ113" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR113" t="n">
         <v>0.0</v>
@@ -38950,16 +38947,16 @@
         <v>329</v>
       </c>
       <c r="DC113" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD113" t="s">
         <v>342</v>
       </c>
-      <c r="DD113" t="s">
-        <v>343</v>
-      </c>
       <c r="DE113" t="n">
         <v>0.0</v>
       </c>
       <c r="DF113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG113" t="n">
         <v>2.5</v>
@@ -39224,17 +39221,17 @@
       <c r="CH114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL114" t="e">
-        <v>#N/A</v>
+      <c r="CI114" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ114" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK114" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL114" t="s">
+        <v>328</v>
       </c>
       <c r="CM114" t="e">
         <v>#N/A</v>
@@ -39249,7 +39246,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR114" t="n">
         <v>1.0</v>
@@ -39285,16 +39282,16 @@
         <v>329</v>
       </c>
       <c r="DC114" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD114" t="s">
         <v>342</v>
       </c>
-      <c r="DD114" t="s">
+      <c r="DE114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF114" t="s">
         <v>343</v>
-      </c>
-      <c r="DE114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF114" t="s">
-        <v>344</v>
       </c>
       <c r="DG114" t="n">
         <v>2.642857142857143</v>
@@ -39548,10 +39545,10 @@
         <v>5.0</v>
       </c>
       <c r="CE115" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF115" t="s">
         <v>338</v>
-      </c>
-      <c r="CF115" t="s">
-        <v>339</v>
       </c>
       <c r="CG115" t="s">
         <v>324</v>
@@ -39623,13 +39620,13 @@
         <v>105</v>
       </c>
       <c r="DD115" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF115" t="s">
         <v>343</v>
-      </c>
-      <c r="DE115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF115" t="s">
-        <v>344</v>
       </c>
       <c r="DG115" t="n">
         <v>3.2857142857142856</v>
@@ -39886,7 +39883,7 @@
         <v>325</v>
       </c>
       <c r="CF116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG116" t="s">
         <v>325</v>
@@ -39919,7 +39916,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR116" t="n">
         <v>0.0</v>
@@ -39958,13 +39955,13 @@
         <v>105</v>
       </c>
       <c r="DD116" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF116" t="s">
         <v>343</v>
-      </c>
-      <c r="DE116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF116" t="s">
-        <v>344</v>
       </c>
       <c r="DG116" t="n">
         <v>3.2142857142857144</v>
@@ -40226,8 +40223,8 @@
       <c r="CG117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH117" t="e">
-        <v>#N/A</v>
+      <c r="CH117" t="s">
+        <v>326</v>
       </c>
       <c r="CI117" t="e">
         <v>#N/A</v>
@@ -40235,14 +40232,14 @@
       <c r="CJ117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK117" t="e">
-        <v>#N/A</v>
+      <c r="CK117" t="s">
+        <v>326</v>
       </c>
       <c r="CL117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM117" t="e">
-        <v>#N/A</v>
+      <c r="CM117" t="s">
+        <v>326</v>
       </c>
       <c r="CN117" t="e">
         <v>#N/A</v>
@@ -40254,7 +40251,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR117" t="n">
         <v>0.0</v>
@@ -40290,16 +40287,16 @@
         <v>329</v>
       </c>
       <c r="DC117" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD117" t="s">
         <v>342</v>
       </c>
-      <c r="DD117" t="s">
+      <c r="DE117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF117" t="s">
         <v>343</v>
-      </c>
-      <c r="DE117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF117" t="s">
-        <v>344</v>
       </c>
       <c r="DG117" t="n">
         <v>3.2857142857142856</v>
@@ -40544,7 +40541,7 @@
         <v>1.0</v>
       </c>
       <c r="CB118" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC118" t="n">
         <v>0.0</v>
@@ -40570,14 +40567,14 @@
       <c r="CJ118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM118" t="e">
-        <v>#N/A</v>
+      <c r="CK118" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL118" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM118" t="s">
+        <v>327</v>
       </c>
       <c r="CN118" t="n">
         <v>8.0</v>
@@ -40589,7 +40586,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR118" t="n">
         <v>1.0</v>
@@ -40625,7 +40622,7 @@
         <v>329</v>
       </c>
       <c r="DC118" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD118" t="s">
         <v>15</v>
@@ -40634,7 +40631,7 @@
         <v>1.0</v>
       </c>
       <c r="DF118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG118" t="n">
         <v>2.7142857142857144</v>
@@ -40899,17 +40896,17 @@
       <c r="CH119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL119" t="e">
-        <v>#N/A</v>
+      <c r="CI119" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ119" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK119" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL119" t="s">
+        <v>328</v>
       </c>
       <c r="CM119" t="e">
         <v>#N/A</v>
@@ -40924,7 +40921,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ119" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR119" t="n">
         <v>0.0</v>
@@ -40969,7 +40966,7 @@
         <v>0.0</v>
       </c>
       <c r="DF119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG119" t="n">
         <v>2.142857142857143</v>
@@ -41223,10 +41220,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE120" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF120" t="s">
         <v>338</v>
-      </c>
-      <c r="CF120" t="s">
-        <v>339</v>
       </c>
       <c r="CG120" t="s">
         <v>324</v>
@@ -41295,7 +41292,7 @@
         <v>329</v>
       </c>
       <c r="DC120" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD120" t="s">
         <v>15</v>
@@ -41304,7 +41301,7 @@
         <v>0.0</v>
       </c>
       <c r="DF120" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG120" t="n">
         <v>2.4285714285714284</v>
@@ -41561,7 +41558,7 @@
         <v>325</v>
       </c>
       <c r="CF121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG121" t="s">
         <v>325</v>
@@ -41594,7 +41591,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR121" t="n">
         <v>1.0</v>
@@ -41639,7 +41636,7 @@
         <v>0.0</v>
       </c>
       <c r="DF121" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG121" t="n">
         <v>2.857142857142857</v>
@@ -41901,8 +41898,8 @@
       <c r="CG122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH122" t="e">
-        <v>#N/A</v>
+      <c r="CH122" t="s">
+        <v>326</v>
       </c>
       <c r="CI122" t="e">
         <v>#N/A</v>
@@ -41910,14 +41907,14 @@
       <c r="CJ122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK122" t="e">
-        <v>#N/A</v>
+      <c r="CK122" t="s">
+        <v>326</v>
       </c>
       <c r="CL122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM122" t="e">
-        <v>#N/A</v>
+      <c r="CM122" t="s">
+        <v>326</v>
       </c>
       <c r="CN122" t="e">
         <v>#N/A</v>
@@ -41929,7 +41926,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR122" t="n">
         <v>1.0</v>
@@ -41968,13 +41965,13 @@
         <v>105</v>
       </c>
       <c r="DD122" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF122" t="s">
         <v>343</v>
-      </c>
-      <c r="DE122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF122" t="s">
-        <v>344</v>
       </c>
       <c r="DG122" t="n">
         <v>4.0</v>
@@ -42219,7 +42216,7 @@
         <v>0.0</v>
       </c>
       <c r="CB123" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC123" t="n">
         <v>8.0</v>
@@ -42245,14 +42242,14 @@
       <c r="CJ123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM123" t="e">
-        <v>#N/A</v>
+      <c r="CK123" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL123" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM123" t="s">
+        <v>327</v>
       </c>
       <c r="CN123" t="e">
         <v>#N/A</v>
@@ -42264,7 +42261,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR123" t="n">
         <v>0.0</v>
@@ -42300,7 +42297,7 @@
         <v>329</v>
       </c>
       <c r="DC123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD123" t="s">
         <v>15</v>
@@ -42309,7 +42306,7 @@
         <v>0.0</v>
       </c>
       <c r="DF123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG123" t="n">
         <v>3.5714285714285716</v>
@@ -42574,17 +42571,17 @@
       <c r="CH124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL124" t="e">
-        <v>#N/A</v>
+      <c r="CI124" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ124" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK124" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL124" t="s">
+        <v>328</v>
       </c>
       <c r="CM124" t="e">
         <v>#N/A</v>
@@ -42599,7 +42596,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR124" t="n">
         <v>1.0</v>
@@ -42635,16 +42632,16 @@
         <v>329</v>
       </c>
       <c r="DC124" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD124" t="s">
         <v>342</v>
       </c>
-      <c r="DD124" t="s">
-        <v>343</v>
-      </c>
       <c r="DE124" t="n">
         <v>0.0</v>
       </c>
       <c r="DF124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG124" t="n">
         <v>3.642857142857143</v>
@@ -42898,10 +42895,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE125" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF125" t="s">
         <v>338</v>
-      </c>
-      <c r="CF125" t="s">
-        <v>339</v>
       </c>
       <c r="CG125" t="s">
         <v>324</v>
@@ -42970,7 +42967,7 @@
         <v>329</v>
       </c>
       <c r="DC125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD125" t="s">
         <v>15</v>
@@ -42979,7 +42976,7 @@
         <v>0.0</v>
       </c>
       <c r="DF125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG125" t="n">
         <v>2.5714285714285716</v>
@@ -43236,7 +43233,7 @@
         <v>325</v>
       </c>
       <c r="CF126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG126" t="s">
         <v>325</v>
@@ -43269,7 +43266,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR126" t="n">
         <v>1.0</v>
@@ -43314,7 +43311,7 @@
         <v>1.0</v>
       </c>
       <c r="DF126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG126" t="n">
         <v>1.8571428571428572</v>
@@ -43576,8 +43573,8 @@
       <c r="CG127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH127" t="e">
-        <v>#N/A</v>
+      <c r="CH127" t="s">
+        <v>326</v>
       </c>
       <c r="CI127" t="e">
         <v>#N/A</v>
@@ -43585,14 +43582,14 @@
       <c r="CJ127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK127" t="e">
-        <v>#N/A</v>
+      <c r="CK127" t="s">
+        <v>326</v>
       </c>
       <c r="CL127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM127" t="e">
-        <v>#N/A</v>
+      <c r="CM127" t="s">
+        <v>326</v>
       </c>
       <c r="CN127" t="n">
         <v>2.0</v>
@@ -43604,7 +43601,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR127" t="n">
         <v>0.0</v>
@@ -43643,13 +43640,13 @@
         <v>105</v>
       </c>
       <c r="DD127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE127" t="n">
         <v>0.0</v>
       </c>
       <c r="DF127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG127" t="n">
         <v>3.142857142857143</v>
@@ -43903,10 +43900,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE128" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF128" t="s">
         <v>338</v>
-      </c>
-      <c r="CF128" t="s">
-        <v>339</v>
       </c>
       <c r="CG128" t="s">
         <v>324</v>
@@ -43975,16 +43972,16 @@
         <v>329</v>
       </c>
       <c r="DC128" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD128" t="s">
         <v>342</v>
       </c>
-      <c r="DD128" t="s">
-        <v>343</v>
-      </c>
       <c r="DE128" t="n">
         <v>0.0</v>
       </c>
       <c r="DF128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG128" t="n">
         <v>2.4285714285714284</v>
@@ -44241,7 +44238,7 @@
         <v>325</v>
       </c>
       <c r="CF129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG129" t="s">
         <v>325</v>
@@ -44274,7 +44271,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ129" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR129" t="n">
         <v>0.0</v>
@@ -44310,16 +44307,16 @@
         <v>329</v>
       </c>
       <c r="DC129" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD129" t="s">
         <v>342</v>
       </c>
-      <c r="DD129" t="s">
+      <c r="DE129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF129" t="s">
         <v>343</v>
-      </c>
-      <c r="DE129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF129" t="s">
-        <v>344</v>
       </c>
       <c r="DG129" t="n">
         <v>2.7142857142857144</v>
@@ -44581,8 +44578,8 @@
       <c r="CG130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH130" t="e">
-        <v>#N/A</v>
+      <c r="CH130" t="s">
+        <v>326</v>
       </c>
       <c r="CI130" t="e">
         <v>#N/A</v>
@@ -44590,14 +44587,14 @@
       <c r="CJ130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK130" t="e">
-        <v>#N/A</v>
+      <c r="CK130" t="s">
+        <v>326</v>
       </c>
       <c r="CL130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM130" t="e">
-        <v>#N/A</v>
+      <c r="CM130" t="s">
+        <v>326</v>
       </c>
       <c r="CN130" t="n">
         <v>1.0</v>
@@ -44609,7 +44606,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR130" t="n">
         <v>0.0</v>
@@ -44648,13 +44645,13 @@
         <v>105</v>
       </c>
       <c r="DD130" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF130" t="s">
         <v>343</v>
-      </c>
-      <c r="DE130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF130" t="s">
-        <v>344</v>
       </c>
       <c r="DG130" t="n">
         <v>3.7857142857142856</v>
@@ -44899,7 +44896,7 @@
         <v>0.0</v>
       </c>
       <c r="CB131" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC131" t="n">
         <v>8.0</v>
@@ -44925,14 +44922,14 @@
       <c r="CJ131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM131" t="e">
-        <v>#N/A</v>
+      <c r="CK131" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL131" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM131" t="s">
+        <v>327</v>
       </c>
       <c r="CN131" t="e">
         <v>#N/A</v>
@@ -44944,7 +44941,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR131" t="n">
         <v>1.0</v>
@@ -44980,7 +44977,7 @@
         <v>329</v>
       </c>
       <c r="DC131" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD131" t="s">
         <v>15</v>
@@ -44989,7 +44986,7 @@
         <v>0.0</v>
       </c>
       <c r="DF131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG131" t="n">
         <v>3.0714285714285716</v>
@@ -45254,17 +45251,17 @@
       <c r="CH132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL132" t="e">
-        <v>#N/A</v>
+      <c r="CI132" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ132" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK132" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL132" t="s">
+        <v>328</v>
       </c>
       <c r="CM132" t="e">
         <v>#N/A</v>
@@ -45279,7 +45276,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR132" t="n">
         <v>0.0</v>
@@ -45324,7 +45321,7 @@
         <v>0.0</v>
       </c>
       <c r="DF132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG132" t="n">
         <v>2.857142857142857</v>
@@ -45578,10 +45575,10 @@
         <v>2.0</v>
       </c>
       <c r="CE133" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF133" t="s">
         <v>338</v>
-      </c>
-      <c r="CF133" t="s">
-        <v>339</v>
       </c>
       <c r="CG133" t="s">
         <v>324</v>
@@ -45659,7 +45656,7 @@
         <v>0.0</v>
       </c>
       <c r="DF133" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG133" t="n">
         <v>2.142857142857143</v>
@@ -45916,7 +45913,7 @@
         <v>325</v>
       </c>
       <c r="CF134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG134" t="s">
         <v>325</v>
@@ -45949,7 +45946,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR134" t="n">
         <v>1.0</v>
@@ -45985,16 +45982,16 @@
         <v>329</v>
       </c>
       <c r="DC134" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD134" t="s">
         <v>342</v>
       </c>
-      <c r="DD134" t="s">
+      <c r="DE134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF134" t="s">
         <v>343</v>
-      </c>
-      <c r="DE134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF134" t="s">
-        <v>344</v>
       </c>
       <c r="DG134" t="n">
         <v>3.5</v>
@@ -46256,8 +46253,8 @@
       <c r="CG135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH135" t="e">
-        <v>#N/A</v>
+      <c r="CH135" t="s">
+        <v>326</v>
       </c>
       <c r="CI135" t="e">
         <v>#N/A</v>
@@ -46265,14 +46262,14 @@
       <c r="CJ135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK135" t="e">
-        <v>#N/A</v>
+      <c r="CK135" t="s">
+        <v>326</v>
       </c>
       <c r="CL135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM135" t="e">
-        <v>#N/A</v>
+      <c r="CM135" t="s">
+        <v>326</v>
       </c>
       <c r="CN135" t="e">
         <v>#N/A</v>
@@ -46284,7 +46281,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR135" t="n">
         <v>1.0</v>
@@ -46320,16 +46317,16 @@
         <v>329</v>
       </c>
       <c r="DC135" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD135" t="s">
         <v>342</v>
       </c>
-      <c r="DD135" t="s">
+      <c r="DE135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF135" t="s">
         <v>343</v>
-      </c>
-      <c r="DE135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF135" t="s">
-        <v>344</v>
       </c>
       <c r="DG135" t="n">
         <v>3.7857142857142856</v>
@@ -46574,7 +46571,7 @@
         <v>1.0</v>
       </c>
       <c r="CB136" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC136" t="n">
         <v>0.0</v>
@@ -46600,14 +46597,14 @@
       <c r="CJ136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM136" t="e">
-        <v>#N/A</v>
+      <c r="CK136" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL136" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM136" t="s">
+        <v>327</v>
       </c>
       <c r="CN136" t="n">
         <v>8.0</v>
@@ -46619,7 +46616,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR136" t="n">
         <v>0.0</v>
@@ -46664,7 +46661,7 @@
         <v>1.0</v>
       </c>
       <c r="DF136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG136" t="n">
         <v>3.5714285714285716</v>
@@ -46929,17 +46926,17 @@
       <c r="CH137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL137" t="e">
-        <v>#N/A</v>
+      <c r="CI137" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ137" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK137" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL137" t="s">
+        <v>328</v>
       </c>
       <c r="CM137" t="e">
         <v>#N/A</v>
@@ -46954,7 +46951,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR137" t="n">
         <v>0.0</v>
@@ -46990,16 +46987,16 @@
         <v>330</v>
       </c>
       <c r="DC137" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD137" t="s">
         <v>342</v>
       </c>
-      <c r="DD137" t="s">
+      <c r="DE137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF137" t="s">
         <v>343</v>
-      </c>
-      <c r="DE137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF137" t="s">
-        <v>344</v>
       </c>
       <c r="DG137" t="n">
         <v>3.0714285714285716</v>
@@ -47253,10 +47250,10 @@
         <v>2.0</v>
       </c>
       <c r="CE138" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF138" t="s">
         <v>338</v>
-      </c>
-      <c r="CF138" t="s">
-        <v>339</v>
       </c>
       <c r="CG138" t="s">
         <v>324</v>
@@ -47334,7 +47331,7 @@
         <v>0.0</v>
       </c>
       <c r="DF138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG138" t="n">
         <v>2.7142857142857144</v>
@@ -47591,7 +47588,7 @@
         <v>325</v>
       </c>
       <c r="CF139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG139" t="s">
         <v>325</v>
@@ -47624,7 +47621,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ139" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR139" t="n">
         <v>0.0</v>
@@ -47669,7 +47666,7 @@
         <v>0.0</v>
       </c>
       <c r="DF139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG139" t="n">
         <v>3.642857142857143</v>
@@ -47931,8 +47928,8 @@
       <c r="CG140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH140" t="e">
-        <v>#N/A</v>
+      <c r="CH140" t="s">
+        <v>326</v>
       </c>
       <c r="CI140" t="e">
         <v>#N/A</v>
@@ -47940,14 +47937,14 @@
       <c r="CJ140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK140" t="e">
-        <v>#N/A</v>
+      <c r="CK140" t="s">
+        <v>326</v>
       </c>
       <c r="CL140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM140" t="e">
-        <v>#N/A</v>
+      <c r="CM140" t="s">
+        <v>326</v>
       </c>
       <c r="CN140" t="n">
         <v>2.0</v>
@@ -47959,7 +47956,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR140" t="n">
         <v>0.0</v>
@@ -47998,13 +47995,13 @@
         <v>105</v>
       </c>
       <c r="DD140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE140" t="n">
         <v>0.0</v>
       </c>
       <c r="DF140" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG140" t="n">
         <v>3.7142857142857144</v>
@@ -48249,7 +48246,7 @@
         <v>1.0</v>
       </c>
       <c r="CB141" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC141" t="n">
         <v>0.0</v>
@@ -48275,14 +48272,14 @@
       <c r="CJ141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM141" t="e">
-        <v>#N/A</v>
+      <c r="CK141" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL141" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM141" t="s">
+        <v>327</v>
       </c>
       <c r="CN141" t="n">
         <v>8.0</v>
@@ -48294,7 +48291,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR141" t="n">
         <v>0.0</v>
@@ -48333,13 +48330,13 @@
         <v>105</v>
       </c>
       <c r="DD141" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF141" t="s">
         <v>343</v>
-      </c>
-      <c r="DE141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF141" t="s">
-        <v>344</v>
       </c>
       <c r="DG141" t="n">
         <v>2.7142857142857144</v>
@@ -48604,17 +48601,17 @@
       <c r="CH142" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL142" t="e">
-        <v>#N/A</v>
+      <c r="CI142" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ142" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK142" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL142" t="s">
+        <v>328</v>
       </c>
       <c r="CM142" t="e">
         <v>#N/A</v>
@@ -48629,7 +48626,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR142" t="n">
         <v>1.0</v>
@@ -48674,7 +48671,7 @@
         <v>1.0</v>
       </c>
       <c r="DF142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG142" t="n">
         <v>3.142857142857143</v>
@@ -48928,10 +48925,10 @@
         <v>6.0</v>
       </c>
       <c r="CE143" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF143" t="s">
         <v>338</v>
-      </c>
-      <c r="CF143" t="s">
-        <v>339</v>
       </c>
       <c r="CG143" t="s">
         <v>324</v>
@@ -49009,7 +49006,7 @@
         <v>0.0</v>
       </c>
       <c r="DF143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG143" t="n">
         <v>3.0714285714285716</v>
@@ -49266,7 +49263,7 @@
         <v>325</v>
       </c>
       <c r="CF144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG144" t="s">
         <v>325</v>
@@ -49299,7 +49296,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR144" t="n">
         <v>0.0</v>
@@ -49338,13 +49335,13 @@
         <v>105</v>
       </c>
       <c r="DD144" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF144" t="s">
         <v>343</v>
-      </c>
-      <c r="DE144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF144" t="s">
-        <v>344</v>
       </c>
       <c r="DG144" t="n">
         <v>2.5714285714285716</v>
@@ -49606,8 +49603,8 @@
       <c r="CG145" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH145" t="e">
-        <v>#N/A</v>
+      <c r="CH145" t="s">
+        <v>326</v>
       </c>
       <c r="CI145" t="e">
         <v>#N/A</v>
@@ -49615,14 +49612,14 @@
       <c r="CJ145" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK145" t="e">
-        <v>#N/A</v>
+      <c r="CK145" t="s">
+        <v>326</v>
       </c>
       <c r="CL145" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM145" t="e">
-        <v>#N/A</v>
+      <c r="CM145" t="s">
+        <v>326</v>
       </c>
       <c r="CN145" t="e">
         <v>#N/A</v>
@@ -49634,7 +49631,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR145" t="n">
         <v>1.0</v>
@@ -49673,13 +49670,13 @@
         <v>105</v>
       </c>
       <c r="DD145" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF145" t="s">
         <v>343</v>
-      </c>
-      <c r="DE145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF145" t="s">
-        <v>344</v>
       </c>
       <c r="DG145" t="n">
         <v>3.142857142857143</v>
@@ -49933,10 +49930,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE146" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF146" t="s">
         <v>338</v>
-      </c>
-      <c r="CF146" t="s">
-        <v>339</v>
       </c>
       <c r="CG146" t="s">
         <v>324</v>
@@ -50008,13 +50005,13 @@
         <v>105</v>
       </c>
       <c r="DD146" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF146" t="s">
         <v>343</v>
-      </c>
-      <c r="DE146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF146" t="s">
-        <v>344</v>
       </c>
       <c r="DG146" t="n">
         <v>3.5</v>
@@ -50271,7 +50268,7 @@
         <v>325</v>
       </c>
       <c r="CF147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG147" t="s">
         <v>325</v>
@@ -50304,7 +50301,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR147" t="n">
         <v>1.0</v>
@@ -50343,13 +50340,13 @@
         <v>105</v>
       </c>
       <c r="DD147" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF147" t="s">
         <v>343</v>
-      </c>
-      <c r="DE147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF147" t="s">
-        <v>344</v>
       </c>
       <c r="DG147" t="n">
         <v>3.2142857142857144</v>
@@ -50611,8 +50608,8 @@
       <c r="CG148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH148" t="e">
-        <v>#N/A</v>
+      <c r="CH148" t="s">
+        <v>326</v>
       </c>
       <c r="CI148" t="e">
         <v>#N/A</v>
@@ -50620,14 +50617,14 @@
       <c r="CJ148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK148" t="e">
-        <v>#N/A</v>
+      <c r="CK148" t="s">
+        <v>326</v>
       </c>
       <c r="CL148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM148" t="e">
-        <v>#N/A</v>
+      <c r="CM148" t="s">
+        <v>326</v>
       </c>
       <c r="CN148" t="n">
         <v>3.0</v>
@@ -50639,7 +50636,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ148" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR148" t="n">
         <v>0.0</v>
@@ -50684,7 +50681,7 @@
         <v>0.0</v>
       </c>
       <c r="DF148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG148" t="n">
         <v>2.7142857142857144</v>
@@ -50929,7 +50926,7 @@
         <v>0.0</v>
       </c>
       <c r="CB149" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC149" t="n">
         <v>8.0</v>
@@ -50955,14 +50952,14 @@
       <c r="CJ149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM149" t="e">
-        <v>#N/A</v>
+      <c r="CK149" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL149" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM149" t="s">
+        <v>327</v>
       </c>
       <c r="CN149" t="e">
         <v>#N/A</v>
@@ -50974,7 +50971,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR149" t="n">
         <v>0.0</v>
@@ -51010,16 +51007,16 @@
         <v>329</v>
       </c>
       <c r="DC149" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD149" t="s">
         <v>342</v>
       </c>
-      <c r="DD149" t="s">
+      <c r="DE149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF149" t="s">
         <v>343</v>
-      </c>
-      <c r="DE149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF149" t="s">
-        <v>344</v>
       </c>
       <c r="DG149" t="n">
         <v>2.9285714285714284</v>
@@ -51284,17 +51281,17 @@
       <c r="CH150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL150" t="e">
-        <v>#N/A</v>
+      <c r="CI150" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ150" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK150" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL150" t="s">
+        <v>328</v>
       </c>
       <c r="CM150" t="e">
         <v>#N/A</v>
@@ -51309,7 +51306,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ150" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR150" t="n">
         <v>0.0</v>
@@ -51345,16 +51342,16 @@
         <v>329</v>
       </c>
       <c r="DC150" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD150" t="s">
         <v>342</v>
       </c>
-      <c r="DD150" t="s">
+      <c r="DE150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF150" t="s">
         <v>343</v>
-      </c>
-      <c r="DE150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF150" t="s">
-        <v>344</v>
       </c>
       <c r="DG150" t="n">
         <v>2.7142857142857144</v>
@@ -51608,10 +51605,10 @@
         <v>5.0</v>
       </c>
       <c r="CE151" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF151" t="s">
         <v>338</v>
-      </c>
-      <c r="CF151" t="s">
-        <v>339</v>
       </c>
       <c r="CG151" t="s">
         <v>324</v>
@@ -51689,7 +51686,7 @@
         <v>0.0</v>
       </c>
       <c r="DF151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG151" t="n">
         <v>2.5714285714285716</v>
@@ -51946,7 +51943,7 @@
         <v>325</v>
       </c>
       <c r="CF152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG152" t="s">
         <v>325</v>
@@ -51979,7 +51976,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR152" t="n">
         <v>1.0</v>
@@ -52024,7 +52021,7 @@
         <v>0.0</v>
       </c>
       <c r="DF152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG152" t="n">
         <v>3.642857142857143</v>
@@ -52286,8 +52283,8 @@
       <c r="CG153" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH153" t="e">
-        <v>#N/A</v>
+      <c r="CH153" t="s">
+        <v>326</v>
       </c>
       <c r="CI153" t="e">
         <v>#N/A</v>
@@ -52295,14 +52292,14 @@
       <c r="CJ153" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK153" t="e">
-        <v>#N/A</v>
+      <c r="CK153" t="s">
+        <v>326</v>
       </c>
       <c r="CL153" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM153" t="e">
-        <v>#N/A</v>
+      <c r="CM153" t="s">
+        <v>326</v>
       </c>
       <c r="CN153" t="n">
         <v>2.0</v>
@@ -52314,7 +52311,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ153" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR153" t="n">
         <v>1.0</v>
@@ -52353,13 +52350,13 @@
         <v>105</v>
       </c>
       <c r="DD153" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF153" t="s">
         <v>343</v>
-      </c>
-      <c r="DE153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF153" t="s">
-        <v>344</v>
       </c>
       <c r="DG153" t="n">
         <v>3.0714285714285716</v>
@@ -52604,7 +52601,7 @@
         <v>1.0</v>
       </c>
       <c r="CB154" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC154" t="n">
         <v>6.0</v>
@@ -52630,14 +52627,14 @@
       <c r="CJ154" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM154" t="e">
-        <v>#N/A</v>
+      <c r="CK154" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL154" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM154" t="s">
+        <v>327</v>
       </c>
       <c r="CN154" t="n">
         <v>2.0</v>
@@ -52649,7 +52646,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ154" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR154" t="n">
         <v>1.0</v>
@@ -52688,13 +52685,13 @@
         <v>105</v>
       </c>
       <c r="DD154" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF154" t="s">
         <v>343</v>
-      </c>
-      <c r="DE154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF154" t="s">
-        <v>344</v>
       </c>
       <c r="DG154" t="n">
         <v>3.7142857142857144</v>
@@ -52959,17 +52956,17 @@
       <c r="CH155" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL155" t="e">
-        <v>#N/A</v>
+      <c r="CI155" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ155" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK155" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL155" t="s">
+        <v>328</v>
       </c>
       <c r="CM155" t="e">
         <v>#N/A</v>
@@ -52984,7 +52981,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ155" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR155" t="n">
         <v>1.0</v>
@@ -53023,13 +53020,13 @@
         <v>105</v>
       </c>
       <c r="DD155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE155" t="n">
         <v>0.0</v>
       </c>
       <c r="DF155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG155" t="n">
         <v>3.642857142857143</v>
@@ -53283,10 +53280,10 @@
         <v>7.0</v>
       </c>
       <c r="CE156" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF156" t="s">
         <v>338</v>
-      </c>
-      <c r="CF156" t="s">
-        <v>339</v>
       </c>
       <c r="CG156" t="s">
         <v>324</v>
@@ -53364,7 +53361,7 @@
         <v>0.0</v>
       </c>
       <c r="DF156" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG156" t="n">
         <v>2.857142857142857</v>
@@ -53621,7 +53618,7 @@
         <v>325</v>
       </c>
       <c r="CF157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG157" t="s">
         <v>325</v>
@@ -53654,7 +53651,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR157" t="n">
         <v>1.0</v>
@@ -53693,13 +53690,13 @@
         <v>105</v>
       </c>
       <c r="DD157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE157" t="n">
         <v>0.0</v>
       </c>
       <c r="DF157" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG157" t="n">
         <v>3.0714285714285716</v>
@@ -53953,10 +53950,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE158" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF158" t="s">
         <v>338</v>
-      </c>
-      <c r="CF158" t="s">
-        <v>339</v>
       </c>
       <c r="CG158" t="s">
         <v>324</v>
@@ -54028,13 +54025,13 @@
         <v>105</v>
       </c>
       <c r="DD158" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF158" t="s">
         <v>343</v>
-      </c>
-      <c r="DE158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF158" t="s">
-        <v>344</v>
       </c>
       <c r="DG158" t="n">
         <v>2.857142857142857</v>
@@ -54291,7 +54288,7 @@
         <v>325</v>
       </c>
       <c r="CF159" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG159" t="s">
         <v>325</v>
@@ -54324,7 +54321,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ159" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR159" t="n">
         <v>0.0</v>
@@ -54363,13 +54360,13 @@
         <v>105</v>
       </c>
       <c r="DD159" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF159" t="s">
         <v>343</v>
-      </c>
-      <c r="DE159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF159" t="s">
-        <v>344</v>
       </c>
       <c r="DG159" t="n">
         <v>3.4285714285714284</v>
@@ -54631,8 +54628,8 @@
       <c r="CG160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH160" t="e">
-        <v>#N/A</v>
+      <c r="CH160" t="s">
+        <v>326</v>
       </c>
       <c r="CI160" t="e">
         <v>#N/A</v>
@@ -54640,14 +54637,14 @@
       <c r="CJ160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK160" t="e">
-        <v>#N/A</v>
+      <c r="CK160" t="s">
+        <v>326</v>
       </c>
       <c r="CL160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM160" t="e">
-        <v>#N/A</v>
+      <c r="CM160" t="s">
+        <v>326</v>
       </c>
       <c r="CN160" t="n">
         <v>2.0</v>
@@ -54659,7 +54656,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ160" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR160" t="n">
         <v>1.0</v>
@@ -54698,13 +54695,13 @@
         <v>105</v>
       </c>
       <c r="DD160" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF160" t="s">
         <v>343</v>
-      </c>
-      <c r="DE160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF160" t="s">
-        <v>344</v>
       </c>
       <c r="DG160" t="n">
         <v>3.357142857142857</v>
@@ -54949,7 +54946,7 @@
         <v>0.0</v>
       </c>
       <c r="CB161" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC161" t="n">
         <v>8.0</v>
@@ -54975,14 +54972,14 @@
       <c r="CJ161" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM161" t="e">
-        <v>#N/A</v>
+      <c r="CK161" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL161" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM161" t="s">
+        <v>327</v>
       </c>
       <c r="CN161" t="e">
         <v>#N/A</v>
@@ -54994,7 +54991,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ161" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR161" t="n">
         <v>0.0</v>
@@ -55030,16 +55027,16 @@
         <v>329</v>
       </c>
       <c r="DC161" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD161" t="s">
         <v>342</v>
       </c>
-      <c r="DD161" t="s">
+      <c r="DE161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF161" t="s">
         <v>343</v>
-      </c>
-      <c r="DE161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF161" t="s">
-        <v>344</v>
       </c>
       <c r="DG161" t="n">
         <v>2.357142857142857</v>
@@ -55304,17 +55301,17 @@
       <c r="CH162" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL162" t="e">
-        <v>#N/A</v>
+      <c r="CI162" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ162" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK162" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL162" t="s">
+        <v>328</v>
       </c>
       <c r="CM162" t="e">
         <v>#N/A</v>
@@ -55329,7 +55326,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ162" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR162" t="n">
         <v>1.0</v>
@@ -55374,7 +55371,7 @@
         <v>0.0</v>
       </c>
       <c r="DF162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG162" t="n">
         <v>3.357142857142857</v>
@@ -55628,10 +55625,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE163" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF163" t="s">
         <v>338</v>
-      </c>
-      <c r="CF163" t="s">
-        <v>339</v>
       </c>
       <c r="CG163" t="s">
         <v>324</v>
@@ -55700,7 +55697,7 @@
         <v>330</v>
       </c>
       <c r="DC163" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD163" t="s">
         <v>15</v>
@@ -55709,7 +55706,7 @@
         <v>0.0</v>
       </c>
       <c r="DF163" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG163" t="n">
         <v>2.857142857142857</v>
@@ -55966,7 +55963,7 @@
         <v>325</v>
       </c>
       <c r="CF164" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG164" t="s">
         <v>325</v>
@@ -55999,7 +55996,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR164" t="n">
         <v>1.0</v>
@@ -56035,16 +56032,16 @@
         <v>329</v>
       </c>
       <c r="DC164" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD164" t="s">
         <v>342</v>
       </c>
-      <c r="DD164" t="s">
+      <c r="DE164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF164" t="s">
         <v>343</v>
-      </c>
-      <c r="DE164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF164" t="s">
-        <v>344</v>
       </c>
       <c r="DG164" t="n">
         <v>3.0</v>
@@ -56306,8 +56303,8 @@
       <c r="CG165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH165" t="e">
-        <v>#N/A</v>
+      <c r="CH165" t="s">
+        <v>326</v>
       </c>
       <c r="CI165" t="e">
         <v>#N/A</v>
@@ -56315,14 +56312,14 @@
       <c r="CJ165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK165" t="e">
-        <v>#N/A</v>
+      <c r="CK165" t="s">
+        <v>326</v>
       </c>
       <c r="CL165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM165" t="e">
-        <v>#N/A</v>
+      <c r="CM165" t="s">
+        <v>326</v>
       </c>
       <c r="CN165" t="n">
         <v>3.0</v>
@@ -56334,7 +56331,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ165" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR165" t="n">
         <v>1.0</v>
@@ -56370,7 +56367,7 @@
         <v>329</v>
       </c>
       <c r="DC165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD165" t="s">
         <v>15</v>
@@ -56379,7 +56376,7 @@
         <v>0.0</v>
       </c>
       <c r="DF165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG165" t="n">
         <v>3.0</v>
@@ -56624,7 +56621,7 @@
         <v>1.0</v>
       </c>
       <c r="CB166" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC166" t="n">
         <v>3.0</v>
@@ -56650,14 +56647,14 @@
       <c r="CJ166" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM166" t="e">
-        <v>#N/A</v>
+      <c r="CK166" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL166" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM166" t="s">
+        <v>327</v>
       </c>
       <c r="CN166" t="n">
         <v>5.0</v>
@@ -56669,7 +56666,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ166" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR166" t="n">
         <v>0.0</v>
@@ -56714,7 +56711,7 @@
         <v>0.0</v>
       </c>
       <c r="DF166" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG166" t="n">
         <v>2.2142857142857144</v>
@@ -56979,17 +56976,17 @@
       <c r="CH167" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL167" t="e">
-        <v>#N/A</v>
+      <c r="CI167" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ167" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK167" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL167" t="s">
+        <v>328</v>
       </c>
       <c r="CM167" t="e">
         <v>#N/A</v>
@@ -57004,7 +57001,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR167" t="n">
         <v>0.0</v>
@@ -57040,7 +57037,7 @@
         <v>330</v>
       </c>
       <c r="DC167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD167" t="s">
         <v>15</v>
@@ -57049,7 +57046,7 @@
         <v>0.0</v>
       </c>
       <c r="DF167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG167" t="n">
         <v>2.2857142857142856</v>
@@ -57303,10 +57300,10 @@
         <v>7.0</v>
       </c>
       <c r="CE168" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF168" t="s">
         <v>338</v>
-      </c>
-      <c r="CF168" t="s">
-        <v>339</v>
       </c>
       <c r="CG168" t="s">
         <v>324</v>
@@ -57375,16 +57372,16 @@
         <v>329</v>
       </c>
       <c r="DC168" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD168" t="s">
         <v>342</v>
       </c>
-      <c r="DD168" t="s">
+      <c r="DE168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF168" t="s">
         <v>343</v>
-      </c>
-      <c r="DE168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF168" t="s">
-        <v>344</v>
       </c>
       <c r="DG168" t="n">
         <v>3.142857142857143</v>
@@ -57641,7 +57638,7 @@
         <v>325</v>
       </c>
       <c r="CF169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG169" t="s">
         <v>325</v>
@@ -57674,7 +57671,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR169" t="n">
         <v>1.0</v>
@@ -57710,16 +57707,16 @@
         <v>329</v>
       </c>
       <c r="DC169" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD169" t="s">
         <v>342</v>
       </c>
-      <c r="DD169" t="s">
+      <c r="DE169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF169" t="s">
         <v>343</v>
-      </c>
-      <c r="DE169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF169" t="s">
-        <v>344</v>
       </c>
       <c r="DG169" t="n">
         <v>2.7142857142857144</v>
@@ -57973,10 +57970,10 @@
         <v>5.0</v>
       </c>
       <c r="CE170" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF170" t="s">
         <v>338</v>
-      </c>
-      <c r="CF170" t="s">
-        <v>339</v>
       </c>
       <c r="CG170" t="s">
         <v>324</v>
@@ -58054,7 +58051,7 @@
         <v>0.0</v>
       </c>
       <c r="DF170" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG170" t="n">
         <v>2.7142857142857144</v>
@@ -58311,7 +58308,7 @@
         <v>325</v>
       </c>
       <c r="CF171" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG171" t="s">
         <v>325</v>
@@ -58344,7 +58341,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ171" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR171" t="n">
         <v>1.0</v>
@@ -58383,13 +58380,13 @@
         <v>105</v>
       </c>
       <c r="DD171" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF171" t="s">
         <v>343</v>
-      </c>
-      <c r="DE171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF171" t="s">
-        <v>344</v>
       </c>
       <c r="DG171" t="n">
         <v>3.5714285714285716</v>
@@ -58651,8 +58648,8 @@
       <c r="CG172" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH172" t="e">
-        <v>#N/A</v>
+      <c r="CH172" t="s">
+        <v>326</v>
       </c>
       <c r="CI172" t="e">
         <v>#N/A</v>
@@ -58660,14 +58657,14 @@
       <c r="CJ172" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK172" t="e">
-        <v>#N/A</v>
+      <c r="CK172" t="s">
+        <v>326</v>
       </c>
       <c r="CL172" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM172" t="e">
-        <v>#N/A</v>
+      <c r="CM172" t="s">
+        <v>326</v>
       </c>
       <c r="CN172" t="n">
         <v>8.0</v>
@@ -58679,7 +58676,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ172" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR172" t="n">
         <v>0.0</v>
@@ -58718,13 +58715,13 @@
         <v>105</v>
       </c>
       <c r="DD172" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF172" t="s">
         <v>343</v>
-      </c>
-      <c r="DE172" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF172" t="s">
-        <v>344</v>
       </c>
       <c r="DG172" t="n">
         <v>2.7142857142857144</v>
@@ -58969,7 +58966,7 @@
         <v>0.0</v>
       </c>
       <c r="CB173" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC173" t="n">
         <v>8.0</v>
@@ -58995,14 +58992,14 @@
       <c r="CJ173" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM173" t="e">
-        <v>#N/A</v>
+      <c r="CK173" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL173" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM173" t="s">
+        <v>327</v>
       </c>
       <c r="CN173" t="e">
         <v>#N/A</v>
@@ -59014,7 +59011,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ173" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR173" t="n">
         <v>1.0</v>
@@ -59050,16 +59047,16 @@
         <v>330</v>
       </c>
       <c r="DC173" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD173" t="s">
         <v>342</v>
       </c>
-      <c r="DD173" t="s">
+      <c r="DE173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF173" t="s">
         <v>343</v>
-      </c>
-      <c r="DE173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF173" t="s">
-        <v>344</v>
       </c>
       <c r="DG173" t="n">
         <v>2.2857142857142856</v>
@@ -59324,17 +59321,17 @@
       <c r="CH174" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL174" t="e">
-        <v>#N/A</v>
+      <c r="CI174" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ174" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK174" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL174" t="s">
+        <v>328</v>
       </c>
       <c r="CM174" t="e">
         <v>#N/A</v>
@@ -59349,7 +59346,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ174" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR174" t="n">
         <v>1.0</v>
@@ -59385,16 +59382,16 @@
         <v>329</v>
       </c>
       <c r="DC174" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD174" t="s">
         <v>342</v>
       </c>
-      <c r="DD174" t="s">
+      <c r="DE174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF174" t="s">
         <v>343</v>
-      </c>
-      <c r="DE174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF174" t="s">
-        <v>344</v>
       </c>
       <c r="DG174" t="n">
         <v>3.357142857142857</v>
@@ -59648,10 +59645,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE175" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF175" t="s">
         <v>338</v>
-      </c>
-      <c r="CF175" t="s">
-        <v>339</v>
       </c>
       <c r="CG175" t="s">
         <v>324</v>
@@ -59729,7 +59726,7 @@
         <v>0.0</v>
       </c>
       <c r="DF175" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG175" t="n">
         <v>3.0</v>
@@ -59986,7 +59983,7 @@
         <v>325</v>
       </c>
       <c r="CF176" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG176" t="s">
         <v>325</v>
@@ -60019,7 +60016,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR176" t="n">
         <v>0.0</v>
@@ -60058,13 +60055,13 @@
         <v>105</v>
       </c>
       <c r="DD176" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF176" t="s">
         <v>343</v>
-      </c>
-      <c r="DE176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF176" t="s">
-        <v>344</v>
       </c>
       <c r="DG176" t="n">
         <v>2.2857142857142856</v>
@@ -60326,8 +60323,8 @@
       <c r="CG177" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH177" t="e">
-        <v>#N/A</v>
+      <c r="CH177" t="s">
+        <v>326</v>
       </c>
       <c r="CI177" t="e">
         <v>#N/A</v>
@@ -60335,14 +60332,14 @@
       <c r="CJ177" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK177" t="e">
-        <v>#N/A</v>
+      <c r="CK177" t="s">
+        <v>326</v>
       </c>
       <c r="CL177" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM177" t="e">
-        <v>#N/A</v>
+      <c r="CM177" t="s">
+        <v>326</v>
       </c>
       <c r="CN177" t="e">
         <v>#N/A</v>
@@ -60354,7 +60351,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ177" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR177" t="n">
         <v>1.0</v>
@@ -60399,7 +60396,7 @@
         <v>0.0</v>
       </c>
       <c r="DF177" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG177" t="n">
         <v>3.0</v>
@@ -60644,7 +60641,7 @@
         <v>0.0</v>
       </c>
       <c r="CB178" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC178" t="n">
         <v>8.0</v>
@@ -60670,14 +60667,14 @@
       <c r="CJ178" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM178" t="e">
-        <v>#N/A</v>
+      <c r="CK178" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL178" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM178" t="s">
+        <v>327</v>
       </c>
       <c r="CN178" t="e">
         <v>#N/A</v>
@@ -60689,7 +60686,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR178" t="n">
         <v>1.0</v>
@@ -60725,16 +60722,16 @@
         <v>330</v>
       </c>
       <c r="DC178" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD178" t="s">
         <v>342</v>
       </c>
-      <c r="DD178" t="s">
+      <c r="DE178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF178" t="s">
         <v>343</v>
-      </c>
-      <c r="DE178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF178" t="s">
-        <v>344</v>
       </c>
       <c r="DG178" t="n">
         <v>3.5</v>
@@ -60999,17 +60996,17 @@
       <c r="CH179" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL179" t="e">
-        <v>#N/A</v>
+      <c r="CI179" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ179" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK179" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL179" t="s">
+        <v>328</v>
       </c>
       <c r="CM179" t="e">
         <v>#N/A</v>
@@ -61024,7 +61021,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR179" t="n">
         <v>0.0</v>
@@ -61060,16 +61057,16 @@
         <v>329</v>
       </c>
       <c r="DC179" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD179" t="s">
         <v>342</v>
       </c>
-      <c r="DD179" t="s">
+      <c r="DE179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF179" t="s">
         <v>343</v>
-      </c>
-      <c r="DE179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF179" t="s">
-        <v>344</v>
       </c>
       <c r="DG179" t="n">
         <v>3.642857142857143</v>
@@ -61323,10 +61320,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE180" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF180" t="s">
         <v>338</v>
-      </c>
-      <c r="CF180" t="s">
-        <v>339</v>
       </c>
       <c r="CG180" t="s">
         <v>324</v>
@@ -61395,7 +61392,7 @@
         <v>329</v>
       </c>
       <c r="DC180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD180" t="s">
         <v>15</v>
@@ -61404,7 +61401,7 @@
         <v>0.0</v>
       </c>
       <c r="DF180" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG180" t="n">
         <v>2.357142857142857</v>
@@ -61661,7 +61658,7 @@
         <v>325</v>
       </c>
       <c r="CF181" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG181" t="s">
         <v>325</v>
@@ -61694,7 +61691,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ181" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR181" t="n">
         <v>1.0</v>
@@ -61733,13 +61730,13 @@
         <v>105</v>
       </c>
       <c r="DD181" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF181" t="s">
         <v>343</v>
-      </c>
-      <c r="DE181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF181" t="s">
-        <v>344</v>
       </c>
       <c r="DG181" t="n">
         <v>2.9285714285714284</v>
@@ -62001,8 +61998,8 @@
       <c r="CG182" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH182" t="e">
-        <v>#N/A</v>
+      <c r="CH182" t="s">
+        <v>326</v>
       </c>
       <c r="CI182" t="e">
         <v>#N/A</v>
@@ -62010,14 +62007,14 @@
       <c r="CJ182" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK182" t="e">
-        <v>#N/A</v>
+      <c r="CK182" t="s">
+        <v>326</v>
       </c>
       <c r="CL182" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM182" t="e">
-        <v>#N/A</v>
+      <c r="CM182" t="s">
+        <v>326</v>
       </c>
       <c r="CN182" t="n">
         <v>5.0</v>
@@ -62029,7 +62026,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR182" t="n">
         <v>0.0</v>
@@ -62074,7 +62071,7 @@
         <v>0.0</v>
       </c>
       <c r="DF182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG182" t="n">
         <v>2.7857142857142856</v>
@@ -62319,7 +62316,7 @@
         <v>1.0</v>
       </c>
       <c r="CB183" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC183" t="n">
         <v>0.0</v>
@@ -62345,14 +62342,14 @@
       <c r="CJ183" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM183" t="e">
-        <v>#N/A</v>
+      <c r="CK183" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL183" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM183" t="s">
+        <v>327</v>
       </c>
       <c r="CN183" t="n">
         <v>8.0</v>
@@ -62364,7 +62361,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR183" t="n">
         <v>1.0</v>
@@ -62409,7 +62406,7 @@
         <v>1.0</v>
       </c>
       <c r="DF183" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG183" t="n">
         <v>3.5</v>
@@ -62674,17 +62671,17 @@
       <c r="CH184" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL184" t="e">
-        <v>#N/A</v>
+      <c r="CI184" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ184" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK184" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL184" t="s">
+        <v>328</v>
       </c>
       <c r="CM184" t="e">
         <v>#N/A</v>
@@ -62699,7 +62696,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ184" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR184" t="n">
         <v>1.0</v>
@@ -62744,7 +62741,7 @@
         <v>0.0</v>
       </c>
       <c r="DF184" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG184" t="n">
         <v>3.7857142857142856</v>
@@ -62998,10 +62995,10 @@
         <v>5.0</v>
       </c>
       <c r="CE185" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF185" t="s">
         <v>338</v>
-      </c>
-      <c r="CF185" t="s">
-        <v>339</v>
       </c>
       <c r="CG185" t="s">
         <v>324</v>
@@ -63079,7 +63076,7 @@
         <v>0.0</v>
       </c>
       <c r="DF185" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG185" t="n">
         <v>2.4285714285714284</v>
@@ -63336,7 +63333,7 @@
         <v>325</v>
       </c>
       <c r="CF186" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG186" t="s">
         <v>325</v>
@@ -63369,7 +63366,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ186" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR186" t="n">
         <v>0.0</v>
@@ -63414,7 +63411,7 @@
         <v>1.0</v>
       </c>
       <c r="DF186" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG186" t="n">
         <v>3.642857142857143</v>
@@ -63676,8 +63673,8 @@
       <c r="CG187" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH187" t="e">
-        <v>#N/A</v>
+      <c r="CH187" t="s">
+        <v>326</v>
       </c>
       <c r="CI187" t="e">
         <v>#N/A</v>
@@ -63685,14 +63682,14 @@
       <c r="CJ187" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK187" t="e">
-        <v>#N/A</v>
+      <c r="CK187" t="s">
+        <v>326</v>
       </c>
       <c r="CL187" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM187" t="e">
-        <v>#N/A</v>
+      <c r="CM187" t="s">
+        <v>326</v>
       </c>
       <c r="CN187" t="n">
         <v>1.0</v>
@@ -63704,7 +63701,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR187" t="n">
         <v>1.0</v>
@@ -63740,7 +63737,7 @@
         <v>330</v>
       </c>
       <c r="DC187" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD187" t="s">
         <v>15</v>
@@ -63749,7 +63746,7 @@
         <v>0.0</v>
       </c>
       <c r="DF187" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG187" t="n">
         <v>3.2142857142857144</v>
@@ -63994,7 +63991,7 @@
         <v>1.0</v>
       </c>
       <c r="CB188" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC188" t="n">
         <v>0.0</v>
@@ -64020,14 +64017,14 @@
       <c r="CJ188" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM188" t="e">
-        <v>#N/A</v>
+      <c r="CK188" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL188" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM188" t="s">
+        <v>327</v>
       </c>
       <c r="CN188" t="n">
         <v>8.0</v>
@@ -64039,7 +64036,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR188" t="n">
         <v>1.0</v>
@@ -64075,16 +64072,16 @@
         <v>330</v>
       </c>
       <c r="DC188" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD188" t="s">
         <v>342</v>
       </c>
-      <c r="DD188" t="s">
+      <c r="DE188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DF188" t="s">
         <v>343</v>
-      </c>
-      <c r="DE188" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="DF188" t="s">
-        <v>344</v>
       </c>
       <c r="DG188" t="n">
         <v>3.5714285714285716</v>
@@ -64338,10 +64335,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE189" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF189" t="s">
         <v>338</v>
-      </c>
-      <c r="CF189" t="s">
-        <v>339</v>
       </c>
       <c r="CG189" t="s">
         <v>324</v>
@@ -64410,7 +64407,7 @@
         <v>329</v>
       </c>
       <c r="DC189" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD189" t="s">
         <v>15</v>
@@ -64419,7 +64416,7 @@
         <v>0.0</v>
       </c>
       <c r="DF189" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DG189" t="n">
         <v>3.2857142857142856</v>
@@ -64676,7 +64673,7 @@
         <v>325</v>
       </c>
       <c r="CF190" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG190" t="s">
         <v>325</v>
@@ -64709,7 +64706,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ190" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR190" t="n">
         <v>0.0</v>
@@ -64745,7 +64742,7 @@
         <v>330</v>
       </c>
       <c r="DC190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD190" t="s">
         <v>15</v>
@@ -64754,7 +64751,7 @@
         <v>0.0</v>
       </c>
       <c r="DF190" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG190" t="n">
         <v>2.9285714285714284</v>
@@ -65016,8 +65013,8 @@
       <c r="CG191" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH191" t="e">
-        <v>#N/A</v>
+      <c r="CH191" t="s">
+        <v>326</v>
       </c>
       <c r="CI191" t="e">
         <v>#N/A</v>
@@ -65025,14 +65022,14 @@
       <c r="CJ191" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK191" t="e">
-        <v>#N/A</v>
+      <c r="CK191" t="s">
+        <v>326</v>
       </c>
       <c r="CL191" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM191" t="e">
-        <v>#N/A</v>
+      <c r="CM191" t="s">
+        <v>326</v>
       </c>
       <c r="CN191" t="e">
         <v>#N/A</v>
@@ -65044,7 +65041,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ191" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR191" t="n">
         <v>0.0</v>
@@ -65080,16 +65077,16 @@
         <v>330</v>
       </c>
       <c r="DC191" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD191" t="s">
         <v>342</v>
       </c>
-      <c r="DD191" t="s">
+      <c r="DE191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF191" t="s">
         <v>343</v>
-      </c>
-      <c r="DE191" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF191" t="s">
-        <v>344</v>
       </c>
       <c r="DG191" t="n">
         <v>2.9285714285714284</v>
@@ -65334,7 +65331,7 @@
         <v>1.0</v>
       </c>
       <c r="CB192" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC192" t="n">
         <v>5.0</v>
@@ -65360,14 +65357,14 @@
       <c r="CJ192" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM192" t="e">
-        <v>#N/A</v>
+      <c r="CK192" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL192" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM192" t="s">
+        <v>327</v>
       </c>
       <c r="CN192" t="n">
         <v>3.0</v>
@@ -65379,7 +65376,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR192" t="n">
         <v>1.0</v>
@@ -65424,7 +65421,7 @@
         <v>0.0</v>
       </c>
       <c r="DF192" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG192" t="n">
         <v>2.5714285714285716</v>
@@ -65689,17 +65686,17 @@
       <c r="CH193" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL193" t="e">
-        <v>#N/A</v>
+      <c r="CI193" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ193" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK193" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL193" t="s">
+        <v>328</v>
       </c>
       <c r="CM193" t="e">
         <v>#N/A</v>
@@ -65714,7 +65711,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR193" t="n">
         <v>0.0</v>
@@ -65753,13 +65750,13 @@
         <v>105</v>
       </c>
       <c r="DD193" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF193" t="s">
         <v>343</v>
-      </c>
-      <c r="DE193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF193" t="s">
-        <v>344</v>
       </c>
       <c r="DG193" t="n">
         <v>2.9285714285714284</v>
@@ -66013,10 +66010,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE194" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF194" t="s">
         <v>338</v>
-      </c>
-      <c r="CF194" t="s">
-        <v>339</v>
       </c>
       <c r="CG194" t="s">
         <v>324</v>
@@ -66085,16 +66082,16 @@
         <v>330</v>
       </c>
       <c r="DC194" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD194" t="s">
         <v>342</v>
       </c>
-      <c r="DD194" t="s">
+      <c r="DE194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF194" t="s">
         <v>343</v>
-      </c>
-      <c r="DE194" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF194" t="s">
-        <v>344</v>
       </c>
       <c r="DG194" t="n">
         <v>2.357142857142857</v>
@@ -66351,7 +66348,7 @@
         <v>325</v>
       </c>
       <c r="CF195" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG195" t="s">
         <v>325</v>
@@ -66384,7 +66381,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ195" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR195" t="n">
         <v>0.0</v>
@@ -66429,7 +66426,7 @@
         <v>0.0</v>
       </c>
       <c r="DF195" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG195" t="n">
         <v>2.642857142857143</v>
@@ -66691,8 +66688,8 @@
       <c r="CG196" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH196" t="e">
-        <v>#N/A</v>
+      <c r="CH196" t="s">
+        <v>326</v>
       </c>
       <c r="CI196" t="e">
         <v>#N/A</v>
@@ -66700,14 +66697,14 @@
       <c r="CJ196" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK196" t="e">
-        <v>#N/A</v>
+      <c r="CK196" t="s">
+        <v>326</v>
       </c>
       <c r="CL196" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM196" t="e">
-        <v>#N/A</v>
+      <c r="CM196" t="s">
+        <v>326</v>
       </c>
       <c r="CN196" t="n">
         <v>8.0</v>
@@ -66719,7 +66716,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR196" t="n">
         <v>1.0</v>
@@ -66758,13 +66755,13 @@
         <v>105</v>
       </c>
       <c r="DD196" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="DE196" t="n">
         <v>1.0</v>
       </c>
       <c r="DF196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG196" t="n">
         <v>3.357142857142857</v>
@@ -67009,7 +67006,7 @@
         <v>1.0</v>
       </c>
       <c r="CB197" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC197" t="n">
         <v>6.0</v>
@@ -67035,14 +67032,14 @@
       <c r="CJ197" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM197" t="e">
-        <v>#N/A</v>
+      <c r="CK197" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL197" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM197" t="s">
+        <v>327</v>
       </c>
       <c r="CN197" t="n">
         <v>2.0</v>
@@ -67054,7 +67051,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ197" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR197" t="n">
         <v>0.0</v>
@@ -67099,7 +67096,7 @@
         <v>0.0</v>
       </c>
       <c r="DF197" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG197" t="n">
         <v>3.0714285714285716</v>
@@ -67364,17 +67361,17 @@
       <c r="CH198" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL198" t="e">
-        <v>#N/A</v>
+      <c r="CI198" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ198" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK198" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL198" t="s">
+        <v>328</v>
       </c>
       <c r="CM198" t="e">
         <v>#N/A</v>
@@ -67389,7 +67386,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ198" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR198" t="n">
         <v>0.0</v>
@@ -67425,16 +67422,16 @@
         <v>329</v>
       </c>
       <c r="DC198" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD198" t="s">
         <v>342</v>
       </c>
-      <c r="DD198" t="s">
+      <c r="DE198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF198" t="s">
         <v>343</v>
-      </c>
-      <c r="DE198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF198" t="s">
-        <v>344</v>
       </c>
       <c r="DG198" t="n">
         <v>3.2857142857142856</v>
@@ -67688,10 +67685,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE199" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF199" t="s">
         <v>338</v>
-      </c>
-      <c r="CF199" t="s">
-        <v>339</v>
       </c>
       <c r="CG199" t="s">
         <v>324</v>
@@ -67760,16 +67757,16 @@
         <v>329</v>
       </c>
       <c r="DC199" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD199" t="s">
         <v>342</v>
       </c>
-      <c r="DD199" t="s">
-        <v>343</v>
-      </c>
       <c r="DE199" t="n">
         <v>0.0</v>
       </c>
       <c r="DF199" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG199" t="n">
         <v>2.7857142857142856</v>
@@ -68026,7 +68023,7 @@
         <v>325</v>
       </c>
       <c r="CF200" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG200" t="s">
         <v>325</v>
@@ -68059,7 +68056,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR200" t="n">
         <v>0.0</v>
@@ -68104,7 +68101,7 @@
         <v>1.0</v>
       </c>
       <c r="DF200" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG200" t="n">
         <v>3.142857142857143</v>
@@ -68366,8 +68363,8 @@
       <c r="CG201" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH201" t="e">
-        <v>#N/A</v>
+      <c r="CH201" t="s">
+        <v>326</v>
       </c>
       <c r="CI201" t="e">
         <v>#N/A</v>
@@ -68375,14 +68372,14 @@
       <c r="CJ201" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK201" t="e">
-        <v>#N/A</v>
+      <c r="CK201" t="s">
+        <v>326</v>
       </c>
       <c r="CL201" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM201" t="e">
-        <v>#N/A</v>
+      <c r="CM201" t="s">
+        <v>326</v>
       </c>
       <c r="CN201" t="e">
         <v>#N/A</v>
@@ -68394,7 +68391,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR201" t="n">
         <v>1.0</v>
@@ -68439,7 +68436,7 @@
         <v>0.0</v>
       </c>
       <c r="DF201" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="DG201" t="n">
         <v>3.357142857142857</v>
@@ -68684,7 +68681,7 @@
         <v>1.0</v>
       </c>
       <c r="CB202" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC202" t="n">
         <v>5.0</v>
@@ -68710,14 +68707,14 @@
       <c r="CJ202" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM202" t="e">
-        <v>#N/A</v>
+      <c r="CK202" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL202" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM202" t="s">
+        <v>327</v>
       </c>
       <c r="CN202" t="n">
         <v>3.0</v>
@@ -68729,7 +68726,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR202" t="n">
         <v>1.0</v>
@@ -68765,16 +68762,16 @@
         <v>329</v>
       </c>
       <c r="DC202" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD202" t="s">
         <v>342</v>
       </c>
-      <c r="DD202" t="s">
+      <c r="DE202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF202" t="s">
         <v>343</v>
-      </c>
-      <c r="DE202" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF202" t="s">
-        <v>344</v>
       </c>
       <c r="DG202" t="n">
         <v>3.5</v>
@@ -69039,17 +69036,17 @@
       <c r="CH203" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL203" t="e">
-        <v>#N/A</v>
+      <c r="CI203" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ203" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK203" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL203" t="s">
+        <v>328</v>
       </c>
       <c r="CM203" t="e">
         <v>#N/A</v>
@@ -69064,7 +69061,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ203" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR203" t="n">
         <v>1.0</v>
@@ -69100,7 +69097,7 @@
         <v>330</v>
       </c>
       <c r="DC203" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD203" t="s">
         <v>15</v>
@@ -69109,7 +69106,7 @@
         <v>0.0</v>
       </c>
       <c r="DF203" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG203" t="n">
         <v>3.2857142857142856</v>
@@ -69363,10 +69360,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE204" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF204" t="s">
         <v>338</v>
-      </c>
-      <c r="CF204" t="s">
-        <v>339</v>
       </c>
       <c r="CG204" t="s">
         <v>324</v>
@@ -69435,16 +69432,16 @@
         <v>330</v>
       </c>
       <c r="DC204" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD204" t="s">
         <v>342</v>
       </c>
-      <c r="DD204" t="s">
+      <c r="DE204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF204" t="s">
         <v>343</v>
-      </c>
-      <c r="DE204" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF204" t="s">
-        <v>344</v>
       </c>
       <c r="DG204" t="n">
         <v>3.357142857142857</v>
@@ -69701,7 +69698,7 @@
         <v>325</v>
       </c>
       <c r="CF205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG205" t="s">
         <v>325</v>
@@ -69734,7 +69731,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ205" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR205" t="n">
         <v>1.0</v>
@@ -69773,13 +69770,13 @@
         <v>105</v>
       </c>
       <c r="DD205" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF205" t="s">
         <v>343</v>
-      </c>
-      <c r="DE205" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF205" t="s">
-        <v>344</v>
       </c>
       <c r="DG205" t="n">
         <v>3.357142857142857</v>
@@ -70033,10 +70030,10 @@
         <v>#N/A</v>
       </c>
       <c r="CE206" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF206" t="s">
         <v>338</v>
-      </c>
-      <c r="CF206" t="s">
-        <v>339</v>
       </c>
       <c r="CG206" t="s">
         <v>324</v>
@@ -70105,7 +70102,7 @@
         <v>329</v>
       </c>
       <c r="DC206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD206" t="s">
         <v>15</v>
@@ -70114,7 +70111,7 @@
         <v>0.0</v>
       </c>
       <c r="DF206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG206" t="n">
         <v>2.857142857142857</v>
@@ -70371,7 +70368,7 @@
         <v>325</v>
       </c>
       <c r="CF207" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG207" t="s">
         <v>325</v>
@@ -70404,7 +70401,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ207" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR207" t="n">
         <v>1.0</v>
@@ -70443,13 +70440,13 @@
         <v>105</v>
       </c>
       <c r="DD207" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF207" t="s">
         <v>343</v>
-      </c>
-      <c r="DE207" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF207" t="s">
-        <v>344</v>
       </c>
       <c r="DG207" t="n">
         <v>3.0</v>
@@ -70711,8 +70708,8 @@
       <c r="CG208" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH208" t="e">
-        <v>#N/A</v>
+      <c r="CH208" t="s">
+        <v>326</v>
       </c>
       <c r="CI208" t="e">
         <v>#N/A</v>
@@ -70720,14 +70717,14 @@
       <c r="CJ208" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK208" t="e">
-        <v>#N/A</v>
+      <c r="CK208" t="s">
+        <v>326</v>
       </c>
       <c r="CL208" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM208" t="e">
-        <v>#N/A</v>
+      <c r="CM208" t="s">
+        <v>326</v>
       </c>
       <c r="CN208" t="n">
         <v>2.0</v>
@@ -70739,7 +70736,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ208" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR208" t="n">
         <v>1.0</v>
@@ -70778,13 +70775,13 @@
         <v>105</v>
       </c>
       <c r="DD208" t="s">
+        <v>342</v>
+      </c>
+      <c r="DE208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF208" t="s">
         <v>343</v>
-      </c>
-      <c r="DE208" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF208" t="s">
-        <v>344</v>
       </c>
       <c r="DG208" t="n">
         <v>2.857142857142857</v>
@@ -71029,7 +71026,7 @@
         <v>0.0</v>
       </c>
       <c r="CB209" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC209" t="n">
         <v>8.0</v>
@@ -71055,14 +71052,14 @@
       <c r="CJ209" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM209" t="e">
-        <v>#N/A</v>
+      <c r="CK209" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL209" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM209" t="s">
+        <v>327</v>
       </c>
       <c r="CN209" t="e">
         <v>#N/A</v>
@@ -71074,7 +71071,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ209" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR209" t="n">
         <v>1.0</v>
@@ -71110,16 +71107,16 @@
         <v>330</v>
       </c>
       <c r="DC209" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD209" t="s">
         <v>342</v>
       </c>
-      <c r="DD209" t="s">
-        <v>343</v>
-      </c>
       <c r="DE209" t="n">
         <v>0.0</v>
       </c>
       <c r="DF209" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DG209" t="n">
         <v>3.5</v>
@@ -71384,17 +71381,17 @@
       <c r="CH210" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK210" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL210" t="e">
-        <v>#N/A</v>
+      <c r="CI210" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ210" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK210" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL210" t="s">
+        <v>328</v>
       </c>
       <c r="CM210" t="e">
         <v>#N/A</v>
@@ -71409,7 +71406,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ210" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR210" t="n">
         <v>1.0</v>
@@ -71445,16 +71442,16 @@
         <v>330</v>
       </c>
       <c r="DC210" t="s">
+        <v>341</v>
+      </c>
+      <c r="DD210" t="s">
         <v>342</v>
       </c>
-      <c r="DD210" t="s">
+      <c r="DE210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DF210" t="s">
         <v>343</v>
-      </c>
-      <c r="DE210" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="DF210" t="s">
-        <v>344</v>
       </c>
       <c r="DG210" t="n">
         <v>3.357142857142857</v>
@@ -71708,10 +71705,10 @@
         <v>7.0</v>
       </c>
       <c r="CE211" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF211" t="s">
         <v>338</v>
-      </c>
-      <c r="CF211" t="s">
-        <v>339</v>
       </c>
       <c r="CG211" t="s">
         <v>324</v>
@@ -71789,7 +71786,7 @@
         <v>0.0</v>
       </c>
       <c r="DF211" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG211" t="n">
         <v>3.4285714285714284</v>
@@ -72046,7 +72043,7 @@
         <v>325</v>
       </c>
       <c r="CF212" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CG212" t="s">
         <v>325</v>
@@ -72079,7 +72076,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ212" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR212" t="n">
         <v>0.0</v>
@@ -72124,7 +72121,7 @@
         <v>0.0</v>
       </c>
       <c r="DF212" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG212" t="n">
         <v>3.357142857142857</v>
@@ -72386,8 +72383,8 @@
       <c r="CG213" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CH213" t="e">
-        <v>#N/A</v>
+      <c r="CH213" t="s">
+        <v>326</v>
       </c>
       <c r="CI213" t="e">
         <v>#N/A</v>
@@ -72395,14 +72392,14 @@
       <c r="CJ213" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK213" t="e">
-        <v>#N/A</v>
+      <c r="CK213" t="s">
+        <v>326</v>
       </c>
       <c r="CL213" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CM213" t="e">
-        <v>#N/A</v>
+      <c r="CM213" t="s">
+        <v>326</v>
       </c>
       <c r="CN213" t="n">
         <v>10.0</v>
@@ -72414,7 +72411,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ213" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR213" t="n">
         <v>0.0</v>
@@ -72450,7 +72447,7 @@
         <v>329</v>
       </c>
       <c r="DC213" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DD213" t="s">
         <v>15</v>
@@ -72459,7 +72456,7 @@
         <v>0.0</v>
       </c>
       <c r="DF213" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG213" t="n">
         <v>2.9285714285714284</v>
@@ -72704,7 +72701,7 @@
         <v>1.0</v>
       </c>
       <c r="CB214" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="CC214" t="n">
         <v>3.0</v>
@@ -72730,14 +72727,14 @@
       <c r="CJ214" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CK214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL214" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CM214" t="e">
-        <v>#N/A</v>
+      <c r="CK214" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL214" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM214" t="s">
+        <v>327</v>
       </c>
       <c r="CN214" t="n">
         <v>5.0</v>
@@ -72749,7 +72746,7 @@
         <v>1.0</v>
       </c>
       <c r="CQ214" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CR214" t="n">
         <v>1.0</v>
@@ -72794,7 +72791,7 @@
         <v>0.0</v>
       </c>
       <c r="DF214" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG214" t="n">
         <v>3.2857142857142856</v>
@@ -73059,17 +73056,17 @@
       <c r="CH215" t="e">
         <v>#N/A</v>
       </c>
-      <c r="CI215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CJ215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CK215" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CL215" t="e">
-        <v>#N/A</v>
+      <c r="CI215" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ215" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK215" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL215" t="s">
+        <v>328</v>
       </c>
       <c r="CM215" t="e">
         <v>#N/A</v>
@@ -73084,7 +73081,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ215" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CR215" t="n">
         <v>0.0</v>
@@ -73129,7 +73126,7 @@
         <v>0.0</v>
       </c>
       <c r="DF215" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DG215" t="n">
         <v>3.642857142857143</v>
